--- a/legendre_out/DATA/o17_ng/a4/o17_ng_a4Fit.xlsx
+++ b/legendre_out/DATA/o17_ng/a4/o17_ng_a4Fit.xlsx
@@ -418,31 +418,31 @@
         <v>3.996</v>
       </c>
       <c r="B2" t="n">
-        <v>1.085569283044209e-11</v>
+        <v>8.638685864660806e-13</v>
       </c>
       <c r="C2" t="n">
-        <v>5.724573595180792e-12</v>
+        <v>4.555470913473581e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.903272961867876e-13</v>
+        <v>-1.514576090859535e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>9.664710930513392e-13</v>
+        <v>7.690932585876313e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.923371012654037e-12</v>
+        <v>1.530570018918216e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>2.356382430033034e-12</v>
+        <v>1.875149557392166e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>8.600113581430001</v>
+        <v>8.600113615365718</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07191004939374815</v>
+        <v>0.07191004840380497</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1500283953575</v>
+        <v>2.150028403841429</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         <v>4.001</v>
       </c>
       <c r="B3" t="n">
-        <v>8.76492249039223e-12</v>
+        <v>6.974903704816981e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>7.269711753817393e-12</v>
+        <v>5.785052832678189e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.800462061776664e-13</v>
+        <v>1.43276218818161e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>1.30419125428105e-12</v>
+        <v>1.037842424315535e-13</v>
       </c>
       <c r="F3" t="n">
-        <v>2.331209284906681e-12</v>
+        <v>1.855117403792476e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>3.001984411848096e-12</v>
+        <v>2.388903290197599e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>7.116595079758142</v>
+        <v>7.116595127279559</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1298535070740361</v>
+        <v>0.1298535046655029</v>
       </c>
       <c r="J3" t="n">
-        <v>1.779148769939535</v>
+        <v>1.77914878181989</v>
       </c>
     </row>
     <row r="4">
@@ -482,31 +482,31 @@
         <v>4.0029</v>
       </c>
       <c r="B4" t="n">
-        <v>8.391868917276141e-12</v>
+        <v>6.67803709779381e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>2.472783238934656e-12</v>
+        <v>1.967778375302711e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>4.100370870942316e-13</v>
+        <v>3.26297132860341e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>1.335295311120101e-12</v>
+        <v>1.062594245558122e-13</v>
       </c>
       <c r="F4" t="n">
-        <v>2.646385046937353e-12</v>
+        <v>2.105926306778021e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>2.947243726166709e-12</v>
+        <v>2.345342036480566e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7554682787457226</v>
+        <v>0.7554682829931019</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9443164773077307</v>
+        <v>0.9443164767578994</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1888670696864307</v>
+        <v>0.1888670707482755</v>
       </c>
     </row>
     <row r="5">
@@ -514,31 +514,31 @@
         <v>4.007</v>
       </c>
       <c r="B5" t="n">
-        <v>9.697941413942553e-12</v>
+        <v>7.71737656988127e-13</v>
       </c>
       <c r="C5" t="n">
-        <v>5.166492207845832e-12</v>
+        <v>4.111363859817962e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.602579510189584e-13</v>
+        <v>-2.866841907292175e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>1.558378015511746e-12</v>
+        <v>1.240117821583516e-13</v>
       </c>
       <c r="F5" t="n">
-        <v>3.095716581602812e-12</v>
+        <v>2.463492981296148e-13</v>
       </c>
       <c r="G5" t="n">
-        <v>3.653203752413913e-12</v>
+        <v>2.907127177210916e-13</v>
       </c>
       <c r="H5" t="n">
-        <v>2.780632826464922</v>
+        <v>2.780632803113174</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5951804360292084</v>
+        <v>0.5951804400712084</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6951582066162305</v>
+        <v>0.6951582007782935</v>
       </c>
     </row>
     <row r="6">
@@ -546,31 +546,31 @@
         <v>4.0091</v>
       </c>
       <c r="B6" t="n">
-        <v>1.169218965497069e-11</v>
+        <v>9.304348909736249e-13</v>
       </c>
       <c r="C6" t="n">
-        <v>3.606157506656144e-12</v>
+        <v>2.8696889712287e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>1.356379095612223e-12</v>
+        <v>1.079372183830305e-13</v>
       </c>
       <c r="E6" t="n">
-        <v>1.844776002035391e-12</v>
+        <v>1.468026099293532e-13</v>
       </c>
       <c r="F6" t="n">
-        <v>3.699729924428512e-12</v>
+        <v>2.944151527939483e-13</v>
       </c>
       <c r="G6" t="n">
-        <v>4.348128980187678e-12</v>
+        <v>3.460131101933832e-13</v>
       </c>
       <c r="H6" t="n">
-        <v>4.497134774801645</v>
+        <v>4.497134830668535</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3428873566167847</v>
+        <v>0.3428873499871441</v>
       </c>
       <c r="J6" t="n">
-        <v>1.124283693700411</v>
+        <v>1.124283707667134</v>
       </c>
     </row>
     <row r="7">
@@ -578,31 +578,31 @@
         <v>4.01</v>
       </c>
       <c r="B7" t="n">
-        <v>9.618639099850881e-12</v>
+        <v>7.654269793592442e-13</v>
       </c>
       <c r="C7" t="n">
-        <v>2.157905797966995e-12</v>
+        <v>1.717206874765963e-13</v>
       </c>
       <c r="D7" t="n">
-        <v>1.230251112473072e-12</v>
+        <v>9.790027349390542e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>1.824928516343294e-12</v>
+        <v>1.452231971882517e-13</v>
       </c>
       <c r="F7" t="n">
-        <v>3.653103176992712e-12</v>
+        <v>2.907047142544366e-13</v>
       </c>
       <c r="G7" t="n">
-        <v>4.038622899252876e-12</v>
+        <v>3.213833988979754e-13</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7067303800770764</v>
+        <v>0.7067303860046591</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9504963416474955</v>
+        <v>0.9504963409119546</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1766825950192691</v>
+        <v>0.1766825965011648</v>
       </c>
     </row>
     <row r="8">
@@ -610,31 +610,31 @@
         <v>4.0151</v>
       </c>
       <c r="B8" t="n">
-        <v>1.019718298791825e-11</v>
+        <v>8.114660388570361e-13</v>
       </c>
       <c r="C8" t="n">
-        <v>6.38695149061987e-12</v>
+        <v>5.082574467575096e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.421800151781555e-13</v>
+        <v>-6.701855850827822e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>1.647354382780043e-12</v>
+        <v>1.310922964780261e-13</v>
       </c>
       <c r="F8" t="n">
-        <v>2.776392239823744e-12</v>
+        <v>2.209382745951145e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>3.489176846305233e-12</v>
+        <v>2.776598711226016e-13</v>
       </c>
       <c r="H8" t="n">
-        <v>2.597550484145052</v>
+        <v>2.597550453505654</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6272571063569421</v>
+        <v>0.6272571117861104</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6493876210362629</v>
+        <v>0.6493876133764135</v>
       </c>
     </row>
     <row r="9">
@@ -642,31 +642,31 @@
         <v>4.0191</v>
       </c>
       <c r="B9" t="n">
-        <v>1.054448085773266e-11</v>
+        <v>8.391031259470681e-13</v>
       </c>
       <c r="C9" t="n">
-        <v>9.129464850080196e-12</v>
+        <v>7.264997293021035e-13</v>
       </c>
       <c r="D9" t="n">
-        <v>3.375488172431494e-12</v>
+        <v>2.686128119080543e-13</v>
       </c>
       <c r="E9" t="n">
-        <v>1.216934054833574e-12</v>
+        <v>9.684053537645812e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.467071486814486e-12</v>
+        <v>1.963233114524697e-13</v>
       </c>
       <c r="G9" t="n">
-        <v>2.801079317513305e-12</v>
+        <v>2.229028101109226e-13</v>
       </c>
       <c r="H9" t="n">
-        <v>5.709518357842645</v>
+        <v>5.709518349341509</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2219172656868983</v>
+        <v>0.2219172663854688</v>
       </c>
       <c r="J9" t="n">
-        <v>1.427379589460661</v>
+        <v>1.427379587335377</v>
       </c>
     </row>
     <row r="10">
@@ -674,31 +674,31 @@
         <v>4.0199</v>
       </c>
       <c r="B10" t="n">
-        <v>1.31439081778717e-11</v>
+        <v>1.045958979693246e-12</v>
       </c>
       <c r="C10" t="n">
-        <v>5.348008061408267e-12</v>
+        <v>4.255809571283043e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.501182944042051e-12</v>
+        <v>-1.990378135779422e-13</v>
       </c>
       <c r="E10" t="n">
-        <v>1.952511604517373e-12</v>
+        <v>1.553759366952714e-13</v>
       </c>
       <c r="F10" t="n">
-        <v>3.916897642565262e-12</v>
+        <v>3.116968107625019e-13</v>
       </c>
       <c r="G10" t="n">
-        <v>4.429724944183853e-12</v>
+        <v>3.525063106316844e-13</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4562033471849035</v>
+        <v>0.4562033762255433</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9776221324839375</v>
+        <v>0.977622129847355</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1140508367962259</v>
+        <v>0.1140508440563858</v>
       </c>
     </row>
     <row r="11">
@@ -706,31 +706,31 @@
         <v>4.025</v>
       </c>
       <c r="B11" t="n">
-        <v>1.30256140704719e-11</v>
+        <v>1.036545431896859e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>5.411491310599342e-12</v>
+        <v>4.306327926725409e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.294539768078333e-13</v>
+        <v>-3.417486109687431e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>1.926036724301548e-12</v>
+        <v>1.532691327426491e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>3.757473871954438e-12</v>
+        <v>2.990102702843409e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>3.957692597778576e-12</v>
+        <v>3.149431703006291e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>1.246516125111777</v>
+        <v>1.246516124320449</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8703822611158905</v>
+        <v>0.8703822612481164</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3116290312779442</v>
+        <v>0.3116290310801123</v>
       </c>
     </row>
     <row r="12">
@@ -738,31 +738,31 @@
         <v>4.03</v>
       </c>
       <c r="B12" t="n">
-        <v>1.449316041393954e-11</v>
+        <v>1.153329060583197e-12</v>
       </c>
       <c r="C12" t="n">
-        <v>9.5914416038131e-12</v>
+        <v>7.632626708863093e-13</v>
       </c>
       <c r="D12" t="n">
-        <v>1.443579694851291e-12</v>
+        <v>1.148764198358032e-13</v>
       </c>
       <c r="E12" t="n">
-        <v>1.623595495345786e-12</v>
+        <v>1.292016244541903e-13</v>
       </c>
       <c r="F12" t="n">
-        <v>3.054854964155937e-12</v>
+        <v>2.430976340462106e-13</v>
       </c>
       <c r="G12" t="n">
-        <v>3.745111156747819e-12</v>
+        <v>2.980264768169442e-13</v>
       </c>
       <c r="H12" t="n">
-        <v>6.498854983908828</v>
+        <v>6.498854881060643</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1648625428581072</v>
+        <v>0.1648625493409437</v>
       </c>
       <c r="J12" t="n">
-        <v>1.624713745977207</v>
+        <v>1.624713720265161</v>
       </c>
     </row>
     <row r="13">
@@ -770,31 +770,31 @@
         <v>4.0351</v>
       </c>
       <c r="B13" t="n">
-        <v>1.389756823262435e-11</v>
+        <v>1.105933338038148e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>6.85828437956213e-12</v>
+        <v>5.457649297264648e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.114959532953176e-12</v>
+        <v>-2.478805988460555e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>1.508936575232537e-12</v>
+        <v>1.200773574186399e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>2.902205713265656e-12</v>
+        <v>2.309501924858603e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>3.614375341278626e-12</v>
+        <v>2.876228509349576e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>3.833995660082611</v>
+        <v>3.833995670332843</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4289380041118663</v>
+        <v>0.4289380026671458</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9584989150206527</v>
+        <v>0.9584989175832108</v>
       </c>
     </row>
     <row r="14">
@@ -802,31 +802,31 @@
         <v>4.27</v>
       </c>
       <c r="B14" t="n">
-        <v>3.825424682006675e-12</v>
+        <v>3.399720106292538e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.405022798253666e-13</v>
+        <v>-2.575083318479668e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.859488533725458e-12</v>
+        <v>4.273404924828751e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>1.01490555988661e-12</v>
+        <v>8.378973217679633e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>2.321537789589028e-12</v>
+        <v>1.859118683879807e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>1.952632444847426e-12</v>
+        <v>2.300476418683372e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>2.751963879375138</v>
+        <v>0.2133633493550959</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4314686827008779</v>
+        <v>0.89881174199398</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9173212931250458</v>
+        <v>0.106681674677548</v>
       </c>
     </row>
     <row r="15">
@@ -834,31 +834,31 @@
         <v>4.2901</v>
       </c>
       <c r="B15" t="n">
-        <v>4.134794929189649e-12</v>
+        <v>3.290365261668069e-13</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.422086649149874e-13</v>
+        <v>-1.131660617736831e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.040244048562302e-12</v>
+        <v>-1.623574629717865e-13</v>
       </c>
       <c r="E15" t="n">
-        <v>1.101541632577594e-12</v>
+        <v>8.765789799718907e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>2.024783542600324e-12</v>
+        <v>1.611271549573648e-13</v>
       </c>
       <c r="G15" t="n">
-        <v>2.272031282774354e-12</v>
+        <v>1.808025049064227e-13</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4550141329436753</v>
+        <v>0.4550141306207892</v>
       </c>
       <c r="I15" t="n">
-        <v>0.977729991865567</v>
+        <v>0.9777299920760358</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1137535332359188</v>
+        <v>0.1137535326551973</v>
       </c>
     </row>
     <row r="16">
@@ -866,31 +866,31 @@
         <v>4.2911</v>
       </c>
       <c r="B16" t="n">
-        <v>3.650204382251182e-12</v>
+        <v>2.904740352145901e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>8.729402359354568e-13</v>
+        <v>6.946637748942483e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.957367335227534e-12</v>
+        <v>-1.557623443409208e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>1.118675915537125e-12</v>
+        <v>8.902140088430569e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>1.75042403230869e-12</v>
+        <v>1.392943184647539e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>2.196478359383003e-12</v>
+        <v>1.74790194205889e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9931539297940792</v>
+        <v>0.9931539277997206</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9108322946425422</v>
+        <v>0.9108322949439117</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2482884824485198</v>
+        <v>0.2482884819499301</v>
       </c>
     </row>
     <row r="17">
@@ -898,31 +898,31 @@
         <v>4.2932</v>
       </c>
       <c r="B17" t="n">
-        <v>3.921485870497916e-12</v>
+        <v>3.120619300959645e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>1.823493253128596e-13</v>
+        <v>1.451089846890082e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.733613906726813e-12</v>
+        <v>-1.379566111448817e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>1.30235626706229e-12</v>
+        <v>1.036382187096053e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>2.036136897227514e-12</v>
+        <v>1.620306257550471e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>2.848626145038817e-12</v>
+        <v>2.266864658651443e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>2.083703457030007</v>
+        <v>2.083703467781822</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7203668935959739</v>
+        <v>0.7203668916199724</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5209258642575018</v>
+        <v>0.5209258669454556</v>
       </c>
     </row>
     <row r="18">
@@ -930,31 +930,31 @@
         <v>4.2942</v>
       </c>
       <c r="B18" t="n">
-        <v>4.152357307562877e-12</v>
+        <v>3.897297023133836e-13</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.656278136353165e-12</v>
+        <v>7.111120241255336e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.326037403832225e-12</v>
+        <v>1.746709049431872e-13</v>
       </c>
       <c r="E18" t="n">
-        <v>1.424552917159692e-12</v>
+        <v>1.160147982178266e-13</v>
       </c>
       <c r="F18" t="n">
-        <v>2.192491039944865e-12</v>
+        <v>2.103566685650735e-13</v>
       </c>
       <c r="G18" t="n">
-        <v>3.125035777918044e-12</v>
+        <v>2.746422964641589e-13</v>
       </c>
       <c r="H18" t="n">
-        <v>7.404466165195835</v>
+        <v>1.625595298195291</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1159964649672311</v>
+        <v>0.6536002833009393</v>
       </c>
       <c r="J18" t="n">
-        <v>1.851116541298959</v>
+        <v>0.5418650993984303</v>
       </c>
     </row>
     <row r="19">
@@ -962,31 +962,31 @@
         <v>4.2951</v>
       </c>
       <c r="B19" t="n">
-        <v>2.629341188660279e-12</v>
+        <v>3.507429299500482e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>7.629249506818418e-13</v>
+        <v>-1.250581536864132e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>2.504468948804211e-13</v>
+        <v>4.798276293922669e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>1.044645017512588e-12</v>
+        <v>1.098507127117022e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>1.661916003323833e-12</v>
+        <v>1.624110789858645e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>2.570609287473683e-12</v>
+        <v>2.050573282215348e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>4.065231040675322</v>
+        <v>0.1819894466246671</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3972497649994303</v>
+        <v>0.9804430724402516</v>
       </c>
       <c r="J19" t="n">
-        <v>1.016307760168831</v>
+        <v>0.06066314887488903</v>
       </c>
     </row>
     <row r="20">
@@ -994,31 +994,31 @@
         <v>4.2962</v>
       </c>
       <c r="B20" t="n">
-        <v>2.631616632892759e-12</v>
+        <v>2.09417397905247e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.884472472672578e-14</v>
+        <v>-3.886940134707976e-15</v>
       </c>
       <c r="D20" t="n">
-        <v>4.441099773523076e-13</v>
+        <v>3.534114855574385e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>1.076880539642446e-12</v>
+        <v>8.569543037431642e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>1.731388430113846e-12</v>
+        <v>1.377795134278394e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>2.25892376778747e-12</v>
+        <v>1.797594415121343e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.046041471059687</v>
+        <v>2.046041472271656</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7272907664876765</v>
+        <v>0.7272907662648054</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5115103677649216</v>
+        <v>0.5115103680679141</v>
       </c>
     </row>
     <row r="21">
@@ -1026,31 +1026,31 @@
         <v>4.2972</v>
       </c>
       <c r="B21" t="n">
-        <v>6.22977791750047e-12</v>
+        <v>4.957499756864076e-13</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.760710945196904e-12</v>
+        <v>-4.584228125959781e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>2.634856956465605e-12</v>
+        <v>2.096752548504719e-13</v>
       </c>
       <c r="E21" t="n">
-        <v>2.437808736911361e-12</v>
+        <v>1.939946553085712e-13</v>
       </c>
       <c r="F21" t="n">
-        <v>4.829075067173165e-12</v>
+        <v>3.842855834717935e-13</v>
       </c>
       <c r="G21" t="n">
-        <v>3.847508063624905e-12</v>
+        <v>3.061749633778226e-13</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2712168584950037</v>
+        <v>0.2712168605589587</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9915956547078605</v>
+        <v>0.9915956545856628</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06780421462375093</v>
+        <v>0.06780421513973968</v>
       </c>
     </row>
     <row r="22">
@@ -1058,31 +1058,31 @@
         <v>4.2981</v>
       </c>
       <c r="B22" t="n">
-        <v>3.274066462378156e-12</v>
+        <v>2.605419308825583e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>6.048794625296867e-14</v>
+        <v>4.813478028721806e-15</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.106276799193373e-13</v>
+        <v>-5.654995461913383e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>1.45959963197823e-12</v>
+        <v>1.16151248152479e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>2.543477161740543e-12</v>
+        <v>2.024034813273511e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>3.497569990252093e-12</v>
+        <v>2.783277765536435e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>1.860248938291931</v>
+        <v>1.860248939738041</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7614429887234513</v>
+        <v>0.7614429884581349</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4650622345729828</v>
+        <v>0.4650622349345102</v>
       </c>
     </row>
     <row r="23">
@@ -1090,31 +1090,31 @@
         <v>4.2991</v>
       </c>
       <c r="B23" t="n">
-        <v>5.302979513850184e-12</v>
+        <v>6.526573909083461e-13</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.408923630197536e-12</v>
+        <v>-7.468163398550815e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>7.212626939089636e-12</v>
+        <v>3.794279358586824e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>6.382683260529637e-12</v>
+        <v>5.673049921009147e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>1.259096255854256e-11</v>
+        <v>1.016655764476178e-12</v>
       </c>
       <c r="G23" t="n">
-        <v>8.057399721937965e-12</v>
+        <v>6.756780779252047e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>1.576071252391756</v>
+        <v>0.7428657703551587</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4547371923230679</v>
+        <v>0.3887444133672476</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7880356261958782</v>
+        <v>0.7428657703551587</v>
       </c>
     </row>
     <row r="24">
@@ -1122,31 +1122,31 @@
         <v>4.3011</v>
       </c>
       <c r="B24" t="n">
-        <v>1.909782348967184e-12</v>
+        <v>5.684868334517196e-13</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.21092570538656e-12</v>
+        <v>3.751979737560798e-13</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.543859547747856e-12</v>
+        <v>6.808832739565172e-13</v>
       </c>
       <c r="E24" t="n">
-        <v>1.12969370990413e-12</v>
+        <v>2.794505776039943e-13</v>
       </c>
       <c r="F24" t="n">
-        <v>1.656773359908104e-12</v>
+        <v>7.537860560278363e-13</v>
       </c>
       <c r="G24" t="n">
-        <v>5.123985689233904e-12</v>
+        <v>8.673231494220225e-13</v>
       </c>
       <c r="H24" t="n">
-        <v>2.548174351994042</v>
+        <v>0.04042968016388356</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4666477733721871</v>
+        <v>0.8406427986919577</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8493914506646808</v>
+        <v>0.04042968016388356</v>
       </c>
     </row>
     <row r="25">
@@ -1154,31 +1154,31 @@
         <v>4.3031</v>
       </c>
       <c r="B25" t="n">
-        <v>3.216813080705866e-12</v>
+        <v>6.130247133749225e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>7.4258058482982e-12</v>
+        <v>3.292768420311658e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>5.244100840178154e-13</v>
+        <v>1.120494327245407e-12</v>
       </c>
       <c r="E25" t="n">
-        <v>2.178522218301364e-12</v>
+        <v>4.581825390441421e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>7.66149103938812e-12</v>
+        <v>6.843349416841398e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>8.043994919881593e-12</v>
+        <v>1.432426273761134e-12</v>
       </c>
       <c r="H25" t="n">
-        <v>1.366933629325787</v>
+        <v>0.6582455961001346</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5048636860979774</v>
+        <v>0.4171799978834716</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6834668146628936</v>
+        <v>0.6582455961001346</v>
       </c>
     </row>
     <row r="26">
@@ -1186,31 +1186,31 @@
         <v>4.3052</v>
       </c>
       <c r="B26" t="n">
-        <v>3.417445554729203e-12</v>
+        <v>3.533116067649174e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.300698941441019e-12</v>
+        <v>-5.614060923126762e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>3.520927405576733e-12</v>
+        <v>-5.516752682197661e-16</v>
       </c>
       <c r="E26" t="n">
-        <v>1.915554635479693e-12</v>
+        <v>1.822642902665138e-13</v>
       </c>
       <c r="F26" t="n">
-        <v>3.202917627172729e-12</v>
+        <v>3.595725214266652e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>3.722206324911541e-12</v>
+        <v>4.545422755361727e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>1.577669716865589</v>
+        <v>0.9146547265175059</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6644635934012293</v>
+        <v>0.6329730940074814</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5258899056218631</v>
+        <v>0.457327363258753</v>
       </c>
     </row>
     <row r="27">
@@ -1218,31 +1218,31 @@
         <v>4.3072</v>
       </c>
       <c r="B27" t="n">
-        <v>8.771860340629165e-12</v>
+        <v>6.980424680369357e-13</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.439580207923168e-12</v>
+        <v>-1.145581544258454e-13</v>
       </c>
       <c r="D27" t="n">
-        <v>1.359960986080774e-12</v>
+        <v>1.082222571126733e-13</v>
       </c>
       <c r="E27" t="n">
-        <v>3.931467656304516e-12</v>
+        <v>3.12856255430488e-13</v>
       </c>
       <c r="F27" t="n">
-        <v>6.968664367018289e-12</v>
+        <v>5.545486901063876e-13</v>
       </c>
       <c r="G27" t="n">
-        <v>6.97133375334123e-12</v>
+        <v>5.547611129223773e-13</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6663553897620957</v>
+        <v>0.6663553948491431</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8810874915073197</v>
+        <v>0.8810874903200987</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2221184632540319</v>
+        <v>0.2221184649497144</v>
       </c>
     </row>
     <row r="28">
@@ -1250,31 +1250,31 @@
         <v>4.3093</v>
       </c>
       <c r="B28" t="n">
-        <v>1.249843543255659e-11</v>
+        <v>9.94593889420267e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.241878652576111e-11</v>
+        <v>-9.882556311102733e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>7.5557819932354e-12</v>
+        <v>6.012700268946936e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>7.276081583783586e-12</v>
+        <v>5.790121754019327e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>1.396643857979571e-11</v>
+        <v>1.111413868534565e-12</v>
       </c>
       <c r="G28" t="n">
-        <v>1.276200196334026e-11</v>
+        <v>1.01556784736008e-12</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4820843015353888</v>
+        <v>0.4820842994211233</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7858085032585945</v>
+        <v>0.7858085040892986</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2410421507676944</v>
+        <v>0.2410421497105616</v>
       </c>
     </row>
     <row r="29">
@@ -1282,31 +1282,31 @@
         <v>4.31</v>
       </c>
       <c r="B29" t="n">
-        <v>7.760030438652706e-12</v>
+        <v>6.17523601098088e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.676176480556711e-12</v>
+        <v>-2.925408288436869e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>6.846249165752293e-12</v>
+        <v>5.448071978727517e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>3.209594779524134e-12</v>
+        <v>2.554114370246985e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>6.77674919719311e-12</v>
+        <v>5.39276565990221e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>8.343638977116209e-12</v>
+        <v>6.639656924135456e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1924228276606406</v>
+        <v>0.1924228276676883</v>
       </c>
       <c r="I29" t="n">
-        <v>0.978803143401123</v>
+        <v>0.9788031434000027</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06414094255354685</v>
+        <v>0.06414094255589609</v>
       </c>
     </row>
     <row r="30">
@@ -1314,31 +1314,31 @@
         <v>4.3112</v>
       </c>
       <c r="B30" t="n">
-        <v>1.554630487347871e-12</v>
+        <v>2.12918369062295e-13</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.165957702841521e-12</v>
+        <v>1.2587810218389e-13</v>
       </c>
       <c r="D30" t="n">
-        <v>1.206902841783016e-12</v>
+        <v>-1.353321863398667e-13</v>
       </c>
       <c r="E30" t="n">
-        <v>9.016345062481549e-13</v>
+        <v>9.971039853031287e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>1.518001326267393e-12</v>
+        <v>2.083222240077184e-13</v>
       </c>
       <c r="G30" t="n">
-        <v>2.126884609615324e-12</v>
+        <v>2.467768917091607e-13</v>
       </c>
       <c r="H30" t="n">
-        <v>2.543469163997426</v>
+        <v>0.8836275636798944</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4674864274799326</v>
+        <v>0.642869338255092</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8478230546658087</v>
+        <v>0.4418137818399472</v>
       </c>
     </row>
     <row r="31">
@@ -1346,31 +1346,33 @@
         <v>4.3131</v>
       </c>
       <c r="B31" t="n">
-        <v>6.490257216461792e-12</v>
+        <v>6.151328643333332e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>1.456893891206643e-11</v>
+        <v>8.256278238095235e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>6.131001315293938e-12</v>
+        <v>6.346703268571422e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>4.334253491718477e-12</v>
+        <v>3.611914117151416e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>1.365590260849783e-11</v>
+        <v>1.145638927091664e-12</v>
       </c>
       <c r="G31" t="n">
-        <v>1.190971095072855e-11</v>
+        <v>9.610775907939966e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8465405635227827</v>
+        <v>4.134179313294579e-31</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3575328412855812</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.8465405635227827</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1378,31 +1380,31 @@
         <v>4.3151</v>
       </c>
       <c r="B32" t="n">
-        <v>2.483576739624724e-12</v>
+        <v>2.615434405815807e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.834647928207731e-13</v>
+        <v>1.750264982942565e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.189409477692673e-12</v>
+        <v>-1.994229846094452e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>1.794177551271813e-12</v>
+        <v>1.48951238507337e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>2.612230177010645e-12</v>
+        <v>2.430488545950368e-13</v>
       </c>
       <c r="G32" t="n">
-        <v>4.812958618331554e-12</v>
+        <v>3.847022936695499e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>2.661636981743458</v>
+        <v>0.3945425813192422</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2642608776417747</v>
+        <v>0.5299212406210954</v>
       </c>
       <c r="J32" t="n">
-        <v>1.330818490871729</v>
+        <v>0.3945425813192422</v>
       </c>
     </row>
     <row r="33">
@@ -1410,31 +1412,31 @@
         <v>4.3192</v>
       </c>
       <c r="B33" t="n">
-        <v>7.903059494210629e-13</v>
+        <v>2.720726430578681e-13</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.464454889252603e-13</v>
+        <v>-6.986275060840683e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>1.558083383711237e-12</v>
+        <v>-8.046785500071265e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>5.169058397572809e-13</v>
+        <v>1.345911439263634e-13</v>
       </c>
       <c r="F33" t="n">
-        <v>2.949281492636768e-12</v>
+        <v>2.361222692910348e-13</v>
       </c>
       <c r="G33" t="n">
-        <v>2.781981641825269e-12</v>
+        <v>2.543610686959263e-13</v>
       </c>
       <c r="H33" t="n">
-        <v>3.67396368871646</v>
+        <v>1.009543420423666</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4519240753522208</v>
+        <v>0.7989427459900635</v>
       </c>
       <c r="J33" t="n">
-        <v>0.918490922179115</v>
+        <v>0.3365144734745553</v>
       </c>
     </row>
     <row r="34">
@@ -1442,31 +1444,31 @@
         <v>4.3212</v>
       </c>
       <c r="B34" t="n">
-        <v>5.752101575999882e-12</v>
+        <v>4.577376993411609e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.558836219946507e-12</v>
+        <v>-3.627806598295274e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>3.579663249331427e-12</v>
+        <v>2.848605511118033e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>2.685875725463549e-12</v>
+        <v>2.137351990911252e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>4.84446242858885e-12</v>
+        <v>3.855100707569985e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>7.63317379442823e-12</v>
+        <v>6.074286701026064e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>1.377453116824582</v>
+        <v>1.377453118134825</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7108282517804485</v>
+        <v>0.7108282514723498</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4591510389415273</v>
+        <v>0.4591510393782749</v>
       </c>
     </row>
     <row r="35">
@@ -1474,31 +1476,31 @@
         <v>4.323</v>
       </c>
       <c r="B35" t="n">
-        <v>5.889213918697349e-12</v>
+        <v>4.686487530944626e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>3.932059889809688e-12</v>
+        <v>3.129033838677311e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.487796200895276e-12</v>
+        <v>-2.775500033304161e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>2.379611471356346e-12</v>
+        <v>1.893634641982789e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>3.418174996973548e-12</v>
+        <v>2.720097233681963e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>5.289582543135623e-12</v>
+        <v>4.20931604192924e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08361147504885606</v>
+        <v>0.08361147553478213</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9991501174627925</v>
+        <v>0.9991501174530512</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02090286876221402</v>
+        <v>0.02090286888369553</v>
       </c>
     </row>
     <row r="36">
@@ -1506,31 +1508,31 @@
         <v>4.3252</v>
       </c>
       <c r="B36" t="n">
-        <v>1.455049265566225e-12</v>
+        <v>3.551062699189725e-13</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.228783498673109e-12</v>
+        <v>-5.726488454630312e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>3.40221195142605e-12</v>
+        <v>-1.581381531175037e-13</v>
       </c>
       <c r="E36" t="n">
-        <v>7.413290274694271e-13</v>
+        <v>1.777082896371798e-13</v>
       </c>
       <c r="F36" t="n">
-        <v>3.372048032924392e-12</v>
+        <v>2.698357918105151e-13</v>
       </c>
       <c r="G36" t="n">
-        <v>3.565569873656181e-12</v>
+        <v>4.132232826206907e-13</v>
       </c>
       <c r="H36" t="n">
-        <v>3.371412666946065</v>
+        <v>1.333242463311789</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4976976207408385</v>
+        <v>0.7212548664320395</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8428531667365163</v>
+        <v>0.4444141544372631</v>
       </c>
     </row>
     <row r="37">
@@ -1538,31 +1540,31 @@
         <v>4.3271</v>
       </c>
       <c r="B37" t="n">
-        <v>2.289616245152084e-12</v>
+        <v>1.822018716326612e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>1.025084799601341e-12</v>
+        <v>8.157365633095635e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.67124337012183e-12</v>
+        <v>-1.32993321644162e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>1.034124897908722e-12</v>
+        <v>8.229304465690183e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>1.923618661849226e-12</v>
+        <v>1.530767092927191e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>3.034025552406108e-12</v>
+        <v>2.414400822019093e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>2.248627629030666</v>
+        <v>2.248627630212801</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6901371209621101</v>
+        <v>0.6901371207462157</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5621569072576665</v>
+        <v>0.5621569075532002</v>
       </c>
     </row>
     <row r="38">
@@ -1570,31 +1572,31 @@
         <v>4.3291</v>
       </c>
       <c r="B38" t="n">
-        <v>4.943678384435837e-12</v>
+        <v>3.934054256828272e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>5.005216186781315e-13</v>
+        <v>3.983024486280618e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>6.329250633613972e-12</v>
+        <v>5.036657616832945e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>2.367437500569249e-12</v>
+        <v>1.883946904595085e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>6.189879780938727e-12</v>
+        <v>4.925749824365337e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>7.085641958943522e-12</v>
+        <v>5.63857471558045e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6711129538601229</v>
+        <v>0.6711129490557313</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8799765089031029</v>
+        <v>0.8799765100256793</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2237043179533743</v>
+        <v>0.2237043163519104</v>
       </c>
     </row>
     <row r="39">
@@ -1602,31 +1604,31 @@
         <v>4.3301</v>
       </c>
       <c r="B39" t="n">
-        <v>3.958006774107675e-12</v>
+        <v>3.686524563275016e-13</v>
       </c>
       <c r="C39" t="n">
-        <v>3.780944420592134e-12</v>
+        <v>7.567365390252565e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.955615076112116e-12</v>
+        <v>-1.53316770911933e-13</v>
       </c>
       <c r="E39" t="n">
-        <v>1.94937188318773e-12</v>
+        <v>1.732378921040393e-13</v>
       </c>
       <c r="F39" t="n">
-        <v>2.457673292135447e-12</v>
+        <v>3.780326955480178e-13</v>
       </c>
       <c r="G39" t="n">
-        <v>4.281189298361359e-12</v>
+        <v>4.857578436455992e-13</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4979108349823053</v>
+        <v>0.01331791916717168</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7796147297905192</v>
+        <v>0.908125471947508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2489554174911526</v>
+        <v>0.01331791916717168</v>
       </c>
     </row>
     <row r="40">
@@ -1634,31 +1636,31 @@
         <v>4.3312</v>
       </c>
       <c r="B40" t="n">
-        <v>2.423787422335355e-12</v>
+        <v>1.928788747959114e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>9.253812806715404e-13</v>
+        <v>7.363950194925766e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>2.368266923467591e-12</v>
+        <v>1.884606948154457e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>9.711927796571026e-13</v>
+        <v>7.728506584274877e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>2.482585673301936e-12</v>
+        <v>1.975578909003539e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>2.895119505383062e-12</v>
+        <v>2.303862902895842e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>1.834367483314718</v>
+        <v>1.834367485949044</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6074848954147465</v>
+        <v>0.6074848948459002</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6114558277715727</v>
+        <v>0.6114558286496815</v>
       </c>
     </row>
     <row r="41">
@@ -1666,31 +1668,31 @@
         <v>4.3332</v>
       </c>
       <c r="B41" t="n">
-        <v>2.486014822724514e-12</v>
+        <v>1.978307737398268e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>1.303954616800173e-12</v>
+        <v>1.037654113297919e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.230322464005277e-13</v>
+        <v>-4.957933088704153e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>1.000584509107452e-12</v>
+        <v>7.962398516520734e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>1.597708139810227e-12</v>
+        <v>1.271415739843683e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>2.194552310661334e-12</v>
+        <v>1.746369237712219e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8176963523687234</v>
+        <v>0.8176963537112947</v>
       </c>
       <c r="I41" t="n">
-        <v>0.936060000033575</v>
+        <v>0.9360599998512237</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2044240880921809</v>
+        <v>0.2044240884278237</v>
       </c>
     </row>
     <row r="42">
@@ -1698,31 +1700,31 @@
         <v>4.3352</v>
       </c>
       <c r="B42" t="n">
-        <v>4.13040798746738e-12</v>
+        <v>3.306210112285024e-13</v>
       </c>
       <c r="C42" t="n">
-        <v>-9.392352503626105e-13</v>
+        <v>-2.782814784452393e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.874275933599374e-12</v>
+        <v>-5.210455374503935e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>1.526416178691115e-12</v>
+        <v>1.215027023845832e-13</v>
       </c>
       <c r="F42" t="n">
-        <v>2.75195847968667e-12</v>
+        <v>2.299417427741449e-13</v>
       </c>
       <c r="G42" t="n">
-        <v>2.733427754470871e-12</v>
+        <v>3.420208187535753e-13</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8714218777965198</v>
+        <v>0.4236169868896159</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9286245328491093</v>
+        <v>0.9353217084607426</v>
       </c>
       <c r="J42" t="n">
-        <v>0.21785546944913</v>
+        <v>0.1412056622965386</v>
       </c>
     </row>
     <row r="43">
@@ -1730,31 +1732,31 @@
         <v>4.34</v>
       </c>
       <c r="B43" t="n">
-        <v>4.635731932422984e-12</v>
+        <v>3.688998260390206e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>3.132093021914486e-12</v>
+        <v>2.492440431624294e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.986239556181804e-13</v>
+        <v>-6.355247555783223e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>1.509928139097471e-12</v>
+        <v>1.201562635943502e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>2.598311890208857e-12</v>
+        <v>2.06767090435351e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>3.450173946590962e-12</v>
+        <v>2.745561190605052e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7165258044625948</v>
+        <v>0.7165258012935131</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9492754242942716</v>
+        <v>0.9492754246910187</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1791314511156487</v>
+        <v>0.1791314503233783</v>
       </c>
     </row>
     <row r="44">
@@ -1762,31 +1764,31 @@
         <v>4.3449</v>
       </c>
       <c r="B44" t="n">
-        <v>4.286910766962025e-12</v>
+        <v>3.411415195088128e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>4.708061757374136e-13</v>
+        <v>3.746556447919724e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>-5.814254527506155e-13</v>
+        <v>-4.626836651372149e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>1.250422908982417e-12</v>
+        <v>9.950549334159507e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>2.510495562207831e-12</v>
+        <v>1.997788892689732e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>3.099919450413817e-12</v>
+        <v>2.46683751829722e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>1.083910384659628</v>
+        <v>1.08391038166615</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8968165294869528</v>
+        <v>0.8968165299587346</v>
       </c>
       <c r="J44" t="n">
-        <v>0.270977596164907</v>
+        <v>0.2709775954165376</v>
       </c>
     </row>
     <row r="45">
@@ -1794,31 +1796,31 @@
         <v>4.35</v>
       </c>
       <c r="B45" t="n">
-        <v>4.180516660407301e-12</v>
+        <v>3.326749453573952e-13</v>
       </c>
       <c r="C45" t="n">
-        <v>2.086832743759836e-12</v>
+        <v>1.660648731648665e-13</v>
       </c>
       <c r="D45" t="n">
-        <v>-3.098883174251017e-12</v>
+        <v>-2.466012871013344e-13</v>
       </c>
       <c r="E45" t="n">
-        <v>1.081464078522723e-12</v>
+        <v>8.606017689567823e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>1.611218543373217e-12</v>
+        <v>1.282166978351647e-13</v>
       </c>
       <c r="G45" t="n">
-        <v>2.284609284930719e-12</v>
+        <v>1.818034301574025e-13</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8506417614539034</v>
+        <v>0.8506417651409284</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9315327670599651</v>
+        <v>0.9315327665475189</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2126604403634758</v>
+        <v>0.2126604412852321</v>
       </c>
     </row>
     <row r="46">
@@ -1826,31 +1828,31 @@
         <v>4.3701</v>
       </c>
       <c r="B46" t="n">
-        <v>3.913014656245205e-12</v>
+        <v>3.113878121938631e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>2.557821250686826e-13</v>
+        <v>2.035449484642399e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>2.051125748150544e-12</v>
+        <v>1.632234011027968e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>1.145052014481512e-12</v>
+        <v>9.112034414286514e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>2.333877755526848e-12</v>
+        <v>1.857240907017597e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>2.40432225212305e-12</v>
+        <v>1.913298856349922e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>1.917193507030774</v>
+        <v>1.917193506942896</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7509858426209952</v>
+        <v>0.7509858426371452</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4792983767576936</v>
+        <v>0.479298376735724</v>
       </c>
     </row>
     <row r="47">
@@ -1858,31 +1860,31 @@
         <v>4.3901</v>
       </c>
       <c r="B47" t="n">
-        <v>3.707197200297343e-12</v>
+        <v>2.950093799055216e-13</v>
       </c>
       <c r="C47" t="n">
-        <v>1.806084461634972e-13</v>
+        <v>1.437236300961574e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>2.503227276432739e-13</v>
+        <v>1.992004966574902e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>1.143652462853938e-12</v>
+        <v>9.100897133037703e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>2.150350393939601e-12</v>
+        <v>1.71119447393229e-13</v>
       </c>
       <c r="G47" t="n">
-        <v>2.496133682755085e-12</v>
+        <v>1.986360072839045e-13</v>
       </c>
       <c r="H47" t="n">
-        <v>1.247334116224617</v>
+        <v>1.247334113362108</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8702455629737965</v>
+        <v>0.8702455634522221</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3118335290561542</v>
+        <v>0.311833528340527</v>
       </c>
     </row>
     <row r="48">
@@ -1890,31 +1892,31 @@
         <v>4.41</v>
       </c>
       <c r="B48" t="n">
-        <v>1.283939793511697e-12</v>
+        <v>2.083248365003968e-13</v>
       </c>
       <c r="C48" t="n">
-        <v>2.661542298939697e-13</v>
+        <v>1.245070907381666e-13</v>
       </c>
       <c r="D48" t="n">
-        <v>1.081536693680152e-12</v>
+        <v>-1.119701227624615e-13</v>
       </c>
       <c r="E48" t="n">
-        <v>7.163758219819864e-13</v>
+        <v>1.021428569102924e-13</v>
       </c>
       <c r="F48" t="n">
-        <v>9.54217658954691e-13</v>
+        <v>1.943710189322137e-13</v>
       </c>
       <c r="G48" t="n">
-        <v>1.826518895300714e-12</v>
+        <v>2.876098383484e-13</v>
       </c>
       <c r="H48" t="n">
-        <v>3.153943759702117</v>
+        <v>1.585096789716373</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5324017740928242</v>
+        <v>0.4526896919944172</v>
       </c>
       <c r="J48" t="n">
-        <v>0.7884859399255292</v>
+        <v>0.7925483948581865</v>
       </c>
     </row>
     <row r="49">
@@ -1922,31 +1924,31 @@
         <v>4.4202</v>
       </c>
       <c r="B49" t="n">
-        <v>2.127347211346967e-12</v>
+        <v>1.692889124944298e-13</v>
       </c>
       <c r="C49" t="n">
-        <v>9.938612943517526e-13</v>
+        <v>7.908896856580276e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>1.460399349609558e-15</v>
+        <v>1.1621533722232e-16</v>
       </c>
       <c r="E49" t="n">
-        <v>9.09057961422913e-13</v>
+        <v>7.23405343104629e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>1.860337664978489e-12</v>
+        <v>1.480409681004604e-13</v>
       </c>
       <c r="G49" t="n">
-        <v>2.480375941670612e-12</v>
+        <v>1.973820462450472e-13</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2778128260502096</v>
+        <v>0.2778128225867132</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9641458089433981</v>
+        <v>0.9641458095772307</v>
       </c>
       <c r="J49" t="n">
-        <v>0.09260427535006986</v>
+        <v>0.09260427419557109</v>
       </c>
     </row>
     <row r="50">
@@ -1954,31 +1956,31 @@
         <v>4.4302</v>
       </c>
       <c r="B50" t="n">
-        <v>3.317915242832229e-12</v>
+        <v>2.640313061591067e-13</v>
       </c>
       <c r="C50" t="n">
-        <v>1.120598431556222e-12</v>
+        <v>8.917438950848712e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>1.402868503559064e-12</v>
+        <v>1.116367287879826e-13</v>
       </c>
       <c r="E50" t="n">
-        <v>1.220723922990417e-12</v>
+        <v>9.71421233450862e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>2.705959166477689e-12</v>
+        <v>2.153333887118576e-13</v>
       </c>
       <c r="G50" t="n">
-        <v>3.216979897587802e-12</v>
+        <v>2.559991265272352e-13</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7207050062177791</v>
+        <v>0.7207050038117224</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9487512398168406</v>
+        <v>0.9487512401191867</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1801762515544448</v>
+        <v>0.1801762509529306</v>
       </c>
     </row>
     <row r="51">
@@ -1986,31 +1988,31 @@
         <v>4.44</v>
       </c>
       <c r="B51" t="n">
-        <v>2.41700432416564e-12</v>
+        <v>1.923390924094503e-13</v>
       </c>
       <c r="C51" t="n">
-        <v>1.249108833121591e-12</v>
+        <v>9.940092325438682e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.951790475387153e-12</v>
+        <v>-1.553185510733323e-13</v>
       </c>
       <c r="E51" t="n">
-        <v>1.104080323843095e-12</v>
+        <v>8.785992042113345e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>2.077982859434475e-12</v>
+        <v>1.653606215624841e-13</v>
       </c>
       <c r="G51" t="n">
-        <v>3.501148035023021e-12</v>
+        <v>2.786125076984099e-13</v>
       </c>
       <c r="H51" t="n">
-        <v>1.221597300396199</v>
+        <v>1.221597300803217</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7478291836353211</v>
+        <v>0.7478291835378847</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4071991001320663</v>
+        <v>0.4071991002677389</v>
       </c>
     </row>
     <row r="52">
@@ -2018,31 +2020,31 @@
         <v>4.4499</v>
       </c>
       <c r="B52" t="n">
-        <v>1.729383146720337e-12</v>
+        <v>2.098189638107934e-13</v>
       </c>
       <c r="C52" t="n">
-        <v>-9.791659424599654e-13</v>
+        <v>1.639491781711043e-13</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.396094578636099e-13</v>
+        <v>8.197675456127337e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>9.010094011534039e-13</v>
+        <v>8.721815579138906e-14</v>
       </c>
       <c r="F52" t="n">
-        <v>2.279812005364917e-12</v>
+        <v>2.46150756106415e-13</v>
       </c>
       <c r="G52" t="n">
-        <v>3.10879910033845e-12</v>
+        <v>2.656790554987593e-13</v>
       </c>
       <c r="H52" t="n">
-        <v>3.578467895872663</v>
+        <v>1.464734027592645</v>
       </c>
       <c r="I52" t="n">
-        <v>0.46604785339652</v>
+        <v>0.6904332846876717</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8946169739681658</v>
+        <v>0.488244675864215</v>
       </c>
     </row>
     <row r="53">
@@ -2050,31 +2052,31 @@
         <v>4.455</v>
       </c>
       <c r="B53" t="n">
-        <v>6.047622028450853e-12</v>
+        <v>4.812544695878184e-13</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.874321168905159e-12</v>
+        <v>-2.287312105118317e-13</v>
       </c>
       <c r="D53" t="n">
-        <v>3.529039171723269e-13</v>
+        <v>2.808320116067344e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>3.130492053659036e-12</v>
+        <v>2.491166424165825e-13</v>
       </c>
       <c r="F53" t="n">
-        <v>5.53114422805347e-12</v>
+        <v>4.40154472479546e-13</v>
       </c>
       <c r="G53" t="n">
-        <v>7.041487848377061e-12</v>
+        <v>5.603437992172962e-13</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5949654340750909</v>
+        <v>0.5949654353483826</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7426854189140732</v>
+        <v>0.7426854184412457</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2974827170375455</v>
+        <v>0.2974827176741913</v>
       </c>
     </row>
     <row r="54">
@@ -2082,31 +2084,31 @@
         <v>4.4601</v>
       </c>
       <c r="B54" t="n">
-        <v>2.563505930770686e-12</v>
+        <v>6.203770378173861e-13</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.673123459369125e-13</v>
+        <v>5.131024393532758e-13</v>
       </c>
       <c r="D54" t="n">
-        <v>4.300269317126506e-12</v>
+        <v>-1.081282402795079e-12</v>
       </c>
       <c r="E54" t="n">
-        <v>1.536927732018939e-12</v>
+        <v>3.404449951966301e-13</v>
       </c>
       <c r="F54" t="n">
-        <v>3.552696933594112e-12</v>
+        <v>5.163210340788491e-13</v>
       </c>
       <c r="G54" t="n">
-        <v>3.047473442122385e-12</v>
+        <v>1.112930788942415e-12</v>
       </c>
       <c r="H54" t="n">
-        <v>1.753615274767642</v>
+        <v>0.0361133918226102</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4161091649570113</v>
+        <v>0.8492815174147409</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8768076373838212</v>
+        <v>0.0361133918226102</v>
       </c>
     </row>
     <row r="55">
@@ -2114,31 +2116,31 @@
         <v>4.47</v>
       </c>
       <c r="B55" t="n">
-        <v>8.113873728168528e-12</v>
+        <v>6.456815556216651e-13</v>
       </c>
       <c r="C55" t="n">
-        <v>-5.38813425736848e-12</v>
+        <v>-4.287741000547591e-13</v>
       </c>
       <c r="D55" t="n">
-        <v>2.146740555805006e-12</v>
+        <v>1.70832185370636e-13</v>
       </c>
       <c r="E55" t="n">
-        <v>5.660287963809126e-12</v>
+        <v>4.504314044052498e-13</v>
       </c>
       <c r="F55" t="n">
-        <v>8.820605135016514e-12</v>
+        <v>7.019214541402451e-13</v>
       </c>
       <c r="G55" t="n">
-        <v>1.055317116565907e-11</v>
+        <v>8.397946781770907e-13</v>
       </c>
       <c r="H55" t="n">
-        <v>1.803226001802316</v>
+        <v>1.803226003787346</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4059143911295557</v>
+        <v>0.4059143907266795</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9016130009011579</v>
+        <v>0.9016130018936732</v>
       </c>
     </row>
     <row r="56">
@@ -2146,31 +2148,31 @@
         <v>4.478</v>
       </c>
       <c r="B56" t="n">
-        <v>2.032028827102403e-12</v>
+        <v>3.786056709942284e-13</v>
       </c>
       <c r="C56" t="n">
-        <v>2.568601202050227e-12</v>
+        <v>-2.670673665812934e-13</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.040065578595333e-13</v>
+        <v>2.168595597909648e-13</v>
       </c>
       <c r="E56" t="n">
-        <v>1.200810329705304e-12</v>
+        <v>2.593791030791814e-13</v>
       </c>
       <c r="F56" t="n">
-        <v>1.510459012619516e-12</v>
+        <v>5.377509229611162e-13</v>
       </c>
       <c r="G56" t="n">
-        <v>2.468536906053095e-12</v>
+        <v>3.61417127245761e-13</v>
       </c>
       <c r="H56" t="n">
-        <v>1.803479598985527</v>
+        <v>0.9943745925577262</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6141780289107852</v>
+        <v>0.6082390522308867</v>
       </c>
       <c r="J56" t="n">
-        <v>0.601159866328509</v>
+        <v>0.4971872962788631</v>
       </c>
     </row>
     <row r="57">
@@ -2178,31 +2180,31 @@
         <v>4.4861</v>
       </c>
       <c r="B57" t="n">
-        <v>4.47092077231976e-12</v>
+        <v>3.557845705614013e-13</v>
       </c>
       <c r="C57" t="n">
-        <v>-6.095742123350286e-14</v>
+        <v>-4.850838258562389e-15</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.07127842435202e-12</v>
+        <v>-8.52496279976616e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>2.112714721853142e-12</v>
+        <v>1.681244954708739e-13</v>
       </c>
       <c r="F57" t="n">
-        <v>4.783234714564927e-12</v>
+        <v>3.806377241935113e-13</v>
       </c>
       <c r="G57" t="n">
-        <v>4.334626495179736e-12</v>
+        <v>3.449386164764067e-13</v>
       </c>
       <c r="H57" t="n">
-        <v>0.195777655578861</v>
+        <v>0.1957776557897322</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9782680332432524</v>
+        <v>0.9782680332095006</v>
       </c>
       <c r="J57" t="n">
-        <v>0.06525921852628698</v>
+        <v>0.06525921859657741</v>
       </c>
     </row>
     <row r="58">
@@ -2210,31 +2212,31 @@
         <v>4.4882</v>
       </c>
       <c r="B58" t="n">
-        <v>2.005348000937964e-12</v>
+        <v>1.595805235290158e-13</v>
       </c>
       <c r="C58" t="n">
-        <v>1.025831654575884e-12</v>
+        <v>8.163308900169054e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>3.31383768623624e-13</v>
+        <v>2.637068251209456e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>8.261970182334513e-13</v>
+        <v>6.574666960178092e-14</v>
       </c>
       <c r="F58" t="n">
-        <v>1.720831870978417e-12</v>
+        <v>1.369394491321489e-13</v>
       </c>
       <c r="G58" t="n">
-        <v>2.199540946238196e-12</v>
+        <v>1.750339066504948e-13</v>
       </c>
       <c r="H58" t="n">
-        <v>1.149390814314972</v>
+        <v>1.149390812111088</v>
       </c>
       <c r="I58" t="n">
-        <v>0.886358709901817</v>
+        <v>0.8863587102582757</v>
       </c>
       <c r="J58" t="n">
-        <v>0.287347703578743</v>
+        <v>0.2873477030277721</v>
       </c>
     </row>
     <row r="59">
@@ -2242,31 +2244,31 @@
         <v>4.4901</v>
       </c>
       <c r="B59" t="n">
-        <v>3.41983748588491e-12</v>
+        <v>4.198903393931901e-13</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.646267338608024e-12</v>
+        <v>-3.317231544336476e-14</v>
       </c>
       <c r="D59" t="n">
-        <v>4.705588747366886e-12</v>
+        <v>-1.852781181986548e-13</v>
       </c>
       <c r="E59" t="n">
-        <v>1.689536504407502e-12</v>
+        <v>2.108352679364674e-13</v>
       </c>
       <c r="F59" t="n">
-        <v>3.607481181388898e-12</v>
+        <v>4.027484186282469e-13</v>
       </c>
       <c r="G59" t="n">
-        <v>2.681059191823111e-12</v>
+        <v>6.512001704519889e-13</v>
       </c>
       <c r="H59" t="n">
-        <v>1.547489041390271</v>
+        <v>0.7198266886920983</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6713540408279863</v>
+        <v>0.6977367862888848</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5158296804634236</v>
+        <v>0.3599133443460492</v>
       </c>
     </row>
     <row r="60">
@@ -2274,31 +2276,31 @@
         <v>4.4922</v>
       </c>
       <c r="B60" t="n">
-        <v>2.185337561617224e-12</v>
+        <v>1.739036374442736e-13</v>
       </c>
       <c r="C60" t="n">
-        <v>1.388480256155399e-13</v>
+        <v>1.104917410006348e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>7.588224426352394e-13</v>
+        <v>6.03851722504629e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>8.851528212483146e-13</v>
+        <v>7.043822321278734e-14</v>
       </c>
       <c r="F60" t="n">
-        <v>2.059488997409121e-12</v>
+        <v>1.638889271356094e-13</v>
       </c>
       <c r="G60" t="n">
-        <v>2.743102236462111e-12</v>
+        <v>2.182891397567866e-13</v>
       </c>
       <c r="H60" t="n">
-        <v>1.347534227830272</v>
+        <v>1.347534229914034</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8532605975540558</v>
+        <v>0.8532605971961946</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3368835569575681</v>
+        <v>0.3368835574785085</v>
       </c>
     </row>
     <row r="61">
@@ -2306,31 +2308,31 @@
         <v>4.495</v>
       </c>
       <c r="B61" t="n">
-        <v>2.902442121041197e-12</v>
+        <v>2.885219369266692e-13</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.301542763066056e-12</v>
+        <v>1.187578790492194e-13</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.755629207870985e-12</v>
+        <v>1.488655057233505e-14</v>
       </c>
       <c r="E61" t="n">
-        <v>1.326914542740791e-12</v>
+        <v>1.107213290888914e-13</v>
       </c>
       <c r="F61" t="n">
-        <v>2.007388684218711e-12</v>
+        <v>2.051202227000163e-13</v>
       </c>
       <c r="G61" t="n">
-        <v>3.066915733397655e-12</v>
+        <v>2.599403085981628e-13</v>
       </c>
       <c r="H61" t="n">
-        <v>3.06875335270193</v>
+        <v>0.08314560589949471</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5463863478974842</v>
+        <v>0.9937802830209627</v>
       </c>
       <c r="J61" t="n">
-        <v>0.7671883381754826</v>
+        <v>0.02771520196649824</v>
       </c>
     </row>
     <row r="62">
@@ -2338,31 +2340,31 @@
         <v>4.5</v>
       </c>
       <c r="B62" t="n">
-        <v>1.606608541098338e-12</v>
+        <v>2.294866682006058e-13</v>
       </c>
       <c r="C62" t="n">
-        <v>1.568949351894975e-12</v>
+        <v>-7.915743932798337e-14</v>
       </c>
       <c r="D62" t="n">
-        <v>8.745931249397443e-13</v>
+        <v>2.241928183557438e-13</v>
       </c>
       <c r="E62" t="n">
-        <v>6.720516162227703e-13</v>
+        <v>1.11908639583762e-13</v>
       </c>
       <c r="F62" t="n">
-        <v>1.372754821731827e-12</v>
+        <v>2.255390081738499e-13</v>
       </c>
       <c r="G62" t="n">
-        <v>1.838928588225494e-12</v>
+        <v>2.092172933974626e-13</v>
       </c>
       <c r="H62" t="n">
-        <v>1.454928756768098</v>
+        <v>0.3859439880639493</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8345941482727816</v>
+        <v>0.9431305850576671</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3637321891920246</v>
+        <v>0.1286479960213164</v>
       </c>
     </row>
     <row r="63">
@@ -2370,31 +2372,31 @@
         <v>4.5102</v>
       </c>
       <c r="B63" t="n">
-        <v>2.363324001443562e-12</v>
+        <v>1.880673487946159e-13</v>
       </c>
       <c r="C63" t="n">
-        <v>-6.730870212357807e-13</v>
+        <v>-5.356256309209601e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>4.296026970449494e-14</v>
+        <v>3.418669606262734e-15</v>
       </c>
       <c r="E63" t="n">
-        <v>1.058823819863952e-12</v>
+        <v>8.425852250860811e-14</v>
       </c>
       <c r="F63" t="n">
-        <v>2.343747719443326e-12</v>
+        <v>1.865095177273693e-13</v>
       </c>
       <c r="G63" t="n">
-        <v>1.947394228676468e-12</v>
+        <v>1.549687091950695e-13</v>
       </c>
       <c r="H63" t="n">
-        <v>1.489090761373873</v>
+        <v>1.489090757399128</v>
       </c>
       <c r="I63" t="n">
-        <v>0.6847904562006888</v>
+        <v>0.6847904571197152</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4963635871246244</v>
+        <v>0.4963635857997094</v>
       </c>
     </row>
     <row r="64">
@@ -2402,31 +2404,31 @@
         <v>4.5122</v>
       </c>
       <c r="B64" t="n">
-        <v>3.596350858800148e-12</v>
+        <v>2.861885082368574e-13</v>
       </c>
       <c r="C64" t="n">
-        <v>2.196544280143814e-13</v>
+        <v>1.747954412583798e-14</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.190749791136347e-13</v>
+        <v>-5.722216904398453e-14</v>
       </c>
       <c r="E64" t="n">
-        <v>1.466039551324989e-12</v>
+        <v>1.166637206976941e-13</v>
       </c>
       <c r="F64" t="n">
-        <v>2.383681283179711e-12</v>
+        <v>1.896873295057986e-13</v>
       </c>
       <c r="G64" t="n">
-        <v>3.333438945456405e-12</v>
+        <v>2.652666428985882e-13</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9256271604543725</v>
+        <v>0.9256271588517403</v>
       </c>
       <c r="I64" t="n">
-        <v>0.920855739845748</v>
+        <v>0.920855740079208</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2314067901135931</v>
+        <v>0.2314067897129351</v>
       </c>
     </row>
     <row r="65">
@@ -2434,31 +2436,31 @@
         <v>4.5151</v>
       </c>
       <c r="B65" t="n">
-        <v>3.283291022402008e-12</v>
+        <v>2.612759979774397e-13</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.623461363039705e-13</v>
+        <v>-1.291909590434e-14</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.961285665121713e-12</v>
+        <v>-1.560741534301826e-13</v>
       </c>
       <c r="E65" t="n">
-        <v>1.57342243894547e-12</v>
+        <v>1.252089794009201e-13</v>
       </c>
       <c r="F65" t="n">
-        <v>3.161297704532601e-12</v>
+        <v>2.515680781648816e-13</v>
       </c>
       <c r="G65" t="n">
-        <v>3.869499262015329e-12</v>
+        <v>3.079249674157735e-13</v>
       </c>
       <c r="H65" t="n">
-        <v>1.52822321029745</v>
+        <v>1.52822320788503</v>
       </c>
       <c r="I65" t="n">
-        <v>0.6757719139426811</v>
+        <v>0.6757719144968051</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5094077367658167</v>
+        <v>0.5094077359616768</v>
       </c>
     </row>
     <row r="66">
@@ -2466,31 +2468,31 @@
         <v>4.5201</v>
       </c>
       <c r="B66" t="n">
-        <v>4.414524941054078e-12</v>
+        <v>3.512967323986003e-13</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.28774644454917e-12</v>
+        <v>-1.820530773282933e-13</v>
       </c>
       <c r="D66" t="n">
-        <v>1.079573038858829e-11</v>
+        <v>8.590969283178534e-13</v>
       </c>
       <c r="E66" t="n">
-        <v>1.818357496382447e-12</v>
+        <v>1.447002917689067e-13</v>
       </c>
       <c r="F66" t="n">
-        <v>6.474328749185117e-12</v>
+        <v>5.152107117083149e-13</v>
       </c>
       <c r="G66" t="n">
-        <v>7.664002868237402e-12</v>
+        <v>6.098819698209069e-13</v>
       </c>
       <c r="H66" t="n">
-        <v>1.637609796269696</v>
+        <v>1.637609803005414</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6508924339373077</v>
+        <v>0.6508924324209673</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5458699320898985</v>
+        <v>0.545869934335138</v>
       </c>
     </row>
     <row r="67">
@@ -2498,31 +2500,31 @@
         <v>4.5252</v>
       </c>
       <c r="B67" t="n">
-        <v>3.710514046424265e-11</v>
+        <v>2.952733258725667e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.797267514629946e-11</v>
+        <v>-4.613318906497386e-12</v>
       </c>
       <c r="D67" t="n">
-        <v>3.514276000306448e-11</v>
+        <v>2.796571985265125e-12</v>
       </c>
       <c r="E67" t="n">
-        <v>1.878802453564504e-11</v>
+        <v>1.495103487483322e-12</v>
       </c>
       <c r="F67" t="n">
-        <v>3.07403210907263e-11</v>
+        <v>2.446237026330852e-12</v>
       </c>
       <c r="G67" t="n">
-        <v>2.080712920487212e-11</v>
+        <v>1.655778735143476e-12</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3783872730470434</v>
+        <v>0.3783872719993734</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8276262325113277</v>
+        <v>0.8276262329448674</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1891936365235217</v>
+        <v>0.1891936359996867</v>
       </c>
     </row>
     <row r="68">
@@ -2530,31 +2532,31 @@
         <v>4.5294</v>
       </c>
       <c r="B68" t="n">
-        <v>4.76271385176177e-13</v>
+        <v>2.515914780701845e-13</v>
       </c>
       <c r="C68" t="n">
-        <v>1.090266642650975e-13</v>
+        <v>2.510960541902957e-13</v>
       </c>
       <c r="D68" t="n">
-        <v>5.310105374667143e-12</v>
+        <v>-2.830136751950823e-15</v>
       </c>
       <c r="E68" t="n">
-        <v>8.2117218688084e-13</v>
+        <v>1.939928696245589e-13</v>
       </c>
       <c r="F68" t="n">
-        <v>1.207277820371407e-12</v>
+        <v>2.284002337544797e-13</v>
       </c>
       <c r="G68" t="n">
-        <v>3.218339795244855e-12</v>
+        <v>4.447527374149792e-13</v>
       </c>
       <c r="H68" t="n">
-        <v>2.530700442498528</v>
+        <v>1.162004364776094</v>
       </c>
       <c r="I68" t="n">
-        <v>0.4697683665746527</v>
+        <v>0.5593375273618609</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8435668141661762</v>
+        <v>0.5810021823880471</v>
       </c>
     </row>
     <row r="69">
@@ -2562,31 +2564,31 @@
         <v>4.5351</v>
       </c>
       <c r="B69" t="n">
-        <v>1.520129822196146e-11</v>
+        <v>1.209680881502596e-12</v>
       </c>
       <c r="C69" t="n">
-        <v>2.23170960445814e-11</v>
+        <v>1.775938080841733e-12</v>
       </c>
       <c r="D69" t="n">
-        <v>5.627441282605197e-12</v>
+        <v>4.478175317304554e-13</v>
       </c>
       <c r="E69" t="n">
-        <v>1.154382838115913e-11</v>
+        <v>9.186286736476511e-13</v>
       </c>
       <c r="F69" t="n">
-        <v>2.166582801766668e-11</v>
+        <v>1.724111812817126e-12</v>
       </c>
       <c r="G69" t="n">
-        <v>3.328742299245105e-11</v>
+        <v>2.648928956227397e-12</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7484326688002458</v>
+        <v>0.748432668852808</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3869729112216975</v>
+        <v>0.3869729112050256</v>
       </c>
       <c r="J69" t="n">
-        <v>0.7484326688002458</v>
+        <v>0.748432668852808</v>
       </c>
     </row>
     <row r="70">
@@ -2594,31 +2596,31 @@
         <v>4.5402</v>
       </c>
       <c r="B70" t="n">
-        <v>5.673325737871594e-12</v>
+        <v>2.670613432439536e-12</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.127914573432742e-11</v>
+        <v>-3.90155908229023e-12</v>
       </c>
       <c r="D70" t="n">
-        <v>6.731950730198584e-12</v>
+        <v>2.097670242669662e-12</v>
       </c>
       <c r="E70" t="n">
-        <v>9.748951487224805e-12</v>
+        <v>1.363586746753168e-12</v>
       </c>
       <c r="F70" t="n">
-        <v>1.981695019444194e-11</v>
+        <v>2.221189871743447e-12</v>
       </c>
       <c r="G70" t="n">
-        <v>1.179879678396153e-11</v>
+        <v>1.218901323327227e-12</v>
       </c>
       <c r="H70" t="n">
-        <v>5.695369419491592</v>
+        <v>0.07002830717669917</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2230826125106993</v>
+        <v>0.9655917495727132</v>
       </c>
       <c r="J70" t="n">
-        <v>1.423842354872898</v>
+        <v>0.03501415358834958</v>
       </c>
     </row>
     <row r="71">
@@ -2626,31 +2628,31 @@
         <v>4.5498</v>
       </c>
       <c r="B71" t="n">
-        <v>4.276274214699003e-12</v>
+        <v>3.402950892102831e-13</v>
       </c>
       <c r="C71" t="n">
-        <v>2.002439420115677e-13</v>
+        <v>1.593490597207592e-14</v>
       </c>
       <c r="D71" t="n">
-        <v>6.339904632430602e-12</v>
+        <v>5.04513581456331e-13</v>
       </c>
       <c r="E71" t="n">
-        <v>2.05651416581402e-12</v>
+        <v>1.636521973674031e-13</v>
       </c>
       <c r="F71" t="n">
-        <v>7.244350387839962e-12</v>
+        <v>5.76487086727353e-13</v>
       </c>
       <c r="G71" t="n">
-        <v>7.567445616629854e-12</v>
+        <v>6.021981879468125e-13</v>
       </c>
       <c r="H71" t="n">
-        <v>1.540887927311498</v>
+        <v>1.540887934765278</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4628075529608099</v>
+        <v>0.4628075512359771</v>
       </c>
       <c r="J71" t="n">
-        <v>0.7704439636557491</v>
+        <v>0.770443967382639</v>
       </c>
     </row>
     <row r="72">
@@ -2658,31 +2660,31 @@
         <v>4.5602</v>
       </c>
       <c r="B72" t="n">
-        <v>1.155261126886504e-11</v>
+        <v>9.664873157233216e-13</v>
       </c>
       <c r="C72" t="n">
-        <v>4.214694842034411e-12</v>
+        <v>8.300712995363758e-13</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.564269228504896e-11</v>
+        <v>-6.868155045642129e-13</v>
       </c>
       <c r="E72" t="n">
-        <v>5.686003638310777e-12</v>
+        <v>4.570696408474105e-13</v>
       </c>
       <c r="F72" t="n">
-        <v>4.941728387780272e-12</v>
+        <v>7.836930717056642e-13</v>
       </c>
       <c r="G72" t="n">
-        <v>9.928651874433142e-12</v>
+        <v>1.099518432974314e-12</v>
       </c>
       <c r="H72" t="n">
-        <v>1.013520426255974</v>
+        <v>0.4810081106865598</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7979804590664574</v>
+        <v>0.7862314570031961</v>
       </c>
       <c r="J72" t="n">
-        <v>0.3378401420853248</v>
+        <v>0.2405040553432799</v>
       </c>
     </row>
     <row r="73">
@@ -2690,31 +2692,31 @@
         <v>4.5701</v>
       </c>
       <c r="B73" t="n">
-        <v>3.285821355275371e-11</v>
+        <v>2.614773553543948e-12</v>
       </c>
       <c r="C73" t="n">
-        <v>2.444061778412831e-11</v>
+        <v>1.944922569773401e-12</v>
       </c>
       <c r="D73" t="n">
-        <v>4.131195430092607e-11</v>
+        <v>3.287500869483201e-12</v>
       </c>
       <c r="E73" t="n">
-        <v>1.715729894354693e-11</v>
+        <v>1.365334468338664e-12</v>
       </c>
       <c r="F73" t="n">
-        <v>4.414796688399412e-11</v>
+        <v>3.513183577194394e-12</v>
       </c>
       <c r="G73" t="n">
-        <v>5.675155409836793e-11</v>
+        <v>4.516145180742693e-12</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4309620868732742</v>
+        <v>0.4309620887287656</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5115172441332303</v>
+        <v>0.5115172432242234</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4309620868732742</v>
+        <v>0.4309620887287656</v>
       </c>
     </row>
     <row r="74">
@@ -2722,31 +2724,31 @@
         <v>4.58</v>
       </c>
       <c r="B74" t="n">
-        <v>2.186125502225351e-11</v>
+        <v>1.971270339382462e-12</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.983562719146165e-11</v>
+        <v>-8.853661699279932e-13</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.917648610125645e-12</v>
+        <v>1.103935730278102e-12</v>
       </c>
       <c r="E74" t="n">
-        <v>1.181417195362241e-11</v>
+        <v>9.684416404947448e-13</v>
       </c>
       <c r="F74" t="n">
-        <v>2.507784035180606e-11</v>
+        <v>2.113351365020085e-12</v>
       </c>
       <c r="G74" t="n">
-        <v>1.882358117564358e-11</v>
+        <v>1.957957384920917e-12</v>
       </c>
       <c r="H74" t="n">
-        <v>1.005404382601191</v>
+        <v>0.0122654935953184</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6048939102414448</v>
+        <v>0.9118148422474435</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5027021913005953</v>
+        <v>0.0122654935953184</v>
       </c>
     </row>
     <row r="75">
@@ -2754,31 +2756,31 @@
         <v>4.5901</v>
       </c>
       <c r="B75" t="n">
-        <v>5.26873228104867e-12</v>
+        <v>3.953177866139841e-13</v>
       </c>
       <c r="C75" t="n">
-        <v>-3.235205197394573e-12</v>
+        <v>-3.568093505988376e-13</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.910059758704179e-12</v>
+        <v>-3.399598632317006e-13</v>
       </c>
       <c r="E75" t="n">
-        <v>2.53820333991686e-12</v>
+        <v>7.26119342405508e-13</v>
       </c>
       <c r="F75" t="n">
-        <v>4.545336284476154e-12</v>
+        <v>2.915481734872135e-12</v>
       </c>
       <c r="G75" t="n">
-        <v>6.022515380115809e-12</v>
+        <v>3.191906557756287e-12</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6664538823595869</v>
+        <v>0.665274269358096</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7166075479384568</v>
+        <v>0.4147040797951642</v>
       </c>
       <c r="J75" t="n">
-        <v>0.3332269411797935</v>
+        <v>0.665274269358096</v>
       </c>
     </row>
     <row r="76">
@@ -2786,31 +2788,31 @@
         <v>4.6003</v>
       </c>
       <c r="B76" t="n">
-        <v>4.295593563030212e-12</v>
+        <v>3.4183247465253e-13</v>
       </c>
       <c r="C76" t="n">
-        <v>7.351521946781666e-13</v>
+        <v>5.850155307321914e-14</v>
       </c>
       <c r="D76" t="n">
-        <v>5.666996939114003e-12</v>
+        <v>4.509652890443281e-13</v>
       </c>
       <c r="E76" t="n">
-        <v>1.91662727237269e-12</v>
+        <v>1.525203521198648e-13</v>
       </c>
       <c r="F76" t="n">
-        <v>4.507701804762825e-12</v>
+        <v>3.587115119381428e-13</v>
       </c>
       <c r="G76" t="n">
-        <v>4.53204559742303e-12</v>
+        <v>3.606487295127125e-13</v>
       </c>
       <c r="H76" t="n">
-        <v>0.972396737190966</v>
+        <v>0.9723967411844832</v>
       </c>
       <c r="I76" t="n">
-        <v>0.807930708380538</v>
+        <v>0.8079307074144113</v>
       </c>
       <c r="J76" t="n">
-        <v>0.324132245730322</v>
+        <v>0.3241322470614944</v>
       </c>
     </row>
     <row r="77">
@@ -2818,31 +2820,31 @@
         <v>4.61</v>
       </c>
       <c r="B77" t="n">
-        <v>2.112781443779439e-11</v>
+        <v>1.799790627174669e-12</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.541460308055754e-11</v>
+        <v>-1.734075923978269e-12</v>
       </c>
       <c r="D77" t="n">
-        <v>2.712394191291677e-12</v>
+        <v>1.041720113112485e-12</v>
       </c>
       <c r="E77" t="n">
-        <v>1.195493063865463e-11</v>
+        <v>9.558610566654031e-13</v>
       </c>
       <c r="F77" t="n">
-        <v>2.224273488747166e-11</v>
+        <v>1.784376742148326e-12</v>
       </c>
       <c r="G77" t="n">
-        <v>1.51110686730899e-11</v>
+        <v>1.365499706988189e-12</v>
       </c>
       <c r="H77" t="n">
-        <v>1.713909062657259</v>
+        <v>0.08443275197980948</v>
       </c>
       <c r="I77" t="n">
-        <v>0.6338459329045159</v>
+        <v>0.9586623266193601</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5713030208857531</v>
+        <v>0.04221637598990474</v>
       </c>
     </row>
     <row r="78">
@@ -2850,31 +2852,31 @@
         <v>4.6202</v>
       </c>
       <c r="B78" t="n">
-        <v>1.9149923873524e-11</v>
+        <v>1.52390252311737e-12</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.985302430942906e-11</v>
+        <v>-1.579853479629321e-12</v>
       </c>
       <c r="D78" t="n">
-        <v>2.294220043805539e-12</v>
+        <v>1.825682314446626e-13</v>
       </c>
       <c r="E78" t="n">
-        <v>1.06115499315732e-11</v>
+        <v>8.444403124940128e-13</v>
       </c>
       <c r="F78" t="n">
-        <v>1.767552049086996e-11</v>
+        <v>1.406573228276767e-12</v>
       </c>
       <c r="G78" t="n">
-        <v>9.635609052645863e-12</v>
+        <v>7.667774048017315e-13</v>
       </c>
       <c r="H78" t="n">
-        <v>1.204843479058567</v>
+        <v>1.204843492870514</v>
       </c>
       <c r="I78" t="n">
-        <v>0.751842881241399</v>
+        <v>0.7518428779300736</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4016144930195222</v>
+        <v>0.4016144976235048</v>
       </c>
     </row>
     <row r="79">
@@ -2882,31 +2884,31 @@
         <v>4.6299</v>
       </c>
       <c r="B79" t="n">
-        <v>5.019652234603522e-12</v>
+        <v>3.994512328554511e-13</v>
       </c>
       <c r="C79" t="n">
-        <v>3.00193029281052e-12</v>
+        <v>2.388860228851437e-13</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.784215660534604e-14</v>
+        <v>-5.398707687235521e-15</v>
       </c>
       <c r="E79" t="n">
-        <v>2.521723846309344e-12</v>
+        <v>2.006724078162435e-13</v>
       </c>
       <c r="F79" t="n">
-        <v>4.821217092791867e-12</v>
+        <v>3.836602662120542e-13</v>
       </c>
       <c r="G79" t="n">
-        <v>6.992796173069962e-12</v>
+        <v>5.564690391033909e-13</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8148757395960389</v>
+        <v>0.8148757405719832</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6653527886170154</v>
+        <v>0.6653527882923417</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4074378697980194</v>
+        <v>0.4074378702859916</v>
       </c>
     </row>
     <row r="80">
@@ -2914,31 +2916,31 @@
         <v>4.6352</v>
       </c>
       <c r="B80" t="n">
-        <v>8.369050190036062e-12</v>
+        <v>6.659878535276351e-13</v>
       </c>
       <c r="C80" t="n">
-        <v>-5.788373789596818e-13</v>
+        <v>-4.606241500082401e-14</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.591073252665449e-12</v>
+        <v>-1.266135861333963e-13</v>
       </c>
       <c r="E80" t="n">
-        <v>3.948872223739104e-12</v>
+        <v>3.142412670293371e-13</v>
       </c>
       <c r="F80" t="n">
-        <v>6.033534228811736e-12</v>
+        <v>4.801333983629336e-13</v>
       </c>
       <c r="G80" t="n">
-        <v>1.002885670391478e-11</v>
+        <v>7.980710588551908e-13</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1662625369538325</v>
+        <v>0.1662625403328401</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9202303420559295</v>
+        <v>0.9202303405011968</v>
       </c>
       <c r="J80" t="n">
-        <v>0.08313126847691625</v>
+        <v>0.08313127016642007</v>
       </c>
     </row>
     <row r="81">
@@ -2946,31 +2948,31 @@
         <v>4.64</v>
       </c>
       <c r="B81" t="n">
-        <v>2.950780323703397e-12</v>
+        <v>3.587021116777961e-13</v>
       </c>
       <c r="C81" t="n">
-        <v>6.765420596991296e-12</v>
+        <v>1.810352529186158e-13</v>
       </c>
       <c r="D81" t="n">
-        <v>-2.094999999932055e-13</v>
+        <v>2.953408900082428e-13</v>
       </c>
       <c r="E81" t="n">
-        <v>1.246546558522235e-12</v>
+        <v>1.526521809768054e-13</v>
       </c>
       <c r="F81" t="n">
-        <v>3.035086013343878e-12</v>
+        <v>4.127239810947606e-13</v>
       </c>
       <c r="G81" t="n">
-        <v>3.909787777620745e-12</v>
+        <v>4.268445330750322e-13</v>
       </c>
       <c r="H81" t="n">
-        <v>1.630542293444841</v>
+        <v>0.4905088647482305</v>
       </c>
       <c r="I81" t="n">
-        <v>0.803292559687054</v>
+        <v>0.9209715699275178</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4076355733612104</v>
+        <v>0.1635029549160768</v>
       </c>
     </row>
     <row r="82">
@@ -2978,31 +2980,31 @@
         <v>4.65</v>
       </c>
       <c r="B82" t="n">
-        <v>3.322306568268101e-12</v>
+        <v>2.643807561429064e-13</v>
       </c>
       <c r="C82" t="n">
-        <v>1.071141325324952e-12</v>
+        <v>8.523871769532161e-14</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.182773944363381e-12</v>
+        <v>-9.412215933627008e-14</v>
       </c>
       <c r="E82" t="n">
-        <v>1.738120780307943e-12</v>
+        <v>1.383152568538302e-13</v>
       </c>
       <c r="F82" t="n">
-        <v>2.788134868710757e-12</v>
+        <v>2.218727230482e-13</v>
       </c>
       <c r="G82" t="n">
-        <v>6.676979965673786e-12</v>
+        <v>5.31337183132474e-13</v>
       </c>
       <c r="H82" t="n">
-        <v>2.325524779847704</v>
+        <v>2.325524780187894</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5076486806463045</v>
+        <v>0.5076486805816036</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7751749266159013</v>
+        <v>0.7751749267292981</v>
       </c>
     </row>
     <row r="83">
@@ -3010,31 +3012,31 @@
         <v>4.6701</v>
       </c>
       <c r="B83" t="n">
-        <v>3.807677276457686e-12</v>
+        <v>4.719164533022348e-13</v>
       </c>
       <c r="C83" t="n">
-        <v>4.145142914411272e-12</v>
+        <v>-1.089861956797689e-13</v>
       </c>
       <c r="D83" t="n">
-        <v>-2.612284170554842e-12</v>
+        <v>1.54978788232575e-13</v>
       </c>
       <c r="E83" t="n">
-        <v>1.691750675868732e-12</v>
+        <v>2.293848104477827e-13</v>
       </c>
       <c r="F83" t="n">
-        <v>2.347320742429546e-12</v>
+        <v>5.174214777893245e-13</v>
       </c>
       <c r="G83" t="n">
-        <v>3.893271168599948e-12</v>
+        <v>5.051415057104509e-13</v>
       </c>
       <c r="H83" t="n">
-        <v>1.238855125461978</v>
+        <v>0.4117131790628941</v>
       </c>
       <c r="I83" t="n">
-        <v>0.871660877843452</v>
+        <v>0.9378123379946317</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3097137813654946</v>
+        <v>0.137237726354298</v>
       </c>
     </row>
     <row r="84">
@@ -3042,31 +3044,31 @@
         <v>4.6802</v>
       </c>
       <c r="B84" t="n">
-        <v>3.136896188602964e-12</v>
+        <v>2.496262670847155e-13</v>
       </c>
       <c r="C84" t="n">
-        <v>-8.414157576749443e-13</v>
+        <v>-6.695773765310768e-14</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.921800504391373e-14</v>
+        <v>-2.325096327649477e-15</v>
       </c>
       <c r="E84" t="n">
-        <v>1.308714339619043e-12</v>
+        <v>1.041441780335803e-13</v>
       </c>
       <c r="F84" t="n">
-        <v>2.647702137144062e-12</v>
+        <v>2.10697441297673e-13</v>
       </c>
       <c r="G84" t="n">
-        <v>3.069525751726333e-12</v>
+        <v>2.442650980402415e-13</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9500635424321315</v>
+        <v>0.9500635469346493</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9172710730499927</v>
+        <v>0.9172710723849578</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2375158856080329</v>
+        <v>0.2375158867336623</v>
       </c>
     </row>
     <row r="85">
@@ -3074,31 +3076,31 @@
         <v>4.6899</v>
       </c>
       <c r="B85" t="n">
-        <v>3.653214112328332e-12</v>
+        <v>2.907135423064162e-13</v>
       </c>
       <c r="C85" t="n">
-        <v>4.654921304524233e-12</v>
+        <v>3.704268675096137e-13</v>
       </c>
       <c r="D85" t="n">
-        <v>3.626876304309583e-13</v>
+        <v>2.886176408927073e-14</v>
       </c>
       <c r="E85" t="n">
-        <v>1.437373349943809e-12</v>
+        <v>1.143825367879011e-13</v>
       </c>
       <c r="F85" t="n">
-        <v>3.166474432050063e-12</v>
+        <v>2.519800287843511e-13</v>
       </c>
       <c r="G85" t="n">
-        <v>3.322950802345887e-12</v>
+        <v>2.644320227120443e-13</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1172898025865748</v>
+        <v>0.117289803950396</v>
       </c>
       <c r="I85" t="n">
-        <v>0.98968476814755</v>
+        <v>0.989684767971827</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03909660086219161</v>
+        <v>0.03909660131679866</v>
       </c>
     </row>
     <row r="86">
@@ -3106,31 +3108,31 @@
         <v>4.71</v>
       </c>
       <c r="B86" t="n">
-        <v>7.642385805139987e-12</v>
+        <v>6.081617387113766e-13</v>
       </c>
       <c r="C86" t="n">
-        <v>2.341873424415023e-12</v>
+        <v>1.86360365837344e-13</v>
       </c>
       <c r="D86" t="n">
-        <v>-2.662695096967222e-12</v>
+        <v>-2.1189054291153e-13</v>
       </c>
       <c r="E86" t="n">
-        <v>1.521300644603585e-12</v>
+        <v>1.210612588710721e-13</v>
       </c>
       <c r="F86" t="n">
-        <v>2.662003009615356e-12</v>
+        <v>2.118354688411724e-13</v>
       </c>
       <c r="G86" t="n">
-        <v>3.256555913835295e-12</v>
+        <v>2.591484857369011e-13</v>
       </c>
       <c r="H86" t="n">
-        <v>1.318754663506619</v>
+        <v>1.318754658867734</v>
       </c>
       <c r="I86" t="n">
-        <v>0.8581855869252116</v>
+        <v>0.8581855877161702</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3296886658766546</v>
+        <v>0.3296886647169334</v>
       </c>
     </row>
     <row r="87">
@@ -3138,31 +3140,31 @@
         <v>4.73</v>
       </c>
       <c r="B87" t="n">
-        <v>1.147023463385823e-11</v>
+        <v>9.127722710810205e-13</v>
       </c>
       <c r="C87" t="n">
-        <v>3.566771346201313e-12</v>
+        <v>2.838346444290339e-13</v>
       </c>
       <c r="D87" t="n">
-        <v>9.59855639484148e-13</v>
+        <v>7.638288396824471e-14</v>
       </c>
       <c r="E87" t="n">
-        <v>2.27740320987863e-12</v>
+        <v>1.812299889993946e-13</v>
       </c>
       <c r="F87" t="n">
-        <v>4.526223140825296e-12</v>
+        <v>3.601853930379848e-13</v>
       </c>
       <c r="G87" t="n">
-        <v>4.844249978611575e-12</v>
+        <v>3.854931644622041e-13</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8799510173978451</v>
+        <v>0.8799510387159388</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9274193864991079</v>
+        <v>0.9274193834786838</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2199877543494613</v>
+        <v>0.2199877596789847</v>
       </c>
     </row>
     <row r="88">
@@ -3170,31 +3172,31 @@
         <v>4.75</v>
       </c>
       <c r="B88" t="n">
-        <v>5.350069341774366e-12</v>
+        <v>4.257449911860408e-13</v>
       </c>
       <c r="C88" t="n">
-        <v>2.192611974122195e-12</v>
+        <v>1.744825173889337e-13</v>
       </c>
       <c r="D88" t="n">
-        <v>9.548337893729732e-13</v>
+        <v>7.598325888212204e-14</v>
       </c>
       <c r="E88" t="n">
-        <v>1.654133468645869e-12</v>
+        <v>1.3163175900198e-13</v>
       </c>
       <c r="F88" t="n">
-        <v>3.340337971505737e-12</v>
+        <v>2.65815649739267e-13</v>
       </c>
       <c r="G88" t="n">
-        <v>3.895208834720421e-12</v>
+        <v>3.099708701706543e-13</v>
       </c>
       <c r="H88" t="n">
-        <v>3.523172181432634</v>
+        <v>3.523172201248462</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4743637220271134</v>
+        <v>0.4743637190290626</v>
       </c>
       <c r="J88" t="n">
-        <v>0.8807930453581585</v>
+        <v>0.8807930503121155</v>
       </c>
     </row>
     <row r="89">
@@ -3202,31 +3204,31 @@
         <v>4.7552</v>
       </c>
       <c r="B89" t="n">
-        <v>3.11912875349695e-12</v>
+        <v>2.729741552391051e-13</v>
       </c>
       <c r="C89" t="n">
-        <v>3.056123641059235e-12</v>
+        <v>1.120929295281524e-13</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.390958569768943e-12</v>
+        <v>2.964458233408995e-14</v>
       </c>
       <c r="E89" t="n">
-        <v>1.338087527675691e-12</v>
+        <v>1.243556593180724e-13</v>
       </c>
       <c r="F89" t="n">
-        <v>2.038719508301628e-12</v>
+        <v>3.76811829884289e-13</v>
       </c>
       <c r="G89" t="n">
-        <v>2.903211229467941e-12</v>
+        <v>4.311577156060434e-13</v>
       </c>
       <c r="H89" t="n">
-        <v>1.308682133559985</v>
+        <v>1.160076607312194</v>
       </c>
       <c r="I89" t="n">
-        <v>0.8599007664911629</v>
+        <v>0.7625946362689691</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3271705333899962</v>
+        <v>0.386692202437398</v>
       </c>
     </row>
     <row r="90">
@@ -3234,31 +3236,31 @@
         <v>4.7589</v>
       </c>
       <c r="B90" t="n">
-        <v>3.022955177861721e-12</v>
+        <v>4.883202411972994e-13</v>
       </c>
       <c r="C90" t="n">
-        <v>5.330912023561596e-12</v>
+        <v>1.905366796836001e-13</v>
       </c>
       <c r="D90" t="n">
-        <v>-2.362214177514214e-12</v>
+        <v>-2.362332277820723e-13</v>
       </c>
       <c r="E90" t="n">
-        <v>2.201625660895465e-12</v>
+        <v>2.433881357720109e-13</v>
       </c>
       <c r="F90" t="n">
-        <v>4.051946066346988e-12</v>
+        <v>3.596683977478199e-13</v>
       </c>
       <c r="G90" t="n">
-        <v>5.705034695970113e-12</v>
+        <v>4.551830749233047e-13</v>
       </c>
       <c r="H90" t="n">
-        <v>2.151441300583062</v>
+        <v>0.0007924808124064717</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3410518875771013</v>
+        <v>0.977541689560037</v>
       </c>
       <c r="J90" t="n">
-        <v>1.075720650291531</v>
+        <v>0.0007924808124064717</v>
       </c>
     </row>
     <row r="91">
@@ -3266,31 +3268,31 @@
         <v>4.77</v>
       </c>
       <c r="B91" t="n">
-        <v>4.095110970118679e-12</v>
+        <v>3.25878576895354e-13</v>
       </c>
       <c r="C91" t="n">
-        <v>4.319385820851926e-12</v>
+        <v>3.437258026654529e-13</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.133471293293178e-12</v>
+        <v>-1.697762519343138e-13</v>
       </c>
       <c r="E91" t="n">
-        <v>1.981164109277127e-12</v>
+        <v>1.576560305335671e-13</v>
       </c>
       <c r="F91" t="n">
-        <v>3.305781115182456e-12</v>
+        <v>2.630657026154002e-13</v>
       </c>
       <c r="G91" t="n">
-        <v>6.308900439867097e-12</v>
+        <v>5.020463452722459e-13</v>
       </c>
       <c r="H91" t="n">
-        <v>1.767033066407157</v>
+        <v>1.767033063791839</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7785080034347549</v>
+        <v>0.7785080039122871</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4417582666017891</v>
+        <v>0.4417582659479599</v>
       </c>
     </row>
     <row r="92">
@@ -3298,31 +3300,31 @@
         <v>4.775</v>
       </c>
       <c r="B92" t="n">
-        <v>5.669794126364074e-12</v>
+        <v>4.511878807242343e-13</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.080933128263655e-12</v>
+        <v>-1.655953963486537e-13</v>
       </c>
       <c r="D92" t="n">
-        <v>7.225829496479765e-13</v>
+        <v>5.750132358228994e-14</v>
       </c>
       <c r="E92" t="n">
-        <v>2.334363378361917e-12</v>
+        <v>1.857627352221282e-13</v>
       </c>
       <c r="F92" t="n">
-        <v>4.692877668724938e-12</v>
+        <v>3.734473389076427e-13</v>
       </c>
       <c r="G92" t="n">
-        <v>4.337589681720662e-12</v>
+        <v>3.451744192369356e-13</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9961351259748177</v>
+        <v>0.9961351342091319</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9103814633780855</v>
+        <v>0.9103814621319143</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2490337814937044</v>
+        <v>0.249033783552283</v>
       </c>
     </row>
     <row r="93">
@@ -3330,31 +3332,31 @@
         <v>4.7802</v>
       </c>
       <c r="B93" t="n">
-        <v>1.148798472708032e-11</v>
+        <v>9.141847783938921e-13</v>
       </c>
       <c r="C93" t="n">
-        <v>-9.662138888207496e-12</v>
+        <v>-7.688885837054184e-13</v>
       </c>
       <c r="D93" t="n">
-        <v>6.055106486230304e-12</v>
+        <v>4.818500648001605e-13</v>
       </c>
       <c r="E93" t="n">
-        <v>6.138978868974233e-12</v>
+        <v>4.88524416041634e-13</v>
       </c>
       <c r="F93" t="n">
-        <v>1.225139831404413e-11</v>
+        <v>9.749353003194296e-13</v>
       </c>
       <c r="G93" t="n">
-        <v>1.016345504305435e-11</v>
+        <v>8.087820541736937e-13</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2468497899176092</v>
+        <v>0.2468497907082141</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9696936286028141</v>
+        <v>0.9696936284643034</v>
       </c>
       <c r="J93" t="n">
-        <v>0.08228326330586973</v>
+        <v>0.08228326356940469</v>
       </c>
     </row>
     <row r="94">
@@ -3362,31 +3364,33 @@
         <v>4.7901</v>
       </c>
       <c r="B94" t="n">
-        <v>2.105636673986274e-12</v>
+        <v>9.485935542061441e-13</v>
       </c>
       <c r="C94" t="n">
-        <v>3.224478775753297e-12</v>
+        <v>-4.220429150989622e-13</v>
       </c>
       <c r="D94" t="n">
-        <v>1.816790801634662e-12</v>
+        <v>-1.617821380150055e-13</v>
       </c>
       <c r="E94" t="n">
-        <v>1.134907354598524e-12</v>
+        <v>5.816719076328261e-13</v>
       </c>
       <c r="F94" t="n">
-        <v>3.451971097669147e-12</v>
+        <v>8.720193406520333e-13</v>
       </c>
       <c r="G94" t="n">
-        <v>2.992074175626163e-12</v>
+        <v>1.018873881649383e-12</v>
       </c>
       <c r="H94" t="n">
-        <v>1.857098560395461</v>
+        <v>1.087815889007377e-29</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3951265126396333</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.9285492801977303</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3394,31 +3398,31 @@
         <v>4.7999</v>
       </c>
       <c r="B95" t="n">
-        <v>3.764681559636226e-12</v>
+        <v>3.985804327532781e-13</v>
       </c>
       <c r="C95" t="n">
-        <v>-2.964873186876121e-12</v>
+        <v>-6.589371877897168e-16</v>
       </c>
       <c r="D95" t="n">
-        <v>4.570005539854205e-13</v>
+        <v>-1.61279655303922e-13</v>
       </c>
       <c r="E95" t="n">
-        <v>2.252277686632074e-12</v>
+        <v>2.128495781472632e-13</v>
       </c>
       <c r="F95" t="n">
-        <v>3.875033752184656e-12</v>
+        <v>4.117551254266305e-13</v>
       </c>
       <c r="G95" t="n">
-        <v>5.912699556935151e-12</v>
+        <v>5.233811738657235e-13</v>
       </c>
       <c r="H95" t="n">
-        <v>1.484882287005526</v>
+        <v>0.7413827948945422</v>
       </c>
       <c r="I95" t="n">
-        <v>0.6857638603287981</v>
+        <v>0.6902569237423816</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4949607623351752</v>
+        <v>0.3706913974472711</v>
       </c>
     </row>
     <row r="96">
@@ -3426,31 +3430,31 @@
         <v>4.81</v>
       </c>
       <c r="B96" t="n">
-        <v>5.310069381902726e-12</v>
+        <v>4.22561894790113e-13</v>
       </c>
       <c r="C96" t="n">
-        <v>-4.532783226285715e-12</v>
+        <v>-3.607074278054127e-13</v>
       </c>
       <c r="D96" t="n">
-        <v>4.308449068378536e-12</v>
+        <v>3.428554833357055e-13</v>
       </c>
       <c r="E96" t="n">
-        <v>2.455096753157971e-12</v>
+        <v>1.953703921216743e-13</v>
       </c>
       <c r="F96" t="n">
-        <v>4.484855147328985e-12</v>
+        <v>3.568934329278097e-13</v>
       </c>
       <c r="G96" t="n">
-        <v>4.958020830540047e-12</v>
+        <v>3.945467616594927e-13</v>
       </c>
       <c r="H96" t="n">
-        <v>0.06788242836634852</v>
+        <v>0.0678824283159242</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9953907767578564</v>
+        <v>0.9953907767629226</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02262747612211617</v>
+        <v>0.02262747610530806</v>
       </c>
     </row>
     <row r="97">
@@ -3458,31 +3462,31 @@
         <v>4.8122</v>
       </c>
       <c r="B97" t="n">
-        <v>3.332214016399625e-12</v>
+        <v>2.65169165903496e-13</v>
       </c>
       <c r="C97" t="n">
-        <v>2.98590113818924e-14</v>
+        <v>2.376104968240282e-15</v>
       </c>
       <c r="D97" t="n">
-        <v>1.79763786505275e-12</v>
+        <v>1.430514758125243e-13</v>
       </c>
       <c r="E97" t="n">
-        <v>1.340578118640036e-12</v>
+        <v>1.066798169751185e-13</v>
       </c>
       <c r="F97" t="n">
-        <v>3.442298016034228e-12</v>
+        <v>2.739293723770308e-13</v>
       </c>
       <c r="G97" t="n">
-        <v>4.038335006943116e-12</v>
+        <v>3.21360489047431e-13</v>
       </c>
       <c r="H97" t="n">
-        <v>1.285309897730182</v>
+        <v>1.285309902386217</v>
       </c>
       <c r="I97" t="n">
-        <v>0.8638629506183679</v>
+        <v>0.8638629498315711</v>
       </c>
       <c r="J97" t="n">
-        <v>0.3213274744325456</v>
+        <v>0.3213274755965542</v>
       </c>
     </row>
     <row r="98">
@@ -3490,31 +3494,31 @@
         <v>4.8153</v>
       </c>
       <c r="B98" t="n">
-        <v>4.124548347049254e-12</v>
+        <v>3.282211287905531e-13</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.023292605471085e-12</v>
+        <v>-8.143103812366225e-14</v>
       </c>
       <c r="D98" t="n">
-        <v>1.318817861484749e-12</v>
+        <v>1.04948190698287e-13</v>
       </c>
       <c r="E98" t="n">
-        <v>1.655907234499597e-12</v>
+        <v>1.317729107514152e-13</v>
       </c>
       <c r="F98" t="n">
-        <v>3.468553027420959e-12</v>
+        <v>2.760186796856258e-13</v>
       </c>
       <c r="G98" t="n">
-        <v>3.440015170442026e-12</v>
+        <v>2.737477092659675e-13</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5813860826875163</v>
+        <v>0.5813860796142774</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9651094871612154</v>
+        <v>0.9651094874952216</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1453465206718791</v>
+        <v>0.1453465199035693</v>
       </c>
     </row>
     <row r="99">
@@ -3522,31 +3526,31 @@
         <v>4.8201</v>
       </c>
       <c r="B99" t="n">
-        <v>4.232572638883467e-12</v>
+        <v>3.705182972919318e-13</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.452926151205211e-12</v>
+        <v>-7.433171367449516e-14</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.192577278258924e-12</v>
+        <v>2.215775544978393e-13</v>
       </c>
       <c r="E99" t="n">
-        <v>1.621076549568449e-12</v>
+        <v>1.334058360873064e-13</v>
       </c>
       <c r="F99" t="n">
-        <v>3.306464685940128e-12</v>
+        <v>2.899980380166617e-13</v>
       </c>
       <c r="G99" t="n">
-        <v>3.028152574878682e-12</v>
+        <v>3.999961448920342e-13</v>
       </c>
       <c r="H99" t="n">
-        <v>1.261656615149783</v>
+        <v>0.2790174484411891</v>
       </c>
       <c r="I99" t="n">
-        <v>0.867846643721343</v>
+        <v>0.9639251862333656</v>
       </c>
       <c r="J99" t="n">
-        <v>0.3154141537874458</v>
+        <v>0.09300581614706305</v>
       </c>
     </row>
     <row r="100">
@@ -3554,31 +3558,31 @@
         <v>4.8299</v>
       </c>
       <c r="B100" t="n">
-        <v>5.691258124670136e-12</v>
+        <v>4.528959311259096e-13</v>
       </c>
       <c r="C100" t="n">
-        <v>1.476310710798806e-12</v>
+        <v>1.174810733976034e-13</v>
       </c>
       <c r="D100" t="n">
-        <v>-2.039000890621002e-12</v>
+        <v>-1.622585350471351e-13</v>
       </c>
       <c r="E100" t="n">
-        <v>1.474472606353025e-12</v>
+        <v>1.173348018615716e-13</v>
       </c>
       <c r="F100" t="n">
-        <v>2.904758061523691e-12</v>
+        <v>2.3115330189611e-13</v>
       </c>
       <c r="G100" t="n">
-        <v>3.484712974906081e-12</v>
+        <v>2.773046477377471e-13</v>
       </c>
       <c r="H100" t="n">
-        <v>0.7219950468505058</v>
+        <v>0.7219950493096422</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9485890400415798</v>
+        <v>0.9485890397322102</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1804987617126264</v>
+        <v>0.1804987623274106</v>
       </c>
     </row>
     <row r="101">
@@ -3586,31 +3590,31 @@
         <v>4.85</v>
       </c>
       <c r="B101" t="n">
-        <v>5.819230650882834e-12</v>
+        <v>4.630796617201797e-13</v>
       </c>
       <c r="C101" t="n">
-        <v>5.409811736059493e-13</v>
+        <v>4.304991399038615e-14</v>
       </c>
       <c r="D101" t="n">
-        <v>8.119799795865823e-13</v>
+        <v>6.461531396046361e-14</v>
       </c>
       <c r="E101" t="n">
-        <v>1.240974141723078e-12</v>
+        <v>9.87535845299617e-14</v>
       </c>
       <c r="F101" t="n">
-        <v>2.748971159420796e-12</v>
+        <v>2.187561744627937e-13</v>
       </c>
       <c r="G101" t="n">
-        <v>2.718462085251421e-12</v>
+        <v>2.16328339499859e-13</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9719240502906584</v>
+        <v>0.9719240516785742</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9140229172540656</v>
+        <v>0.9140229170466292</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2429810125726646</v>
+        <v>0.2429810129196436</v>
       </c>
     </row>
     <row r="102">
@@ -3618,31 +3622,31 @@
         <v>4.8663</v>
       </c>
       <c r="B102" t="n">
-        <v>1.292754329605626e-11</v>
+        <v>1.028741208329394e-12</v>
       </c>
       <c r="C102" t="n">
-        <v>1.233143987994521e-12</v>
+        <v>9.813048324569438e-14</v>
       </c>
       <c r="D102" t="n">
-        <v>3.547250293406798e-12</v>
+        <v>2.8228120598294e-13</v>
       </c>
       <c r="E102" t="n">
-        <v>1.784090017283187e-12</v>
+        <v>1.419733726698783e-13</v>
       </c>
       <c r="F102" t="n">
-        <v>3.668259225028862e-12</v>
+        <v>2.919107939839815e-13</v>
       </c>
       <c r="G102" t="n">
-        <v>4.263635843546713e-12</v>
+        <v>3.392893601410772e-13</v>
       </c>
       <c r="H102" t="n">
-        <v>4.399550212843224</v>
+        <v>4.399550232868361</v>
       </c>
       <c r="I102" t="n">
-        <v>0.354624931743291</v>
+        <v>0.3546249293022584</v>
       </c>
       <c r="J102" t="n">
-        <v>1.099887553210806</v>
+        <v>1.09988755821709</v>
       </c>
     </row>
     <row r="103">
@@ -3650,31 +3654,31 @@
         <v>4.8899</v>
       </c>
       <c r="B103" t="n">
-        <v>1.092476988064041e-11</v>
+        <v>8.693655653455929e-13</v>
       </c>
       <c r="C103" t="n">
-        <v>1.280156620975659e-12</v>
+        <v>1.018716272393462e-13</v>
       </c>
       <c r="D103" t="n">
-        <v>-2.707126496988024e-12</v>
+        <v>-2.154262831839185e-13</v>
       </c>
       <c r="E103" t="n">
-        <v>1.362639477119859e-12</v>
+        <v>1.084354042472999e-13</v>
       </c>
       <c r="F103" t="n">
-        <v>2.514223837951286e-12</v>
+        <v>2.00075576157517e-13</v>
       </c>
       <c r="G103" t="n">
-        <v>3.024599697856439e-12</v>
+        <v>2.406899961166306e-13</v>
       </c>
       <c r="H103" t="n">
-        <v>2.159067479579313</v>
+        <v>2.159067513551477</v>
       </c>
       <c r="I103" t="n">
-        <v>0.7065297033610138</v>
+        <v>0.7065296971309301</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5397668698948282</v>
+        <v>0.5397668783878692</v>
       </c>
     </row>
     <row r="104">
@@ -3682,31 +3686,31 @@
         <v>4.8999</v>
       </c>
       <c r="B104" t="n">
-        <v>6.569812945949387e-12</v>
+        <v>5.228091027839776e-13</v>
       </c>
       <c r="C104" t="n">
-        <v>1.547811652010218e-12</v>
+        <v>1.231709379456707e-13</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.402465686903653e-12</v>
+        <v>-5.094920307148883e-13</v>
       </c>
       <c r="E104" t="n">
-        <v>2.197151298328169e-12</v>
+        <v>1.748437447901876e-13</v>
       </c>
       <c r="F104" t="n">
-        <v>3.557416195381805e-12</v>
+        <v>2.830901860455383e-13</v>
       </c>
       <c r="G104" t="n">
-        <v>4.588162974459117e-12</v>
+        <v>3.651144083110117e-13</v>
       </c>
       <c r="H104" t="n">
-        <v>1.259007875371614</v>
+        <v>1.259007873506397</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7388892973523269</v>
+        <v>0.7388892977972281</v>
       </c>
       <c r="J104" t="n">
-        <v>0.419669291790538</v>
+        <v>0.4196692911687991</v>
       </c>
     </row>
     <row r="105">
@@ -3714,31 +3718,31 @@
         <v>4.9101</v>
       </c>
       <c r="B105" t="n">
-        <v>6.657995727998969e-12</v>
+        <v>5.298264656419171e-13</v>
       </c>
       <c r="C105" t="n">
-        <v>-4.273629888556505e-13</v>
+        <v>-3.400846638795799e-14</v>
       </c>
       <c r="D105" t="n">
-        <v>9.199473349713153e-13</v>
+        <v>7.320708327814132e-14</v>
       </c>
       <c r="E105" t="n">
-        <v>1.998609921384821e-12</v>
+        <v>1.590443240614446e-13</v>
       </c>
       <c r="F105" t="n">
-        <v>4.010220794757347e-12</v>
+        <v>3.191232313803999e-13</v>
       </c>
       <c r="G105" t="n">
-        <v>5.034124054168356e-12</v>
+        <v>4.006028636108302e-13</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8647240608267353</v>
+        <v>0.8647240621222803</v>
       </c>
       <c r="I105" t="n">
-        <v>0.8339312600425891</v>
+        <v>0.8339312597306794</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2882413536089117</v>
+        <v>0.2882413540407601</v>
       </c>
     </row>
     <row r="106">
@@ -3746,31 +3750,31 @@
         <v>4.92</v>
       </c>
       <c r="B106" t="n">
-        <v>3.567134874125559e-12</v>
+        <v>2.838635737316896e-13</v>
       </c>
       <c r="C106" t="n">
-        <v>3.136185296989511e-12</v>
+        <v>2.495696967406866e-13</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.508136126172067e-12</v>
+        <v>-1.200136598893819e-13</v>
       </c>
       <c r="E106" t="n">
-        <v>1.787479244924055e-12</v>
+        <v>1.422430787875757e-13</v>
       </c>
       <c r="F106" t="n">
-        <v>3.215808810420011e-12</v>
+        <v>2.559059341752764e-13</v>
       </c>
       <c r="G106" t="n">
-        <v>4.458467105824119e-12</v>
+        <v>3.547935394407116e-13</v>
       </c>
       <c r="H106" t="n">
-        <v>1.325660962813775</v>
+        <v>1.325660961257806</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7230488335062129</v>
+        <v>0.7230488338745653</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4418869876045917</v>
+        <v>0.4418869870859354</v>
       </c>
     </row>
     <row r="107">
@@ -3778,31 +3782,31 @@
         <v>4.9262</v>
       </c>
       <c r="B107" t="n">
-        <v>3.156363428551179e-12</v>
+        <v>2.511754208427213e-13</v>
       </c>
       <c r="C107" t="n">
-        <v>2.294000318219058e-12</v>
+        <v>1.825507450642612e-13</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.367044169259228e-13</v>
+        <v>-5.066732746819628e-14</v>
       </c>
       <c r="E107" t="n">
-        <v>1.146869448105446e-12</v>
+        <v>9.126497078150706e-14</v>
       </c>
       <c r="F107" t="n">
-        <v>2.163494694041858e-12</v>
+        <v>1.72165437239643e-13</v>
       </c>
       <c r="G107" t="n">
-        <v>3.082451685783268e-12</v>
+        <v>2.452937111972468e-13</v>
       </c>
       <c r="H107" t="n">
-        <v>1.556000380573647</v>
+        <v>1.556000374273892</v>
       </c>
       <c r="I107" t="n">
-        <v>0.8166775430562017</v>
+        <v>0.8166775441818228</v>
       </c>
       <c r="J107" t="n">
-        <v>0.3890000951434118</v>
+        <v>0.389000093568473</v>
       </c>
     </row>
     <row r="108">
@@ -3810,31 +3814,31 @@
         <v>4.9302</v>
       </c>
       <c r="B108" t="n">
-        <v>4.748786956133269e-12</v>
+        <v>3.77896458766103e-13</v>
       </c>
       <c r="C108" t="n">
-        <v>1.067509735497624e-12</v>
+        <v>8.494972543963685e-14</v>
       </c>
       <c r="D108" t="n">
-        <v>2.103249297371087e-12</v>
+        <v>1.673712615296122e-13</v>
       </c>
       <c r="E108" t="n">
-        <v>1.693903683451763e-12</v>
+        <v>1.347965720474141e-13</v>
       </c>
       <c r="F108" t="n">
-        <v>3.085431677229797e-12</v>
+        <v>2.455308513876509e-13</v>
       </c>
       <c r="G108" t="n">
-        <v>3.507430314894575e-12</v>
+        <v>2.791124357352405e-13</v>
       </c>
       <c r="H108" t="n">
-        <v>0.6828868451773495</v>
+        <v>0.6828868483039421</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9534224326968379</v>
+        <v>0.953422432317459</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1707217112943374</v>
+        <v>0.1707217120759855</v>
       </c>
     </row>
     <row r="109">
@@ -3842,31 +3846,31 @@
         <v>4.9369</v>
       </c>
       <c r="B109" t="n">
-        <v>4.773580345721664e-12</v>
+        <v>3.798694539667617e-13</v>
       </c>
       <c r="C109" t="n">
-        <v>1.973435333836823e-12</v>
+        <v>1.570409946432901e-13</v>
       </c>
       <c r="D109" t="n">
-        <v>9.055033281544173e-13</v>
+        <v>7.205766575079261e-14</v>
       </c>
       <c r="E109" t="n">
-        <v>1.422471042481423e-12</v>
+        <v>1.13196649022295e-13</v>
       </c>
       <c r="F109" t="n">
-        <v>2.327287241893434e-12</v>
+        <v>1.851996343259101e-13</v>
       </c>
       <c r="G109" t="n">
-        <v>3.272526481301749e-12</v>
+        <v>2.604193830574716e-13</v>
       </c>
       <c r="H109" t="n">
-        <v>8.280891360291498</v>
+        <v>8.280891408287358</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0818140821932879</v>
+        <v>0.08181408061186453</v>
       </c>
       <c r="J109" t="n">
-        <v>2.070222840072875</v>
+        <v>2.07022285207184</v>
       </c>
     </row>
     <row r="110">
@@ -3874,31 +3878,31 @@
         <v>4.9467</v>
       </c>
       <c r="B110" t="n">
-        <v>6.904145922384053e-12</v>
+        <v>5.494144756765636e-13</v>
       </c>
       <c r="C110" t="n">
-        <v>3.42153093899619e-12</v>
+        <v>2.722767805880574e-13</v>
       </c>
       <c r="D110" t="n">
-        <v>2.724544836771685e-13</v>
+        <v>2.168123846640229e-14</v>
       </c>
       <c r="E110" t="n">
-        <v>1.665392998378373e-12</v>
+        <v>1.325277639841103e-13</v>
       </c>
       <c r="F110" t="n">
-        <v>3.154573776147629e-12</v>
+        <v>2.51033004882843e-13</v>
       </c>
       <c r="G110" t="n">
-        <v>3.654267872112099e-12</v>
+        <v>2.907973976607869e-13</v>
       </c>
       <c r="H110" t="n">
-        <v>1.149304632331464</v>
+        <v>1.149304624642372</v>
       </c>
       <c r="I110" t="n">
-        <v>0.8863726488578035</v>
+        <v>0.8863726501014069</v>
       </c>
       <c r="J110" t="n">
-        <v>0.287326158082866</v>
+        <v>0.2873261561605931</v>
       </c>
     </row>
     <row r="111">
@@ -3906,31 +3910,31 @@
         <v>4.9503</v>
       </c>
       <c r="B111" t="n">
-        <v>7.384685798766283e-12</v>
+        <v>5.876546234227112e-13</v>
       </c>
       <c r="C111" t="n">
-        <v>1.037559550628838e-11</v>
+        <v>8.256636525875947e-13</v>
       </c>
       <c r="D111" t="n">
-        <v>6.60344999306105e-13</v>
+        <v>5.254858367986042e-14</v>
       </c>
       <c r="E111" t="n">
-        <v>2.123799116554179e-12</v>
+        <v>1.690065638252076e-13</v>
       </c>
       <c r="F111" t="n">
-        <v>4.028876887703647e-12</v>
+        <v>3.206078360358174e-13</v>
       </c>
       <c r="G111" t="n">
-        <v>5.911406556965343e-12</v>
+        <v>4.704147873556273e-13</v>
       </c>
       <c r="H111" t="n">
-        <v>2.156153278967441</v>
+        <v>2.156153271823118</v>
       </c>
       <c r="I111" t="n">
-        <v>0.707064161017023</v>
+        <v>0.707064162327345</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5390383197418603</v>
+        <v>0.5390383179557794</v>
       </c>
     </row>
     <row r="112">
@@ -3938,31 +3942,31 @@
         <v>4.9568</v>
       </c>
       <c r="B112" t="n">
-        <v>5.107288315489431e-12</v>
+        <v>4.064250907422538e-13</v>
       </c>
       <c r="C112" t="n">
-        <v>4.188982137451096e-12</v>
+        <v>3.333486066630045e-13</v>
       </c>
       <c r="D112" t="n">
-        <v>2.056416458245793e-12</v>
+        <v>1.636444220644373e-13</v>
       </c>
       <c r="E112" t="n">
-        <v>1.87345861124414e-12</v>
+        <v>1.490850993048223e-13</v>
       </c>
       <c r="F112" t="n">
-        <v>3.192098004574662e-12</v>
+        <v>2.540190883288891e-13</v>
       </c>
       <c r="G112" t="n">
-        <v>4.847141029102513e-12</v>
+        <v>3.857232272836666e-13</v>
       </c>
       <c r="H112" t="n">
-        <v>0.8085253998439926</v>
+        <v>0.8085254001082981</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9373014749507932</v>
+        <v>0.937301474915134</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2021313499609982</v>
+        <v>0.2021313500270745</v>
       </c>
     </row>
     <row r="113">
@@ -3970,31 +3974,31 @@
         <v>4.9619</v>
       </c>
       <c r="B113" t="n">
-        <v>1.097313176339954e-11</v>
+        <v>8.732140814132105e-13</v>
       </c>
       <c r="C113" t="n">
-        <v>5.090080335810936e-12</v>
+        <v>4.050557236075905e-13</v>
       </c>
       <c r="D113" t="n">
-        <v>-9.142968832561178e-12</v>
+        <v>-7.275743413401087e-13</v>
       </c>
       <c r="E113" t="n">
-        <v>2.149247387064077e-12</v>
+        <v>1.710316727062735e-13</v>
       </c>
       <c r="F113" t="n">
-        <v>3.4898129821148e-12</v>
+        <v>2.77710493177511e-13</v>
       </c>
       <c r="G113" t="n">
-        <v>4.63886248993049e-12</v>
+        <v>3.691489476823478e-13</v>
       </c>
       <c r="H113" t="n">
-        <v>1.484953347991232</v>
+        <v>1.484953364416481</v>
       </c>
       <c r="I113" t="n">
-        <v>0.8293034089078148</v>
+        <v>0.8293034060057224</v>
       </c>
       <c r="J113" t="n">
-        <v>0.371238336997808</v>
+        <v>0.3712383411041201</v>
       </c>
     </row>
     <row r="114">
@@ -4002,31 +4006,31 @@
         <v>4.9647</v>
       </c>
       <c r="B114" t="n">
-        <v>1.098318053206283e-11</v>
+        <v>8.740137353854902e-13</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.793248308340525e-12</v>
+        <v>-3.01857106226712e-13</v>
       </c>
       <c r="D114" t="n">
-        <v>4.482091280721311e-13</v>
+        <v>3.566734713197142e-14</v>
       </c>
       <c r="E114" t="n">
-        <v>2.511453046183403e-12</v>
+        <v>1.998550832094905e-13</v>
       </c>
       <c r="F114" t="n">
-        <v>5.360229040732747e-12</v>
+        <v>4.265534738025121e-13</v>
       </c>
       <c r="G114" t="n">
-        <v>4.976764661017397e-12</v>
+        <v>3.960383482054322e-13</v>
       </c>
       <c r="H114" t="n">
-        <v>2.885969933002925</v>
+        <v>2.885969925410103</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5770857973493562</v>
+        <v>0.5770857986434166</v>
       </c>
       <c r="J114" t="n">
-        <v>0.7214924832507312</v>
+        <v>0.7214924813525259</v>
       </c>
     </row>
     <row r="115">
@@ -4034,31 +4038,31 @@
         <v>4.9679</v>
       </c>
       <c r="B115" t="n">
-        <v>1.219929803179491e-11</v>
+        <v>9.707892914222769e-13</v>
       </c>
       <c r="C115" t="n">
-        <v>6.53968037065212e-12</v>
+        <v>5.204112305898344e-13</v>
       </c>
       <c r="D115" t="n">
-        <v>2.029288931097117e-12</v>
+        <v>1.614856799469927e-13</v>
       </c>
       <c r="E115" t="n">
-        <v>2.338018433243823e-12</v>
+        <v>1.860535953110684e-13</v>
       </c>
       <c r="F115" t="n">
-        <v>4.686508462027579e-12</v>
+        <v>3.729404935794238e-13</v>
       </c>
       <c r="G115" t="n">
-        <v>5.645301450874713e-12</v>
+        <v>4.492388154119743e-13</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2753863424523295</v>
+        <v>0.2753863283996522</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9913471602369913</v>
+        <v>0.9913471610800195</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06884658561308238</v>
+        <v>0.06884658209991305</v>
       </c>
     </row>
     <row r="116">
@@ -4066,31 +4070,31 @@
         <v>4.97</v>
       </c>
       <c r="B116" t="n">
-        <v>1.0158018055519e-11</v>
+        <v>8.083493930425745e-13</v>
       </c>
       <c r="C116" t="n">
-        <v>2.054206091890359e-12</v>
+        <v>1.634685249461383e-13</v>
       </c>
       <c r="D116" t="n">
-        <v>4.071928493550341e-12</v>
+        <v>3.240337768820436e-13</v>
       </c>
       <c r="E116" t="n">
-        <v>2.980280583621388e-12</v>
+        <v>2.371631932363311e-13</v>
       </c>
       <c r="F116" t="n">
-        <v>6.461774556598686e-12</v>
+        <v>5.142116809299488e-13</v>
       </c>
       <c r="G116" t="n">
-        <v>8.354090435542639e-12</v>
+        <v>6.647973940201541e-13</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5771435541865789</v>
+        <v>0.5771435535758753</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9655693789884445</v>
+        <v>0.9655693790544726</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1442858885466447</v>
+        <v>0.1442858883939688</v>
       </c>
     </row>
     <row r="117">
@@ -4098,31 +4102,31 @@
         <v>4.9728</v>
       </c>
       <c r="B117" t="n">
-        <v>1.473855975932842e-11</v>
+        <v>1.172857320952997e-12</v>
       </c>
       <c r="C117" t="n">
-        <v>5.904449076833947e-12</v>
+        <v>4.698611303810333e-13</v>
       </c>
       <c r="D117" t="n">
-        <v>2.607913974412831e-12</v>
+        <v>2.075312010217049e-13</v>
       </c>
       <c r="E117" t="n">
-        <v>2.372026871387377e-12</v>
+        <v>1.887599009148432e-13</v>
       </c>
       <c r="F117" t="n">
-        <v>4.454448248504357e-12</v>
+        <v>3.544737288467568e-13</v>
       </c>
       <c r="G117" t="n">
-        <v>5.168419885256851e-12</v>
+        <v>4.112897864884298e-13</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2913760122574738</v>
+        <v>0.2913760003705346</v>
       </c>
       <c r="I117" t="n">
-        <v>0.99036405526187</v>
+        <v>0.9903640560103709</v>
       </c>
       <c r="J117" t="n">
-        <v>0.07284400306436846</v>
+        <v>0.07284400009263366</v>
       </c>
     </row>
     <row r="118">
@@ -4130,31 +4134,31 @@
         <v>4.9746</v>
       </c>
       <c r="B118" t="n">
-        <v>1.543911937433153e-11</v>
+        <v>1.228606080238257e-12</v>
       </c>
       <c r="C118" t="n">
-        <v>6.494223378650249e-12</v>
+        <v>5.167938707304005e-13</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.026610426656671e-12</v>
+        <v>-1.612725277105477e-13</v>
       </c>
       <c r="E118" t="n">
-        <v>2.764420661027812e-12</v>
+        <v>2.199856063335745e-13</v>
       </c>
       <c r="F118" t="n">
-        <v>5.911321815685564e-12</v>
+        <v>4.704080436816445e-13</v>
       </c>
       <c r="G118" t="n">
-        <v>6.539723978099626e-12</v>
+        <v>5.204146986671942e-13</v>
       </c>
       <c r="H118" t="n">
-        <v>1.77184128447414</v>
+        <v>1.771841272233732</v>
       </c>
       <c r="I118" t="n">
-        <v>0.7776299301185174</v>
+        <v>0.7776299323542006</v>
       </c>
       <c r="J118" t="n">
-        <v>0.442960321118535</v>
+        <v>0.442960318058433</v>
       </c>
     </row>
     <row r="119">
@@ -4162,31 +4166,31 @@
         <v>4.9847</v>
       </c>
       <c r="B119" t="n">
-        <v>1.93003063524658e-11</v>
+        <v>1.535869580118807e-12</v>
       </c>
       <c r="C119" t="n">
-        <v>1.098224815654315e-11</v>
+        <v>8.739395430851378e-13</v>
       </c>
       <c r="D119" t="n">
-        <v>-4.218838120802188e-12</v>
+        <v>-3.357244747973729e-13</v>
       </c>
       <c r="E119" t="n">
-        <v>2.497798105293857e-12</v>
+        <v>1.987684576870516e-13</v>
       </c>
       <c r="F119" t="n">
-        <v>4.306350674849056e-12</v>
+        <v>3.42688498201517e-13</v>
       </c>
       <c r="G119" t="n">
-        <v>5.518761561611622e-12</v>
+        <v>4.391690911402002e-13</v>
       </c>
       <c r="H119" t="n">
-        <v>12.13435773718876</v>
+        <v>12.13435774363594</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01637961841188463</v>
+        <v>0.0163796183665548</v>
       </c>
       <c r="J119" t="n">
-        <v>3.03358943429719</v>
+        <v>3.033589435908985</v>
       </c>
     </row>
     <row r="120">
@@ -4194,31 +4198,31 @@
         <v>4.9901</v>
       </c>
       <c r="B120" t="n">
-        <v>1.656349750997448e-11</v>
+        <v>1.318081250895365e-12</v>
       </c>
       <c r="C120" t="n">
-        <v>1.130152803800088e-11</v>
+        <v>8.993470287053342e-13</v>
       </c>
       <c r="D120" t="n">
-        <v>7.351228351242085e-12</v>
+        <v>5.849921672790416e-13</v>
       </c>
       <c r="E120" t="n">
-        <v>3.040005126336896e-12</v>
+        <v>2.419159213772096e-13</v>
       </c>
       <c r="F120" t="n">
-        <v>6.009879000056578e-12</v>
+        <v>4.78250974802175e-13</v>
       </c>
       <c r="G120" t="n">
-        <v>6.815705649904729e-12</v>
+        <v>5.423766222967373e-13</v>
       </c>
       <c r="H120" t="n">
-        <v>5.240190745987664</v>
+        <v>5.24019070777535</v>
       </c>
       <c r="I120" t="n">
-        <v>0.2635281721929978</v>
+        <v>0.2635281758371582</v>
       </c>
       <c r="J120" t="n">
-        <v>1.310047686496916</v>
+        <v>1.310047676943838</v>
       </c>
     </row>
     <row r="121">
@@ -4226,31 +4230,31 @@
         <v>4.9947</v>
       </c>
       <c r="B121" t="n">
-        <v>1.996204767035159e-11</v>
+        <v>1.58852928187938e-12</v>
       </c>
       <c r="C121" t="n">
-        <v>5.943150677383328e-12</v>
+        <v>4.729409056545189e-13</v>
       </c>
       <c r="D121" t="n">
-        <v>-7.483135180452258e-13</v>
+        <v>-5.954890219118837e-14</v>
       </c>
       <c r="E121" t="n">
-        <v>2.51575060474433e-12</v>
+        <v>2.001970721899114e-13</v>
       </c>
       <c r="F121" t="n">
-        <v>4.922236702238663e-12</v>
+        <v>3.91699151168712e-13</v>
       </c>
       <c r="G121" t="n">
-        <v>5.565603875236986e-12</v>
+        <v>4.428966840182293e-13</v>
       </c>
       <c r="H121" t="n">
-        <v>2.421603775268289</v>
+        <v>2.421603736806436</v>
       </c>
       <c r="I121" t="n">
-        <v>0.6587266716336195</v>
+        <v>0.6587266785715302</v>
       </c>
       <c r="J121" t="n">
-        <v>0.6054009438170722</v>
+        <v>0.6054009342016089</v>
       </c>
     </row>
     <row r="122">
@@ -4258,31 +4262,31 @@
         <v>5.0046</v>
       </c>
       <c r="B122" t="n">
-        <v>1.995294950245299e-11</v>
+        <v>1.587805270793682e-12</v>
       </c>
       <c r="C122" t="n">
-        <v>9.661480396238464e-12</v>
+        <v>7.688361838251942e-13</v>
       </c>
       <c r="D122" t="n">
-        <v>3.564925631121855e-12</v>
+        <v>2.836877642693388e-13</v>
       </c>
       <c r="E122" t="n">
-        <v>1.943034797953483e-12</v>
+        <v>1.546217963524146e-13</v>
       </c>
       <c r="F122" t="n">
-        <v>3.677747004890609e-12</v>
+        <v>2.92665807571721e-13</v>
       </c>
       <c r="G122" t="n">
-        <v>4.465800807198889e-12</v>
+        <v>3.553771367310544e-13</v>
       </c>
       <c r="H122" t="n">
-        <v>9.80720150190945</v>
+        <v>9.807201462505414</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0438036430926919</v>
+        <v>0.04380364380952666</v>
       </c>
       <c r="J122" t="n">
-        <v>2.451800375477363</v>
+        <v>2.451800365626354</v>
       </c>
     </row>
     <row r="123">
@@ -4290,31 +4294,31 @@
         <v>5.01</v>
       </c>
       <c r="B123" t="n">
-        <v>1.944757867283201e-11</v>
+        <v>1.547589139068341e-12</v>
       </c>
       <c r="C123" t="n">
-        <v>4.450478557851891e-12</v>
+        <v>3.541578346466087e-13</v>
       </c>
       <c r="D123" t="n">
-        <v>3.452905983848732e-12</v>
+        <v>2.747735270391986e-13</v>
       </c>
       <c r="E123" t="n">
-        <v>2.808234747587103e-12</v>
+        <v>2.234722206009657e-13</v>
       </c>
       <c r="F123" t="n">
-        <v>5.658720801239083e-12</v>
+        <v>4.503066933258685e-13</v>
       </c>
       <c r="G123" t="n">
-        <v>6.603968342734094e-12</v>
+        <v>5.25527102874766e-13</v>
       </c>
       <c r="H123" t="n">
-        <v>2.198020390223915</v>
+        <v>2.198020394295588</v>
       </c>
       <c r="I123" t="n">
-        <v>0.6993917171917468</v>
+        <v>0.6993917164462418</v>
       </c>
       <c r="J123" t="n">
-        <v>0.5495050975559788</v>
+        <v>0.549505098573897</v>
       </c>
     </row>
     <row r="124">
@@ -4322,31 +4326,31 @@
         <v>5.0148</v>
       </c>
       <c r="B124" t="n">
-        <v>1.497156475678121e-11</v>
+        <v>1.191399269657286e-12</v>
       </c>
       <c r="C124" t="n">
-        <v>3.881100674471157e-12</v>
+        <v>3.088481831933157e-13</v>
       </c>
       <c r="D124" t="n">
-        <v>7.920037522461181e-13</v>
+        <v>6.302565040364384e-14</v>
       </c>
       <c r="E124" t="n">
-        <v>2.189539042556731e-12</v>
+        <v>1.742379807764193e-13</v>
       </c>
       <c r="F124" t="n">
-        <v>4.488670736587259e-12</v>
+        <v>3.571970676220035e-13</v>
       </c>
       <c r="G124" t="n">
-        <v>4.512528502169639e-12</v>
+        <v>3.59095608246224e-13</v>
       </c>
       <c r="H124" t="n">
-        <v>1.100789869655975</v>
+        <v>1.100789879909783</v>
       </c>
       <c r="I124" t="n">
-        <v>0.8941468641850751</v>
+        <v>0.8941468625576683</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2751974674139936</v>
+        <v>0.2751974699774458</v>
       </c>
     </row>
     <row r="125">
@@ -4354,31 +4358,31 @@
         <v>5.0177</v>
       </c>
       <c r="B125" t="n">
-        <v>1.242986985624305e-11</v>
+        <v>9.891376142818098e-13</v>
       </c>
       <c r="C125" t="n">
-        <v>7.11203841913132e-13</v>
+        <v>5.65958047947726e-14</v>
       </c>
       <c r="D125" t="n">
-        <v>6.118766646211272e-12</v>
+        <v>4.869159805584673e-13</v>
       </c>
       <c r="E125" t="n">
-        <v>3.07881993624378e-12</v>
+        <v>2.450047058033896e-13</v>
       </c>
       <c r="F125" t="n">
-        <v>6.564925959651936e-12</v>
+        <v>5.224202087228236e-13</v>
       </c>
       <c r="G125" t="n">
-        <v>6.415049331653413e-12</v>
+        <v>5.104934055641605e-13</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3937268237512097</v>
+        <v>0.3937268172461223</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9829872784064952</v>
+        <v>0.9829872789323811</v>
       </c>
       <c r="J125" t="n">
-        <v>0.09843170593780241</v>
+        <v>0.09843170431153057</v>
       </c>
     </row>
     <row r="126">
@@ -4386,31 +4390,31 @@
         <v>5.0179</v>
       </c>
       <c r="B126" t="n">
-        <v>1.276767694877219e-11</v>
+        <v>1.016019449214218e-12</v>
       </c>
       <c r="C126" t="n">
-        <v>9.200517845119852e-12</v>
+        <v>7.32153947699866e-13</v>
       </c>
       <c r="D126" t="n">
-        <v>2.686562391278772e-12</v>
+        <v>2.137898436564888e-13</v>
       </c>
       <c r="E126" t="n">
-        <v>2.183303808721977e-12</v>
+        <v>1.737417965923796e-13</v>
       </c>
       <c r="F126" t="n">
-        <v>3.857256138397853e-12</v>
+        <v>3.069506904964517e-13</v>
       </c>
       <c r="G126" t="n">
-        <v>4.984685056038167e-12</v>
+        <v>3.966686331571335e-13</v>
       </c>
       <c r="H126" t="n">
-        <v>7.524174572456058</v>
+        <v>7.524174617792649</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1106480087489018</v>
+        <v>0.1106480067674023</v>
       </c>
       <c r="J126" t="n">
-        <v>1.881043643114015</v>
+        <v>1.881043654448162</v>
       </c>
     </row>
     <row r="127">
@@ -4418,31 +4422,31 @@
         <v>5.0198</v>
       </c>
       <c r="B127" t="n">
-        <v>1.099347483107731e-11</v>
+        <v>8.748329301450283e-13</v>
       </c>
       <c r="C127" t="n">
-        <v>5.81315358036293e-12</v>
+        <v>4.625960642047165e-13</v>
       </c>
       <c r="D127" t="n">
-        <v>-3.241129863272922e-12</v>
+        <v>-2.579209170623887e-13</v>
       </c>
       <c r="E127" t="n">
-        <v>2.915227210045799e-12</v>
+        <v>2.319864102301453e-13</v>
       </c>
       <c r="F127" t="n">
-        <v>4.823168495399562e-12</v>
+        <v>3.838155535941643e-13</v>
       </c>
       <c r="G127" t="n">
-        <v>5.646228505753835e-12</v>
+        <v>4.493125881483899e-13</v>
       </c>
       <c r="H127" t="n">
-        <v>1.810717691665606</v>
+        <v>1.810717686520865</v>
       </c>
       <c r="I127" t="n">
-        <v>0.7705209114566992</v>
+        <v>0.7705209123985063</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4526794229164014</v>
+        <v>0.4526794216302161</v>
       </c>
     </row>
     <row r="128">
@@ -4450,31 +4454,31 @@
         <v>5.0248</v>
       </c>
       <c r="B128" t="n">
-        <v>4.475448485420372e-12</v>
+        <v>3.5614487436135e-13</v>
       </c>
       <c r="C128" t="n">
-        <v>2.577196288172673e-12</v>
+        <v>2.050867637910019e-13</v>
       </c>
       <c r="D128" t="n">
-        <v>5.234172909118302e-12</v>
+        <v>4.165222454164061e-13</v>
       </c>
       <c r="E128" t="n">
-        <v>1.699568940161759e-12</v>
+        <v>1.352473990451126e-13</v>
       </c>
       <c r="F128" t="n">
-        <v>4.510111111450059e-12</v>
+        <v>3.589032384198559e-13</v>
       </c>
       <c r="G128" t="n">
-        <v>4.424257342150832e-12</v>
+        <v>3.520712126416702e-13</v>
       </c>
       <c r="H128" t="n">
-        <v>1.23165713149181</v>
+        <v>1.231657128749629</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8728594812830199</v>
+        <v>0.8728594817391356</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3079142828729526</v>
+        <v>0.3079142821874073</v>
       </c>
     </row>
     <row r="129">
@@ -4482,31 +4486,31 @@
         <v>5.0278</v>
       </c>
       <c r="B129" t="n">
-        <v>5.531513230289627e-12</v>
+        <v>4.401838367270185e-13</v>
       </c>
       <c r="C129" t="n">
-        <v>-4.794528935862473e-12</v>
+        <v>-3.815364902695028e-13</v>
       </c>
       <c r="D129" t="n">
-        <v>3.492028163668754e-12</v>
+        <v>2.778867722014538e-13</v>
       </c>
       <c r="E129" t="n">
-        <v>2.873604654814408e-12</v>
+        <v>2.286741926954129e-13</v>
       </c>
       <c r="F129" t="n">
-        <v>5.252855020036846e-12</v>
+        <v>4.180089208528656e-13</v>
       </c>
       <c r="G129" t="n">
-        <v>5.177737945255919e-12</v>
+        <v>4.120312941897212e-13</v>
       </c>
       <c r="H129" t="n">
-        <v>1.356269622179201</v>
+        <v>1.356269623658106</v>
       </c>
       <c r="I129" t="n">
-        <v>0.7158166108354375</v>
+        <v>0.7158166104866883</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4520898740597337</v>
+        <v>0.452089874552702</v>
       </c>
     </row>
     <row r="130">
@@ -4514,31 +4518,31 @@
         <v>5.0301</v>
       </c>
       <c r="B130" t="n">
-        <v>6.31583693331219e-12</v>
+        <v>5.025983349508067e-13</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.700489911910637e-12</v>
+        <v>-6.127855186611222e-13</v>
       </c>
       <c r="D130" t="n">
-        <v>4.090431615371105e-12</v>
+        <v>3.255062066216563e-13</v>
       </c>
       <c r="E130" t="n">
-        <v>2.916368632454698e-12</v>
+        <v>2.32077241644649e-13</v>
       </c>
       <c r="F130" t="n">
-        <v>4.954064979980755e-12</v>
+        <v>3.942319647241434e-13</v>
       </c>
       <c r="G130" t="n">
-        <v>4.188965109580933e-12</v>
+        <v>3.333472517883231e-13</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5605178503635191</v>
+        <v>0.5605178562151731</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9054083546133953</v>
+        <v>0.9054083532928037</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1868392834545064</v>
+        <v>0.1868392854050577</v>
       </c>
     </row>
     <row r="131">
@@ -4546,31 +4550,31 @@
         <v>5.0328</v>
       </c>
       <c r="B131" t="n">
-        <v>7.458364206996767e-12</v>
+        <v>5.935177656221416e-13</v>
       </c>
       <c r="C131" t="n">
-        <v>1.430865622740615e-12</v>
+        <v>1.138646687937328e-13</v>
       </c>
       <c r="D131" t="n">
-        <v>1.195157849385583e-12</v>
+        <v>9.510764089175851e-14</v>
       </c>
       <c r="E131" t="n">
-        <v>3.362420588410705e-12</v>
+        <v>2.675729284572467e-13</v>
       </c>
       <c r="F131" t="n">
-        <v>7.115688069936714e-12</v>
+        <v>5.6624846433252e-13</v>
       </c>
       <c r="G131" t="n">
-        <v>1.227899318667284e-11</v>
+        <v>9.771312303371894e-13</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4196151933736419</v>
+        <v>0.4196151961013005</v>
       </c>
       <c r="I131" t="n">
-        <v>0.810740220069208</v>
+        <v>0.8107402189634967</v>
       </c>
       <c r="J131" t="n">
-        <v>0.209807596686821</v>
+        <v>0.2098075980506502</v>
       </c>
     </row>
     <row r="132">
@@ -4578,31 +4582,31 @@
         <v>5.0359</v>
       </c>
       <c r="B132" t="n">
-        <v>5.3596858562856e-12</v>
+        <v>4.265102486277112e-13</v>
       </c>
       <c r="C132" t="n">
-        <v>3.304031087337139e-12</v>
+        <v>2.629264401633549e-13</v>
       </c>
       <c r="D132" t="n">
-        <v>-2.376650100141255e-12</v>
+        <v>-1.891278060869984e-13</v>
       </c>
       <c r="E132" t="n">
-        <v>2.151165145209437e-12</v>
+        <v>1.711842831995074e-13</v>
       </c>
       <c r="F132" t="n">
-        <v>3.116412101262592e-12</v>
+        <v>2.479961955021135e-13</v>
       </c>
       <c r="G132" t="n">
-        <v>4.397608372701643e-12</v>
+        <v>3.499505552084031e-13</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6132305498942168</v>
+        <v>0.6132305502405387</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9615821857723342</v>
+        <v>0.9615821857332607</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1533076374735542</v>
+        <v>0.1533076375601347</v>
       </c>
     </row>
     <row r="133">
@@ -4610,31 +4614,31 @@
         <v>5.0387</v>
       </c>
       <c r="B133" t="n">
-        <v>2.975272453649327e-12</v>
+        <v>2.367646590102225e-13</v>
       </c>
       <c r="C133" t="n">
-        <v>1.976861728343341e-12</v>
+        <v>1.573136588481415e-13</v>
       </c>
       <c r="D133" t="n">
-        <v>-2.910340158013167e-13</v>
+        <v>-2.315975166309451e-14</v>
       </c>
       <c r="E133" t="n">
-        <v>1.414645247370444e-12</v>
+        <v>1.125738919606186e-13</v>
       </c>
       <c r="F133" t="n">
-        <v>2.182432175069965e-12</v>
+        <v>1.736724343477117e-13</v>
       </c>
       <c r="G133" t="n">
-        <v>3.878123325979489e-12</v>
+        <v>3.086112486227724e-13</v>
       </c>
       <c r="H133" t="n">
-        <v>1.84002221454826</v>
+        <v>1.840022214365269</v>
       </c>
       <c r="I133" t="n">
-        <v>0.7651524865368842</v>
+        <v>0.7651524865704298</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4600055536370649</v>
+        <v>0.4600055535913173</v>
       </c>
     </row>
     <row r="134">
@@ -4642,31 +4646,31 @@
         <v>5.042</v>
       </c>
       <c r="B134" t="n">
-        <v>7.435985200269191e-12</v>
+        <v>5.917369010658063e-13</v>
       </c>
       <c r="C134" t="n">
-        <v>-4.959784953133158e-12</v>
+        <v>-3.946871458395733e-13</v>
       </c>
       <c r="D134" t="n">
-        <v>1.600499597843825e-12</v>
+        <v>1.273637110360728e-13</v>
       </c>
       <c r="E134" t="n">
-        <v>3.571870324603174e-12</v>
+        <v>2.842404089912457e-13</v>
       </c>
       <c r="F134" t="n">
-        <v>8.396643794466256e-12</v>
+        <v>6.681836823868946e-13</v>
       </c>
       <c r="G134" t="n">
-        <v>1.030557058721317e-11</v>
+        <v>8.200912501306254e-13</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6898078058821893</v>
+        <v>0.6898078068658733</v>
       </c>
       <c r="I134" t="n">
-        <v>0.7082884146310116</v>
+        <v>0.7082884142826456</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3449039029410946</v>
+        <v>0.3449039034329366</v>
       </c>
     </row>
     <row r="135">
@@ -4674,31 +4678,31 @@
         <v>5.0448</v>
       </c>
       <c r="B135" t="n">
-        <v>7.537468787336209e-12</v>
+        <v>5.998127086053756e-13</v>
       </c>
       <c r="C135" t="n">
-        <v>-5.682721875364782e-12</v>
+        <v>-4.522166396529279e-13</v>
       </c>
       <c r="D135" t="n">
-        <v>5.423248656277725e-12</v>
+        <v>4.315684166546219e-13</v>
       </c>
       <c r="E135" t="n">
-        <v>3.386367948573267e-12</v>
+        <v>2.694785986445049e-13</v>
       </c>
       <c r="F135" t="n">
-        <v>7.28437653255515e-12</v>
+        <v>5.796722654349143e-13</v>
       </c>
       <c r="G135" t="n">
-        <v>6.304241304454868e-12</v>
+        <v>5.016755827930779e-13</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6793493901566356</v>
+        <v>0.679349392294793</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9538509320511918</v>
+        <v>0.9538509317926361</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1698373475391589</v>
+        <v>0.1698373480736982</v>
       </c>
     </row>
     <row r="136">
@@ -4706,31 +4710,31 @@
         <v>5.05</v>
       </c>
       <c r="B136" t="n">
-        <v>4.732094822059578e-12</v>
+        <v>3.765681417723856e-13</v>
       </c>
       <c r="C136" t="n">
-        <v>-2.131535827995969e-12</v>
+        <v>-1.69622231774528e-13</v>
       </c>
       <c r="D136" t="n">
-        <v>3.369075301118642e-12</v>
+        <v>2.681024931943801e-13</v>
       </c>
       <c r="E136" t="n">
-        <v>2.283124183903315e-12</v>
+        <v>1.816852499648175e-13</v>
       </c>
       <c r="F136" t="n">
-        <v>3.676383893429832e-12</v>
+        <v>2.925573350166538e-13</v>
       </c>
       <c r="G136" t="n">
-        <v>5.557942442809894e-12</v>
+        <v>4.422870067109295e-13</v>
       </c>
       <c r="H136" t="n">
-        <v>1.617772019831417</v>
+        <v>1.617772023013663</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8055944569505482</v>
+        <v>0.805594456377361</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4044430049578542</v>
+        <v>0.4044430057534159</v>
       </c>
     </row>
     <row r="137">
@@ -4738,31 +4742,31 @@
         <v>5.0548</v>
       </c>
       <c r="B137" t="n">
-        <v>3.79474800225615e-12</v>
+        <v>3.01976451050949e-13</v>
       </c>
       <c r="C137" t="n">
-        <v>-2.270531691213465e-12</v>
+        <v>-1.806831706453539e-13</v>
       </c>
       <c r="D137" t="n">
-        <v>1.527959707888086e-12</v>
+        <v>1.215911702610464e-13</v>
       </c>
       <c r="E137" t="n">
-        <v>1.660864092157302e-12</v>
+        <v>1.321673650917346e-13</v>
       </c>
       <c r="F137" t="n">
-        <v>3.511865583761747e-12</v>
+        <v>2.794653834735421e-13</v>
       </c>
       <c r="G137" t="n">
-        <v>4.141448705856441e-12</v>
+        <v>3.295660164454685e-13</v>
       </c>
       <c r="H137" t="n">
-        <v>0.5835686598835053</v>
+        <v>0.5835686578950191</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9001834337038492</v>
+        <v>0.9001834341564948</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1945228866278351</v>
+        <v>0.1945228859650064</v>
       </c>
     </row>
     <row r="138">
@@ -4770,31 +4774,31 @@
         <v>5.0649</v>
       </c>
       <c r="B138" t="n">
-        <v>6.943855148419621e-12</v>
+        <v>5.525744350530595e-13</v>
       </c>
       <c r="C138" t="n">
-        <v>2.790703777761208e-12</v>
+        <v>2.220771495197887e-13</v>
       </c>
       <c r="D138" t="n">
-        <v>-4.608423852749672e-12</v>
+        <v>-3.667267174417412e-13</v>
       </c>
       <c r="E138" t="n">
-        <v>2.497701536315464e-12</v>
+        <v>1.98760773035547e-13</v>
       </c>
       <c r="F138" t="n">
-        <v>3.407284864541938e-12</v>
+        <v>2.711431144655481e-13</v>
       </c>
       <c r="G138" t="n">
-        <v>5.183507048017882e-12</v>
+        <v>4.124903848525129e-13</v>
       </c>
       <c r="H138" t="n">
-        <v>1.369172015208236</v>
+        <v>1.369172001221829</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8495349755408798</v>
+        <v>0.8495349779551854</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3422930038020589</v>
+        <v>0.3422930003054572</v>
       </c>
     </row>
     <row r="139">
@@ -4802,31 +4806,31 @@
         <v>5.0699</v>
       </c>
       <c r="B139" t="n">
-        <v>6.511366969013154e-12</v>
+        <v>5.181581202972845e-13</v>
       </c>
       <c r="C139" t="n">
-        <v>-4.058067912314673e-12</v>
+        <v>-3.229307841620558e-13</v>
       </c>
       <c r="D139" t="n">
-        <v>6.572071309890867e-12</v>
+        <v>5.229888156160489e-13</v>
       </c>
       <c r="E139" t="n">
-        <v>2.968944034431089e-12</v>
+        <v>2.362610595127055e-13</v>
       </c>
       <c r="F139" t="n">
-        <v>4.955681056403241e-12</v>
+        <v>3.943605684268536e-13</v>
       </c>
       <c r="G139" t="n">
-        <v>6.615877357636696e-12</v>
+        <v>5.264747920877407e-13</v>
       </c>
       <c r="H139" t="n">
-        <v>1.134264220890876</v>
+        <v>1.134264226462978</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8887983983037123</v>
+        <v>0.8887983974075824</v>
       </c>
       <c r="J139" t="n">
-        <v>0.283566055222719</v>
+        <v>0.2835660566157446</v>
       </c>
     </row>
     <row r="140">
@@ -4834,31 +4838,31 @@
         <v>5.0745</v>
       </c>
       <c r="B140" t="n">
-        <v>1.259241860133653e-11</v>
+        <v>1.002072832557452e-12</v>
       </c>
       <c r="C140" t="n">
-        <v>1.304818379671054e-11</v>
+        <v>1.038341473125241e-12</v>
       </c>
       <c r="D140" t="n">
-        <v>-7.665644155677689e-12</v>
+        <v>-6.100125801886766e-13</v>
       </c>
       <c r="E140" t="n">
-        <v>2.544511247595864e-12</v>
+        <v>2.024857714052771e-13</v>
       </c>
       <c r="F140" t="n">
-        <v>3.494513271574566e-12</v>
+        <v>2.780845303922758e-13</v>
       </c>
       <c r="G140" t="n">
-        <v>5.559497617483759e-12</v>
+        <v>4.424107634713249e-13</v>
       </c>
       <c r="H140" t="n">
-        <v>0.5527312117841948</v>
+        <v>0.5527312244447936</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9681686932367262</v>
+        <v>0.9681686919096857</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1381828029460487</v>
+        <v>0.1381828061111984</v>
       </c>
     </row>
     <row r="141">
@@ -4866,31 +4870,31 @@
         <v>5.0842</v>
       </c>
       <c r="B141" t="n">
-        <v>7.509763563752493e-12</v>
+        <v>5.976079958811205e-13</v>
       </c>
       <c r="C141" t="n">
-        <v>5.671989306872107e-12</v>
+        <v>4.513625657365957e-13</v>
       </c>
       <c r="D141" t="n">
-        <v>-2.370046151435974e-12</v>
+        <v>-1.886022829013556e-13</v>
       </c>
       <c r="E141" t="n">
-        <v>2.240577087583043e-12</v>
+        <v>1.78299459493771e-13</v>
       </c>
       <c r="F141" t="n">
-        <v>3.424979534309463e-12</v>
+        <v>2.725512114676116e-13</v>
       </c>
       <c r="G141" t="n">
-        <v>4.977542796341201e-12</v>
+        <v>3.961002703771408e-13</v>
       </c>
       <c r="H141" t="n">
-        <v>1.60921949176221</v>
+        <v>1.609219476179279</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8071341555089023</v>
+        <v>0.8071341583128304</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4023048729405526</v>
+        <v>0.4023048690448198</v>
       </c>
     </row>
     <row r="142">
@@ -4898,31 +4902,31 @@
         <v>5.09</v>
       </c>
       <c r="B142" t="n">
-        <v>5.775752202616045e-12</v>
+        <v>4.59619755811596e-13</v>
       </c>
       <c r="C142" t="n">
-        <v>9.125486526659718e-13</v>
+        <v>7.261831396629349e-14</v>
       </c>
       <c r="D142" t="n">
-        <v>7.187023091608816e-12</v>
+        <v>5.719251235075365e-13</v>
       </c>
       <c r="E142" t="n">
-        <v>2.024160761564212e-12</v>
+        <v>1.610775953286792e-13</v>
       </c>
       <c r="F142" t="n">
-        <v>4.4644605714056e-12</v>
+        <v>3.55270483875726e-13</v>
       </c>
       <c r="G142" t="n">
-        <v>4.009105327477864e-12</v>
+        <v>3.190344649506037e-13</v>
       </c>
       <c r="H142" t="n">
-        <v>0.7147379996852071</v>
+        <v>0.7147379958188166</v>
       </c>
       <c r="I142" t="n">
-        <v>0.949499065711322</v>
+        <v>0.9494990661945913</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1786844999213018</v>
+        <v>0.1786844989547041</v>
       </c>
     </row>
     <row r="143">
@@ -4930,31 +4934,31 @@
         <v>5.0937</v>
       </c>
       <c r="B143" t="n">
-        <v>4.37463104332308e-12</v>
+        <v>3.481220770727057e-13</v>
       </c>
       <c r="C143" t="n">
-        <v>-3.171524085208953e-12</v>
+        <v>-2.523818672979898e-13</v>
       </c>
       <c r="D143" t="n">
-        <v>4.653082793073956e-12</v>
+        <v>3.702805631100882e-13</v>
       </c>
       <c r="E143" t="n">
-        <v>1.960649907152418e-12</v>
+        <v>1.560235619296277e-13</v>
       </c>
       <c r="F143" t="n">
-        <v>3.983991496701886e-12</v>
+        <v>3.170359693770128e-13</v>
       </c>
       <c r="G143" t="n">
-        <v>4.395129820462096e-12</v>
+        <v>3.497533180239852e-13</v>
       </c>
       <c r="H143" t="n">
-        <v>1.13078452151286</v>
+        <v>1.130784523840224</v>
       </c>
       <c r="I143" t="n">
-        <v>0.8893576465224696</v>
+        <v>0.8893576461486712</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2826961303782151</v>
+        <v>0.282696130960056</v>
       </c>
     </row>
     <row r="144">
@@ -4962,31 +4966,31 @@
         <v>5.0968</v>
       </c>
       <c r="B144" t="n">
-        <v>3.532459575146227e-12</v>
+        <v>2.811042011168686e-13</v>
       </c>
       <c r="C144" t="n">
-        <v>-2.856680328259097e-13</v>
+        <v>-2.273273943537134e-14</v>
       </c>
       <c r="D144" t="n">
-        <v>1.060254298726996e-12</v>
+        <v>8.437235681365886e-14</v>
       </c>
       <c r="E144" t="n">
-        <v>1.406416366265701e-12</v>
+        <v>1.11919058255017e-13</v>
       </c>
       <c r="F144" t="n">
-        <v>3.237123800593039e-12</v>
+        <v>2.57602127056145e-13</v>
       </c>
       <c r="G144" t="n">
-        <v>3.772075051591913e-12</v>
+        <v>3.001721950453542e-13</v>
       </c>
       <c r="H144" t="n">
-        <v>1.678632237718014</v>
+        <v>1.678632233024761</v>
       </c>
       <c r="I144" t="n">
-        <v>0.7945953474258356</v>
+        <v>0.7945953482766978</v>
       </c>
       <c r="J144" t="n">
-        <v>0.4196580594295036</v>
+        <v>0.4196580582561902</v>
       </c>
     </row>
     <row r="145">
@@ -4994,31 +4998,31 @@
         <v>5.0989</v>
       </c>
       <c r="B145" t="n">
-        <v>6.200738801161837e-12</v>
+        <v>4.934391156927986e-13</v>
       </c>
       <c r="C145" t="n">
-        <v>8.13620289007895e-13</v>
+        <v>6.474584588145837e-14</v>
       </c>
       <c r="D145" t="n">
-        <v>2.15077128806483e-12</v>
+        <v>1.711529400246301e-13</v>
       </c>
       <c r="E145" t="n">
-        <v>3.014815027670666e-12</v>
+        <v>2.399113572032997e-13</v>
       </c>
       <c r="F145" t="n">
-        <v>8.807009058942398e-12</v>
+        <v>7.008395125505363e-13</v>
       </c>
       <c r="G145" t="n">
-        <v>1.026357574431182e-11</v>
+        <v>8.167494062018569e-13</v>
       </c>
       <c r="H145" t="n">
-        <v>1.234934269760963</v>
+        <v>1.234934277235993</v>
       </c>
       <c r="I145" t="n">
-        <v>0.7446383965092382</v>
+        <v>0.7446383947220006</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4116447565869877</v>
+        <v>0.4116447590786643</v>
       </c>
     </row>
     <row r="146">
@@ -5026,31 +5030,31 @@
         <v>5.1</v>
       </c>
       <c r="B146" t="n">
-        <v>6.443064790201135e-12</v>
+        <v>5.127228045874081e-13</v>
       </c>
       <c r="C146" t="n">
-        <v>9.786786131213064e-13</v>
+        <v>7.788076983884919e-14</v>
       </c>
       <c r="D146" t="n">
-        <v>-4.796241609394212e-12</v>
+        <v>-3.81672780378382e-13</v>
       </c>
       <c r="E146" t="n">
-        <v>2.771683516918721e-12</v>
+        <v>2.205635661094941e-13</v>
       </c>
       <c r="F146" t="n">
-        <v>3.535898168698386e-12</v>
+        <v>2.813778356924858e-13</v>
       </c>
       <c r="G146" t="n">
-        <v>6.099961412802518e-12</v>
+        <v>4.854195055405366e-13</v>
       </c>
       <c r="H146" t="n">
-        <v>1.632276595644565</v>
+        <v>1.632276600104277</v>
       </c>
       <c r="I146" t="n">
-        <v>0.802979684100857</v>
+        <v>0.802979683296227</v>
       </c>
       <c r="J146" t="n">
-        <v>0.4080691489111412</v>
+        <v>0.4080691500260693</v>
       </c>
     </row>
     <row r="147">
@@ -5058,31 +5062,31 @@
         <v>5.1004</v>
       </c>
       <c r="B147" t="n">
-        <v>6.464644368768917e-12</v>
+        <v>7.669991757702625e-13</v>
       </c>
       <c r="C147" t="n">
-        <v>4.818189450481535e-12</v>
+        <v>7.410483741853879e-13</v>
       </c>
       <c r="D147" t="n">
-        <v>1.576926406522157e-11</v>
+        <v>3.378676025349585e-13</v>
       </c>
       <c r="E147" t="n">
-        <v>2.916258466880969e-12</v>
+        <v>3.815738815475407e-13</v>
       </c>
       <c r="F147" t="n">
-        <v>9.125850579400358e-12</v>
+        <v>8.434091908217955e-13</v>
       </c>
       <c r="G147" t="n">
-        <v>1.013880294178385e-11</v>
+        <v>1.363975111736866e-12</v>
       </c>
       <c r="H147" t="n">
-        <v>1.489761064817558</v>
+        <v>0.7944904254461145</v>
       </c>
       <c r="I147" t="n">
-        <v>0.6846354795610341</v>
+        <v>0.672169180987256</v>
       </c>
       <c r="J147" t="n">
-        <v>0.4965870216058527</v>
+        <v>0.3972452127230572</v>
       </c>
     </row>
     <row r="148">
@@ -5090,31 +5094,31 @@
         <v>5.1007</v>
       </c>
       <c r="B148" t="n">
-        <v>9.626194213287936e-12</v>
+        <v>7.660281965986609e-13</v>
       </c>
       <c r="C148" t="n">
-        <v>1.676047425686249e-12</v>
+        <v>1.333756169570612e-13</v>
       </c>
       <c r="D148" t="n">
-        <v>-2.339129299078414e-12</v>
+        <v>-1.861419959681319e-13</v>
       </c>
       <c r="E148" t="n">
-        <v>4.47670570327191e-12</v>
+        <v>3.562449210258485e-13</v>
       </c>
       <c r="F148" t="n">
-        <v>6.466503225263459e-12</v>
+        <v>5.145879761992221e-13</v>
       </c>
       <c r="G148" t="n">
-        <v>9.447654192634929e-12</v>
+        <v>7.518204330565533e-13</v>
       </c>
       <c r="H148" t="n">
-        <v>0.4084786447637543</v>
+        <v>0.408478646401636</v>
       </c>
       <c r="I148" t="n">
-        <v>0.938485489600029</v>
+        <v>0.9384854892595603</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1361595482545848</v>
+        <v>0.1361595488005453</v>
       </c>
     </row>
     <row r="149">
@@ -5122,31 +5126,31 @@
         <v>5.1029</v>
       </c>
       <c r="B149" t="n">
-        <v>4.180935324238716e-12</v>
+        <v>3.32708261818663e-13</v>
       </c>
       <c r="C149" t="n">
-        <v>1.459114566641926e-12</v>
+        <v>1.16112647397308e-13</v>
       </c>
       <c r="D149" t="n">
-        <v>-7.668348973060289e-13</v>
+        <v>-6.102278221715283e-14</v>
       </c>
       <c r="E149" t="n">
-        <v>2.126962337765585e-12</v>
+        <v>1.69258284883304e-13</v>
       </c>
       <c r="F149" t="n">
-        <v>2.890865339098333e-12</v>
+        <v>2.300477540779941e-13</v>
       </c>
       <c r="G149" t="n">
-        <v>4.522930733017167e-12</v>
+        <v>3.599233915399994e-13</v>
       </c>
       <c r="H149" t="n">
-        <v>1.511825106067747</v>
+        <v>1.51182510736134</v>
       </c>
       <c r="I149" t="n">
-        <v>0.6795438036987417</v>
+        <v>0.6795438034007732</v>
       </c>
       <c r="J149" t="n">
-        <v>0.5039417020225821</v>
+        <v>0.5039417024537801</v>
       </c>
     </row>
     <row r="150">
@@ -5154,31 +5158,31 @@
         <v>5.1049</v>
       </c>
       <c r="B150" t="n">
-        <v>9.741652017683193e-12</v>
+        <v>7.752160371424959e-13</v>
       </c>
       <c r="C150" t="n">
-        <v>-3.257433123682428e-12</v>
+        <v>-2.59218291872196e-13</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.987419711671077e-12</v>
+        <v>-1.581538365944225e-13</v>
       </c>
       <c r="E150" t="n">
-        <v>4.552586306848577e-12</v>
+        <v>3.622833077062432e-13</v>
       </c>
       <c r="F150" t="n">
-        <v>6.766274854877066e-12</v>
+        <v>5.384430452872862e-13</v>
       </c>
       <c r="G150" t="n">
-        <v>7.828409292494113e-12</v>
+        <v>6.229650183816415e-13</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1647404538762278</v>
+        <v>0.1647404558635656</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9830700099463866</v>
+        <v>0.9830700096500339</v>
       </c>
       <c r="J150" t="n">
-        <v>0.05491348462540926</v>
+        <v>0.0549134852878552</v>
       </c>
     </row>
     <row r="151">
@@ -5186,31 +5190,31 @@
         <v>5.1069</v>
       </c>
       <c r="B151" t="n">
-        <v>8.692945875561339e-12</v>
+        <v>6.917626540250429e-13</v>
       </c>
       <c r="C151" t="n">
-        <v>-4.762736464484153e-12</v>
+        <v>-3.790065271753568e-13</v>
       </c>
       <c r="D151" t="n">
-        <v>2.995608516719403e-12</v>
+        <v>2.383829521978815e-13</v>
       </c>
       <c r="E151" t="n">
-        <v>4.509880244661971e-12</v>
+        <v>3.588848658018353e-13</v>
       </c>
       <c r="F151" t="n">
-        <v>9.208126181575052e-12</v>
+        <v>7.327593969688177e-13</v>
       </c>
       <c r="G151" t="n">
-        <v>1.128310495213674e-11</v>
+        <v>8.978809614306652e-13</v>
       </c>
       <c r="H151" t="n">
-        <v>0.4064514191010659</v>
+        <v>0.4064514195576411</v>
       </c>
       <c r="I151" t="n">
-        <v>0.81609402042163</v>
+        <v>0.816094020235326</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2032257095505329</v>
+        <v>0.2032257097788205</v>
       </c>
     </row>
     <row r="152">
@@ -5218,31 +5222,31 @@
         <v>5.1088</v>
       </c>
       <c r="B152" t="n">
-        <v>4.16362053896448e-12</v>
+        <v>3.313303944660063e-13</v>
       </c>
       <c r="C152" t="n">
-        <v>-4.981922661263794e-13</v>
+        <v>-3.96448797639812e-14</v>
       </c>
       <c r="D152" t="n">
-        <v>3.118450028785724e-12</v>
+        <v>2.481583721389964e-13</v>
       </c>
       <c r="E152" t="n">
-        <v>1.901414487980676e-12</v>
+        <v>1.513097573307134e-13</v>
       </c>
       <c r="F152" t="n">
-        <v>3.713049411841603e-12</v>
+        <v>2.954750833905022e-13</v>
       </c>
       <c r="G152" t="n">
-        <v>7.45448578182703e-12</v>
+        <v>5.932091299194324e-13</v>
       </c>
       <c r="H152" t="n">
-        <v>2.750382671507984</v>
+        <v>2.750382674257308</v>
       </c>
       <c r="I152" t="n">
-        <v>0.6004275230467977</v>
+        <v>0.6004275225689153</v>
       </c>
       <c r="J152" t="n">
-        <v>0.6875956678769959</v>
+        <v>0.6875956685643271</v>
       </c>
     </row>
     <row r="153">
@@ -5250,31 +5254,31 @@
         <v>5.11</v>
       </c>
       <c r="B153" t="n">
-        <v>5.676284519309632e-12</v>
+        <v>4.517043703608349e-13</v>
       </c>
       <c r="C153" t="n">
-        <v>3.229915388051551e-12</v>
+        <v>2.570284999975986e-13</v>
       </c>
       <c r="D153" t="n">
-        <v>1.056657534978084e-11</v>
+        <v>8.408613500284152e-13</v>
       </c>
       <c r="E153" t="n">
-        <v>2.939092729982202e-12</v>
+        <v>2.338855684103304e-13</v>
       </c>
       <c r="F153" t="n">
-        <v>6.264611417654678e-12</v>
+        <v>4.985219367555745e-13</v>
       </c>
       <c r="G153" t="n">
-        <v>9.238009093777621e-12</v>
+        <v>7.351374061496903e-13</v>
       </c>
       <c r="H153" t="n">
-        <v>0.9407745269607646</v>
+        <v>0.9407745219573961</v>
       </c>
       <c r="I153" t="n">
-        <v>0.8155784710948845</v>
+        <v>0.8155784723044481</v>
       </c>
       <c r="J153" t="n">
-        <v>0.3135915089869215</v>
+        <v>0.313591507319132</v>
       </c>
     </row>
     <row r="154">
@@ -5282,31 +5286,31 @@
         <v>5.1108</v>
       </c>
       <c r="B154" t="n">
-        <v>4.333443653100894e-12</v>
+        <v>3.448444892666271e-13</v>
       </c>
       <c r="C154" t="n">
-        <v>2.66946095689708e-12</v>
+        <v>2.124289531128413e-13</v>
       </c>
       <c r="D154" t="n">
-        <v>-4.678044056565957e-15</v>
+        <v>-3.722664494205058e-16</v>
       </c>
       <c r="E154" t="n">
-        <v>1.836146954502943e-12</v>
+        <v>1.461159319621538e-13</v>
       </c>
       <c r="F154" t="n">
-        <v>4.162694297648987e-12</v>
+        <v>3.312566870814671e-13</v>
       </c>
       <c r="G154" t="n">
-        <v>5.517710167042861e-12</v>
+        <v>4.39085423633893e-13</v>
       </c>
       <c r="H154" t="n">
-        <v>1.578200836511948</v>
+        <v>1.578200835442189</v>
       </c>
       <c r="I154" t="n">
-        <v>0.8127046786141701</v>
+        <v>0.8127046788058985</v>
       </c>
       <c r="J154" t="n">
-        <v>0.3945502091279871</v>
+        <v>0.3945502088605473</v>
       </c>
     </row>
     <row r="155">
@@ -5314,31 +5318,31 @@
         <v>5.1138</v>
       </c>
       <c r="B155" t="n">
-        <v>5.521428340580906e-12</v>
+        <v>4.771498996036841e-13</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.334652155385934e-12</v>
+        <v>4.07343632910592e-14</v>
       </c>
       <c r="D155" t="n">
-        <v>-4.648538110931519e-12</v>
+        <v>1.119336129843881e-13</v>
       </c>
       <c r="E155" t="n">
-        <v>2.714964152149697e-12</v>
+        <v>2.201993134793118e-13</v>
       </c>
       <c r="F155" t="n">
-        <v>5.274318751686029e-12</v>
+        <v>4.511785385448033e-13</v>
       </c>
       <c r="G155" t="n">
-        <v>6.328849303843809e-12</v>
+        <v>7.404584611841439e-13</v>
       </c>
       <c r="H155" t="n">
-        <v>1.443504369190829</v>
+        <v>0.6554633789241416</v>
       </c>
       <c r="I155" t="n">
-        <v>0.69536949181195</v>
+        <v>0.7205563266266051</v>
       </c>
       <c r="J155" t="n">
-        <v>0.4811681230636096</v>
+        <v>0.3277316894620708</v>
       </c>
     </row>
     <row r="156">
@@ -5346,31 +5350,31 @@
         <v>5.1188</v>
       </c>
       <c r="B156" t="n">
-        <v>6.750019265549192e-12</v>
+        <v>5.371494659992725e-13</v>
       </c>
       <c r="C156" t="n">
-        <v>-6.16791028141075e-12</v>
+        <v>-4.908267057050272e-13</v>
       </c>
       <c r="D156" t="n">
-        <v>8.092858672205858e-12</v>
+        <v>6.440092300481826e-13</v>
       </c>
       <c r="E156" t="n">
-        <v>3.806559176508993e-12</v>
+        <v>3.029163542836958e-13</v>
       </c>
       <c r="F156" t="n">
-        <v>6.80401605878867e-12</v>
+        <v>5.414463937078243e-13</v>
       </c>
       <c r="G156" t="n">
-        <v>6.990072445374423e-12</v>
+        <v>5.562522908036312e-13</v>
       </c>
       <c r="H156" t="n">
-        <v>0.7778352710597667</v>
+        <v>0.777835279500914</v>
       </c>
       <c r="I156" t="n">
-        <v>0.6777900935369067</v>
+        <v>0.6777900906762435</v>
       </c>
       <c r="J156" t="n">
-        <v>0.3889176355298833</v>
+        <v>0.388917639750457</v>
       </c>
     </row>
     <row r="157">
@@ -5378,31 +5382,31 @@
         <v>5.1238</v>
       </c>
       <c r="B157" t="n">
-        <v>1.192750814766202e-11</v>
+        <v>9.491609396970756e-13</v>
       </c>
       <c r="C157" t="n">
-        <v>-3.853843239875742e-12</v>
+        <v>-3.066791007131588e-13</v>
       </c>
       <c r="D157" t="n">
-        <v>4.545716062666514e-12</v>
+        <v>3.617365906544194e-13</v>
       </c>
       <c r="E157" t="n">
-        <v>4.695338702698169e-12</v>
+        <v>3.736431814574831e-13</v>
       </c>
       <c r="F157" t="n">
-        <v>9.637208589338103e-12</v>
+        <v>7.66904691626944e-13</v>
       </c>
       <c r="G157" t="n">
-        <v>9.436589053101496e-12</v>
+        <v>7.509398967966597e-13</v>
       </c>
       <c r="H157" t="n">
-        <v>0.192867378605365</v>
+        <v>0.1928673777973781</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9956386612536314</v>
+        <v>0.9956386612890085</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04821684465134125</v>
+        <v>0.04821684444934451</v>
       </c>
     </row>
     <row r="158">
@@ -5410,31 +5414,31 @@
         <v>5.1285</v>
       </c>
       <c r="B158" t="n">
-        <v>5.660862524941578e-12</v>
+        <v>4.504771266294523e-13</v>
       </c>
       <c r="C158" t="n">
-        <v>2.242410889806966e-14</v>
+        <v>1.784455063611426e-15</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.114380173978053e-12</v>
+        <v>-8.86795564681258e-14</v>
       </c>
       <c r="E158" t="n">
-        <v>2.330343189697794e-12</v>
+        <v>1.854428189456349e-13</v>
       </c>
       <c r="F158" t="n">
-        <v>4.496856244014944e-12</v>
+        <v>3.57848449733984e-13</v>
       </c>
       <c r="G158" t="n">
-        <v>6.38614622410229e-12</v>
+        <v>5.081933697821253e-13</v>
       </c>
       <c r="H158" t="n">
-        <v>2.142733573446689</v>
+        <v>2.142733568242967</v>
       </c>
       <c r="I158" t="n">
-        <v>0.709526016767811</v>
+        <v>0.7095260177226574</v>
       </c>
       <c r="J158" t="n">
-        <v>0.5356833933616721</v>
+        <v>0.5356833920607418</v>
       </c>
     </row>
     <row r="159">
@@ -5442,31 +5446,31 @@
         <v>5.1299</v>
       </c>
       <c r="B159" t="n">
-        <v>6.59400948217526e-12</v>
+        <v>5.247346011064459e-13</v>
       </c>
       <c r="C159" t="n">
-        <v>6.704295853770393e-12</v>
+        <v>5.335109124773797e-13</v>
       </c>
       <c r="D159" t="n">
-        <v>-4.811390196552765e-12</v>
+        <v>-3.828782657842926e-13</v>
       </c>
       <c r="E159" t="n">
-        <v>2.953274937702407e-12</v>
+        <v>2.35014152407666e-13</v>
       </c>
       <c r="F159" t="n">
-        <v>3.579816776421218e-12</v>
+        <v>2.848727678712439e-13</v>
       </c>
       <c r="G159" t="n">
-        <v>6.342835238184203e-12</v>
+        <v>5.047467906704698e-13</v>
       </c>
       <c r="H159" t="n">
-        <v>1.352896756237147</v>
+        <v>1.352896754094646</v>
       </c>
       <c r="I159" t="n">
-        <v>0.8523390518540117</v>
+        <v>0.8523390522224356</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3382241890592866</v>
+        <v>0.3382241885236615</v>
       </c>
     </row>
     <row r="160">
@@ -5474,31 +5478,31 @@
         <v>5.1338</v>
       </c>
       <c r="B160" t="n">
-        <v>7.496037717317463e-12</v>
+        <v>5.965157272655167e-13</v>
       </c>
       <c r="C160" t="n">
-        <v>5.584760615360971e-12</v>
+        <v>4.444211293863138e-13</v>
       </c>
       <c r="D160" t="n">
-        <v>7.915940404544139e-13</v>
+        <v>6.299305180872912e-14</v>
       </c>
       <c r="E160" t="n">
-        <v>2.956615481522647e-12</v>
+        <v>2.352799841024731e-13</v>
       </c>
       <c r="F160" t="n">
-        <v>5.75025635905106e-12</v>
+        <v>4.575908617021481e-13</v>
       </c>
       <c r="G160" t="n">
-        <v>7.99450415369089e-12</v>
+        <v>6.361824264488219e-13</v>
       </c>
       <c r="H160" t="n">
-        <v>0.7794700778243714</v>
+        <v>0.7794700708895098</v>
       </c>
       <c r="I160" t="n">
-        <v>0.9411790046048322</v>
+        <v>0.9411790055200353</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1948675194560928</v>
+        <v>0.1948675177223775</v>
       </c>
     </row>
     <row r="161">
@@ -5506,31 +5510,31 @@
         <v>5.1389</v>
       </c>
       <c r="B161" t="n">
-        <v>8.008049730493686e-12</v>
+        <v>6.372603497018109e-13</v>
       </c>
       <c r="C161" t="n">
-        <v>2.217008559859175e-12</v>
+        <v>1.764239353457823e-13</v>
       </c>
       <c r="D161" t="n">
-        <v>2.160375640642142e-12</v>
+        <v>1.719172305681748e-13</v>
       </c>
       <c r="E161" t="n">
-        <v>3.019241561367504e-12</v>
+        <v>2.402636093574725e-13</v>
       </c>
       <c r="F161" t="n">
-        <v>5.567289245535334e-12</v>
+        <v>4.430308014843989e-13</v>
       </c>
       <c r="G161" t="n">
-        <v>6.785247046696195e-12</v>
+        <v>5.399528035396869e-13</v>
       </c>
       <c r="H161" t="n">
-        <v>0.3246129962911678</v>
+        <v>0.3246129967390136</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9881704195071136</v>
+        <v>0.9881704194762145</v>
       </c>
       <c r="J161" t="n">
-        <v>0.08115324907279195</v>
+        <v>0.08115324918475339</v>
       </c>
     </row>
     <row r="162">
@@ -5538,31 +5542,31 @@
         <v>5.1417</v>
       </c>
       <c r="B162" t="n">
-        <v>8.667717254231788e-12</v>
+        <v>6.897550227148236e-13</v>
       </c>
       <c r="C162" t="n">
-        <v>4.006919414259446e-12</v>
+        <v>3.188605147022988e-13</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.555170904538435e-12</v>
+        <v>-1.237565685204035e-13</v>
       </c>
       <c r="E162" t="n">
-        <v>3.349300884549495e-12</v>
+        <v>2.665288958290716e-13</v>
       </c>
       <c r="F162" t="n">
-        <v>5.984482633172995e-12</v>
+        <v>4.762299967101077e-13</v>
       </c>
       <c r="G162" t="n">
-        <v>7.105433514655249e-12</v>
+        <v>5.654324333940425e-13</v>
       </c>
       <c r="H162" t="n">
-        <v>0.6600088578421732</v>
+        <v>0.6600088492651104</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9561675147210984</v>
+        <v>0.9561675157385394</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1650022144605433</v>
+        <v>0.1650022123162776</v>
       </c>
     </row>
     <row r="163">
@@ -5570,31 +5574,31 @@
         <v>5.1447</v>
       </c>
       <c r="B163" t="n">
-        <v>1.094482959188551e-11</v>
+        <v>8.709618666003296e-13</v>
       </c>
       <c r="C163" t="n">
-        <v>3.190669517609279e-12</v>
+        <v>2.539054135301307e-13</v>
       </c>
       <c r="D163" t="n">
-        <v>-4.919961994782095e-12</v>
+        <v>-3.915181365548719e-13</v>
       </c>
       <c r="E163" t="n">
-        <v>4.501562295003503e-12</v>
+        <v>3.582229458240832e-13</v>
       </c>
       <c r="F163" t="n">
-        <v>6.945309956650287e-12</v>
+        <v>5.526902061131702e-13</v>
       </c>
       <c r="G163" t="n">
-        <v>9.512002853493582e-12</v>
+        <v>7.569411371248313e-13</v>
       </c>
       <c r="H163" t="n">
-        <v>0.2321342697173744</v>
+        <v>0.2321342746194535</v>
       </c>
       <c r="I163" t="n">
-        <v>0.993763412722438</v>
+        <v>0.993763412469128</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05803356742934361</v>
+        <v>0.05803356865486337</v>
       </c>
     </row>
     <row r="164">
@@ -5602,31 +5606,31 @@
         <v>5.148</v>
       </c>
       <c r="B164" t="n">
-        <v>1.314426995173432e-11</v>
+        <v>1.045987767821071e-12</v>
       </c>
       <c r="C164" t="n">
-        <v>1.148968860704519e-12</v>
+        <v>9.143203941103284e-14</v>
       </c>
       <c r="D164" t="n">
-        <v>3.68945651585699e-12</v>
+        <v>2.935976251917877e-13</v>
       </c>
       <c r="E164" t="n">
-        <v>4.883819847267356e-12</v>
+        <v>3.886420356016137e-13</v>
       </c>
       <c r="F164" t="n">
-        <v>9.483444983988934e-12</v>
+        <v>7.546685742903771e-13</v>
       </c>
       <c r="G164" t="n">
-        <v>1.289623142921738e-11</v>
+        <v>1.026249491167841e-12</v>
       </c>
       <c r="H164" t="n">
-        <v>0.2685188499637215</v>
+        <v>0.2685188494081299</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9917547044495268</v>
+        <v>0.9917547044821378</v>
       </c>
       <c r="J164" t="n">
-        <v>0.06712971249093037</v>
+        <v>0.06712971235203248</v>
       </c>
     </row>
     <row r="165">
@@ -5634,31 +5638,31 @@
         <v>5.15</v>
       </c>
       <c r="B165" t="n">
-        <v>1.370291906111041e-11</v>
+        <v>1.090443651746488e-12</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.8733978883827e-12</v>
+        <v>-1.490802626107081e-13</v>
       </c>
       <c r="D165" t="n">
-        <v>-9.099651460756363e-12</v>
+        <v>-7.241272608550666e-13</v>
       </c>
       <c r="E165" t="n">
-        <v>5.846780635988541e-12</v>
+        <v>4.652720196973077e-13</v>
       </c>
       <c r="F165" t="n">
-        <v>8.942468993749695e-12</v>
+        <v>7.116190708414018e-13</v>
       </c>
       <c r="G165" t="n">
-        <v>1.404593419572073e-11</v>
+        <v>1.117739928532272e-12</v>
       </c>
       <c r="H165" t="n">
-        <v>1.254787083630162</v>
+        <v>1.254787080698269</v>
       </c>
       <c r="I165" t="n">
-        <v>0.8689985164163094</v>
+        <v>0.8689985169074261</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3136967709075406</v>
+        <v>0.3136967701745673</v>
       </c>
     </row>
     <row r="166">
@@ -5666,31 +5670,31 @@
         <v>5.151</v>
       </c>
       <c r="B166" t="n">
-        <v>6.987286630636507e-12</v>
+        <v>5.560306025250625e-13</v>
       </c>
       <c r="C166" t="n">
-        <v>7.317338251332797e-12</v>
+        <v>5.822952774591359e-13</v>
       </c>
       <c r="D166" t="n">
-        <v>3.532060666849768e-12</v>
+        <v>2.810724586527837e-13</v>
       </c>
       <c r="E166" t="n">
-        <v>2.754014455477128e-12</v>
+        <v>2.191575072244606e-13</v>
       </c>
       <c r="F166" t="n">
-        <v>4.477584666161834e-12</v>
+        <v>3.563148666147716e-13</v>
       </c>
       <c r="G166" t="n">
-        <v>6.72344157207813e-12</v>
+        <v>5.350344808494683e-13</v>
       </c>
       <c r="H166" t="n">
-        <v>2.369346456800721</v>
+        <v>2.369346453583626</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6681737975873954</v>
+        <v>0.6681737981702167</v>
       </c>
       <c r="J166" t="n">
-        <v>0.5923366142001801</v>
+        <v>0.5923366133959066</v>
       </c>
     </row>
     <row r="167">
@@ -5698,31 +5702,31 @@
         <v>5.157</v>
       </c>
       <c r="B167" t="n">
-        <v>1.276812590742266e-11</v>
+        <v>1.016055176426798e-12</v>
       </c>
       <c r="C167" t="n">
-        <v>1.200797646900897e-11</v>
+        <v>9.555644065103153e-13</v>
       </c>
       <c r="D167" t="n">
-        <v>-6.88053537213534e-12</v>
+        <v>-5.475356070753869e-13</v>
       </c>
       <c r="E167" t="n">
-        <v>3.837200941230386e-12</v>
+        <v>3.053547490857803e-13</v>
       </c>
       <c r="F167" t="n">
-        <v>4.802451311104936e-12</v>
+        <v>3.821669325702179e-13</v>
       </c>
       <c r="G167" t="n">
-        <v>8.408539536654257e-12</v>
+        <v>6.691303162852134e-13</v>
       </c>
       <c r="H167" t="n">
-        <v>3.188820051202891</v>
+        <v>3.188820065717095</v>
       </c>
       <c r="I167" t="n">
-        <v>0.5267385912577394</v>
+        <v>0.5267385889085405</v>
       </c>
       <c r="J167" t="n">
-        <v>0.7972050128007229</v>
+        <v>0.7972050164292737</v>
       </c>
     </row>
     <row r="168">
@@ -5730,31 +5734,31 @@
         <v>5.1594</v>
       </c>
       <c r="B168" t="n">
-        <v>1.555880493214392e-11</v>
+        <v>1.238130354101473e-12</v>
       </c>
       <c r="C168" t="n">
-        <v>3.270829058581704e-12</v>
+        <v>2.602843087471339e-13</v>
       </c>
       <c r="D168" t="n">
-        <v>3.162905531354571e-12</v>
+        <v>2.516960264559792e-13</v>
       </c>
       <c r="E168" t="n">
-        <v>3.347167356677808e-12</v>
+        <v>2.66359115191006e-13</v>
       </c>
       <c r="F168" t="n">
-        <v>6.398277701822152e-12</v>
+        <v>5.091587620194509e-13</v>
       </c>
       <c r="G168" t="n">
-        <v>8.202879213865944e-12</v>
+        <v>6.527643874962642e-13</v>
       </c>
       <c r="H168" t="n">
-        <v>0.4988151612580792</v>
+        <v>0.4988151611000615</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9736162204613409</v>
+        <v>0.9736162204766965</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1247037903145198</v>
+        <v>0.1247037902750154</v>
       </c>
     </row>
     <row r="169">
@@ -5762,31 +5766,31 @@
         <v>5.17</v>
       </c>
       <c r="B169" t="n">
-        <v>1.5834221406441e-11</v>
+        <v>1.260047302817536e-12</v>
       </c>
       <c r="C169" t="n">
-        <v>7.876723427611794e-12</v>
+        <v>6.268097366280529e-13</v>
       </c>
       <c r="D169" t="n">
-        <v>2.999595974712806e-12</v>
+        <v>2.387002636778498e-13</v>
       </c>
       <c r="E169" t="n">
-        <v>4.470160804407958e-12</v>
+        <v>3.557240943888073e-13</v>
       </c>
       <c r="F169" t="n">
-        <v>8.143888438959436e-12</v>
+        <v>6.480700509380016e-13</v>
       </c>
       <c r="G169" t="n">
-        <v>1.011045114582683e-11</v>
+        <v>8.04564138629526e-13</v>
       </c>
       <c r="H169" t="n">
-        <v>0.8284701163974825</v>
+        <v>0.8284701237657622</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9345910096824742</v>
+        <v>0.9345910086739578</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2071175290993706</v>
+        <v>0.2071175309414406</v>
       </c>
     </row>
     <row r="170">
@@ -5794,31 +5798,31 @@
         <v>5.1898</v>
       </c>
       <c r="B170" t="n">
-        <v>1.717152606741688e-11</v>
+        <v>1.366466627497713e-12</v>
       </c>
       <c r="C170" t="n">
-        <v>3.273367677410429e-12</v>
+        <v>2.604863249760317e-13</v>
       </c>
       <c r="D170" t="n">
-        <v>-3.274751218182685e-12</v>
+        <v>-2.605964200210071e-13</v>
       </c>
       <c r="E170" t="n">
-        <v>3.1279643173935e-12</v>
+        <v>2.489154914514397e-13</v>
       </c>
       <c r="F170" t="n">
-        <v>6.052349302319109e-12</v>
+        <v>4.816306545460445e-13</v>
       </c>
       <c r="G170" t="n">
-        <v>6.719216652570609e-12</v>
+        <v>5.346982719824988e-13</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6064369614015119</v>
+        <v>0.606436969945518</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9623457152827573</v>
+        <v>0.9623457143262217</v>
       </c>
       <c r="J170" t="n">
-        <v>0.151609240350378</v>
+        <v>0.1516092424863795</v>
       </c>
     </row>
     <row r="171">
@@ -5826,31 +5830,31 @@
         <v>5.21</v>
       </c>
       <c r="B171" t="n">
-        <v>1.670105629673596e-11</v>
+        <v>1.329027835708618e-12</v>
       </c>
       <c r="C171" t="n">
-        <v>3.65803704812301e-12</v>
+        <v>2.910973377348188e-13</v>
       </c>
       <c r="D171" t="n">
-        <v>7.63251578663065e-12</v>
+        <v>6.073763094806798e-13</v>
       </c>
       <c r="E171" t="n">
-        <v>3.808339284803009e-12</v>
+        <v>3.030580108874619e-13</v>
       </c>
       <c r="F171" t="n">
-        <v>7.099013782821146e-12</v>
+        <v>5.649215670029316e-13</v>
       </c>
       <c r="G171" t="n">
-        <v>8.564839903532794e-12</v>
+        <v>6.815683031594633e-13</v>
       </c>
       <c r="H171" t="n">
-        <v>2.123779910302878</v>
+        <v>2.123779922775666</v>
       </c>
       <c r="I171" t="n">
-        <v>0.7130049336713751</v>
+        <v>0.7130049313813507</v>
       </c>
       <c r="J171" t="n">
-        <v>0.5309449775757195</v>
+        <v>0.5309449806939164</v>
       </c>
     </row>
     <row r="172">
@@ -5858,31 +5862,31 @@
         <v>5.23</v>
       </c>
       <c r="B172" t="n">
-        <v>1.01794408580687e-11</v>
+        <v>8.100541654905672e-13</v>
       </c>
       <c r="C172" t="n">
-        <v>9.733935348642143e-12</v>
+        <v>7.746019638287864e-13</v>
       </c>
       <c r="D172" t="n">
-        <v>1.448863985904224e-12</v>
+        <v>1.152969324219148e-13</v>
       </c>
       <c r="E172" t="n">
-        <v>3.857172473548332e-12</v>
+        <v>3.069440328821258e-13</v>
       </c>
       <c r="F172" t="n">
-        <v>6.927037733289893e-12</v>
+        <v>5.512361485535166e-13</v>
       </c>
       <c r="G172" t="n">
-        <v>1.003039073992916e-11</v>
+        <v>7.981931334553894e-13</v>
       </c>
       <c r="H172" t="n">
-        <v>0.4386783369849538</v>
+        <v>0.4386783365188513</v>
       </c>
       <c r="I172" t="n">
-        <v>0.9791894693022097</v>
+        <v>0.9791894693432595</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1096695842462385</v>
+        <v>0.1096695841297128</v>
       </c>
     </row>
     <row r="173">
@@ -5890,31 +5894,31 @@
         <v>5.2395</v>
       </c>
       <c r="B173" t="n">
-        <v>1.050707749613684e-11</v>
+        <v>8.36126661765353e-13</v>
       </c>
       <c r="C173" t="n">
-        <v>1.031953290588505e-11</v>
+        <v>8.212023388629252e-13</v>
       </c>
       <c r="D173" t="n">
-        <v>4.406645556214574e-12</v>
+        <v>3.506697083002921e-13</v>
       </c>
       <c r="E173" t="n">
-        <v>2.986148322186895e-12</v>
+        <v>2.376301330585766e-13</v>
       </c>
       <c r="F173" t="n">
-        <v>5.828578422359563e-12</v>
+        <v>4.638235336031092e-13</v>
       </c>
       <c r="G173" t="n">
-        <v>7.033993603981197e-12</v>
+        <v>5.597474255651974e-13</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6119679355700572</v>
+        <v>0.6119679340250006</v>
       </c>
       <c r="I173" t="n">
-        <v>0.9617245375520146</v>
+        <v>0.9617245377260853</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1529919838925143</v>
+        <v>0.1529919835062502</v>
       </c>
     </row>
     <row r="174">
@@ -5922,31 +5926,31 @@
         <v>5.2431</v>
       </c>
       <c r="B174" t="n">
-        <v>9.475860303189843e-12</v>
+        <v>7.540650024995294e-13</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.127567179955058e-12</v>
+        <v>-5.671937732835834e-13</v>
       </c>
       <c r="D174" t="n">
-        <v>1.338887040883689e-13</v>
+        <v>1.065452430980376e-14</v>
       </c>
       <c r="E174" t="n">
-        <v>4.012462353764621e-12</v>
+        <v>3.193016081885039e-13</v>
       </c>
       <c r="F174" t="n">
-        <v>7.748813182220349e-12</v>
+        <v>6.166309588600041e-13</v>
       </c>
       <c r="G174" t="n">
-        <v>8.163043887110849e-12</v>
+        <v>6.495943918407256e-13</v>
       </c>
       <c r="H174" t="n">
-        <v>2.161984025439598</v>
+        <v>2.161984029078431</v>
       </c>
       <c r="I174" t="n">
-        <v>0.7059948730324639</v>
+        <v>0.7059948723652183</v>
       </c>
       <c r="J174" t="n">
-        <v>0.5404960063598996</v>
+        <v>0.5404960072696078</v>
       </c>
     </row>
     <row r="175">
@@ -5954,31 +5958,31 @@
         <v>5.2501</v>
       </c>
       <c r="B175" t="n">
-        <v>8.662037937292886e-12</v>
+        <v>6.893030770975534e-13</v>
       </c>
       <c r="C175" t="n">
-        <v>2.321983913252866e-12</v>
+        <v>1.847776092913522e-13</v>
       </c>
       <c r="D175" t="n">
-        <v>-3.681923255576772e-12</v>
+        <v>-2.92998141389009e-13</v>
       </c>
       <c r="E175" t="n">
-        <v>3.833684729644691e-12</v>
+        <v>3.050749375258443e-13</v>
       </c>
       <c r="F175" t="n">
-        <v>5.975643384243032e-12</v>
+        <v>4.755265913041233e-13</v>
       </c>
       <c r="G175" t="n">
-        <v>9.233302813824125e-12</v>
+        <v>7.347628919984429e-13</v>
       </c>
       <c r="H175" t="n">
-        <v>1.200168534350251</v>
+        <v>1.200168538328723</v>
       </c>
       <c r="I175" t="n">
-        <v>0.8780708688873515</v>
+        <v>0.8780708682322853</v>
       </c>
       <c r="J175" t="n">
-        <v>0.3000421335875628</v>
+        <v>0.3000421345821807</v>
       </c>
     </row>
     <row r="176">
@@ -5986,31 +5990,31 @@
         <v>5.2599</v>
       </c>
       <c r="B176" t="n">
-        <v>6.212710264440432e-12</v>
+        <v>4.943917744046296e-13</v>
       </c>
       <c r="C176" t="n">
-        <v>4.277859112497386e-12</v>
+        <v>3.404212109185836e-13</v>
       </c>
       <c r="D176" t="n">
-        <v>2.677354170861287e-12</v>
+        <v>2.130570763094953e-13</v>
       </c>
       <c r="E176" t="n">
-        <v>2.411938807783654e-12</v>
+        <v>1.919359919170799e-13</v>
       </c>
       <c r="F176" t="n">
-        <v>5.248338398850869e-12</v>
+        <v>4.176494995863612e-13</v>
       </c>
       <c r="G176" t="n">
-        <v>8.105220081421986e-12</v>
+        <v>6.449929201329629e-13</v>
       </c>
       <c r="H176" t="n">
-        <v>1.197106827368842</v>
+        <v>1.197106837200959</v>
       </c>
       <c r="I176" t="n">
-        <v>0.8785747297141607</v>
+        <v>0.8785747280969318</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2992767068422105</v>
+        <v>0.2992767093002396</v>
       </c>
     </row>
     <row r="177">
@@ -6018,31 +6022,31 @@
         <v>5.265</v>
       </c>
       <c r="B177" t="n">
-        <v>1.636134839133242e-11</v>
+        <v>1.301994735262014e-12</v>
       </c>
       <c r="C177" t="n">
-        <v>-9.86681877992499e-12</v>
+        <v>-7.851764878533017e-13</v>
       </c>
       <c r="D177" t="n">
-        <v>3.781256978829715e-12</v>
+        <v>3.009028692587996e-13</v>
       </c>
       <c r="E177" t="n">
-        <v>7.192617024471799e-12</v>
+        <v>5.723702755773638e-13</v>
       </c>
       <c r="F177" t="n">
-        <v>1.16046288373679e-11</v>
+        <v>9.234670187747019e-13</v>
       </c>
       <c r="G177" t="n">
-        <v>1.269976560847204e-11</v>
+        <v>1.010615235800616e-12</v>
       </c>
       <c r="H177" t="n">
-        <v>0.7487750382748493</v>
+        <v>0.7487750450405701</v>
       </c>
       <c r="I177" t="n">
-        <v>0.9451805345484391</v>
+        <v>0.9451805336774534</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1871937595687123</v>
+        <v>0.1871937612601425</v>
       </c>
     </row>
     <row r="178">
@@ -6050,31 +6054,31 @@
         <v>5.27</v>
       </c>
       <c r="B178" t="n">
-        <v>1.493629741777486e-11</v>
+        <v>1.188592782970813e-12</v>
       </c>
       <c r="C178" t="n">
-        <v>-6.913707384995466e-12</v>
+        <v>-5.501753511056848e-13</v>
       </c>
       <c r="D178" t="n">
-        <v>1.283402837365379e-11</v>
+        <v>1.021299529177986e-12</v>
       </c>
       <c r="E178" t="n">
-        <v>6.237839656667944e-12</v>
+        <v>4.963915075106244e-13</v>
       </c>
       <c r="F178" t="n">
-        <v>1.419003891679125e-11</v>
+        <v>1.129207417092982e-12</v>
       </c>
       <c r="G178" t="n">
-        <v>1.747820844040358e-11</v>
+        <v>1.390871633231733e-12</v>
       </c>
       <c r="H178" t="n">
-        <v>0.7659490358858081</v>
+        <v>0.7659490345491263</v>
       </c>
       <c r="I178" t="n">
-        <v>0.8575930148211293</v>
+        <v>0.8575930151393396</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2553163452952694</v>
+        <v>0.2553163448497088</v>
       </c>
     </row>
     <row r="179">
@@ -6082,31 +6086,31 @@
         <v>5.275</v>
       </c>
       <c r="B179" t="n">
-        <v>8.226252141973093e-12</v>
+        <v>6.546243453038152e-13</v>
       </c>
       <c r="C179" t="n">
-        <v>7.052933208221955e-13</v>
+        <v>5.612545903152371e-14</v>
       </c>
       <c r="D179" t="n">
-        <v>-4.57980506188693e-12</v>
+        <v>-3.644493063045759e-13</v>
       </c>
       <c r="E179" t="n">
-        <v>2.419522764190449e-12</v>
+        <v>1.925395038881471e-13</v>
       </c>
       <c r="F179" t="n">
-        <v>3.581572832205048e-12</v>
+        <v>2.850125100864615e-13</v>
       </c>
       <c r="G179" t="n">
-        <v>5.720188413857085e-12</v>
+        <v>4.551981306076829e-13</v>
       </c>
       <c r="H179" t="n">
-        <v>2.696874469842805</v>
+        <v>2.696874457084876</v>
       </c>
       <c r="I179" t="n">
-        <v>0.9876858315015732</v>
+        <v>0.987685831729735</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2696874469842805</v>
+        <v>0.2696874457084876</v>
       </c>
     </row>
     <row r="180">
@@ -6114,31 +6118,31 @@
         <v>5.2798</v>
       </c>
       <c r="B180" t="n">
-        <v>1.215639106130908e-11</v>
+        <v>9.673748635854043e-13</v>
       </c>
       <c r="C180" t="n">
-        <v>1.619391363372767e-11</v>
+        <v>1.288670702892856e-12</v>
       </c>
       <c r="D180" t="n">
-        <v>2.19393105800782e-11</v>
+        <v>1.74587486247556e-12</v>
       </c>
       <c r="E180" t="n">
-        <v>5.172016161149986e-12</v>
+        <v>4.115759694487226e-13</v>
       </c>
       <c r="F180" t="n">
-        <v>1.755564450786295e-11</v>
+        <v>1.397033802942644e-12</v>
       </c>
       <c r="G180" t="n">
-        <v>1.430888466211242e-11</v>
+        <v>1.138664863150807e-12</v>
       </c>
       <c r="H180" t="n">
-        <v>1.087753202526182</v>
+        <v>1.087753198424545</v>
       </c>
       <c r="I180" t="n">
-        <v>0.7800313016963083</v>
+        <v>0.7800313026869803</v>
       </c>
       <c r="J180" t="n">
-        <v>0.3625844008420608</v>
+        <v>0.3625843994748483</v>
       </c>
     </row>
     <row r="181">
@@ -6146,31 +6150,31 @@
         <v>5.285</v>
       </c>
       <c r="B181" t="n">
-        <v>2.869039168537075e-12</v>
+        <v>8.482020843634483e-13</v>
       </c>
       <c r="C181" t="n">
-        <v>5.924391679672288e-12</v>
+        <v>-8.368155457295151e-13</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.712241688982463e-12</v>
+        <v>7.172769009690588e-13</v>
       </c>
       <c r="E181" t="n">
-        <v>1.470281618945904e-12</v>
+        <v>8.012936892193268e-13</v>
       </c>
       <c r="F181" t="n">
-        <v>3.327160098258415e-12</v>
+        <v>1.69380540946461e-12</v>
       </c>
       <c r="G181" t="n">
-        <v>5.345601858314561e-12</v>
+        <v>1.171447724848077e-12</v>
       </c>
       <c r="H181" t="n">
-        <v>2.368721511966768</v>
+        <v>1.757206643964193</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4994836598018041</v>
+        <v>0.4153626346054218</v>
       </c>
       <c r="J181" t="n">
-        <v>0.7895738373222562</v>
+        <v>0.8786033219820967</v>
       </c>
     </row>
     <row r="182">
@@ -6178,31 +6182,31 @@
         <v>5.2902</v>
       </c>
       <c r="B182" t="n">
-        <v>4.247087829496558e-12</v>
+        <v>1.170221558996092e-12</v>
       </c>
       <c r="C182" t="n">
-        <v>8.12287100575899e-13</v>
+        <v>-5.897042839084801e-13</v>
       </c>
       <c r="D182" t="n">
-        <v>1.181518058528178e-11</v>
+        <v>3.470633006037855e-13</v>
       </c>
       <c r="E182" t="n">
-        <v>2.310497694544001e-12</v>
+        <v>5.610541473721837e-13</v>
       </c>
       <c r="F182" t="n">
-        <v>9.916183384435873e-12</v>
+        <v>8.923992345754735e-13</v>
       </c>
       <c r="G182" t="n">
-        <v>1.094240437802393e-11</v>
+        <v>9.491917276241211e-13</v>
       </c>
       <c r="H182" t="n">
-        <v>2.625237564310988</v>
+        <v>0.1601209279688783</v>
       </c>
       <c r="I182" t="n">
-        <v>0.6223589716888673</v>
+        <v>0.9837548125311845</v>
       </c>
       <c r="J182" t="n">
-        <v>0.6563093910777469</v>
+        <v>0.05337364265629277</v>
       </c>
     </row>
     <row r="183">
@@ -6210,31 +6214,31 @@
         <v>5.2929</v>
       </c>
       <c r="B183" t="n">
-        <v>4.072080546541836e-12</v>
+        <v>3.240458741379049e-13</v>
       </c>
       <c r="C183" t="n">
-        <v>7.236057840093475e-14</v>
+        <v>5.758272250748641e-15</v>
       </c>
       <c r="D183" t="n">
-        <v>-4.755586275107691e-13</v>
+        <v>-3.784375386522443e-14</v>
       </c>
       <c r="E183" t="n">
-        <v>1.804585900788075e-12</v>
+        <v>1.436043832938372e-13</v>
       </c>
       <c r="F183" t="n">
-        <v>3.275719575284244e-12</v>
+        <v>2.606734814584567e-13</v>
       </c>
       <c r="G183" t="n">
-        <v>3.678688390956819e-12</v>
+        <v>2.92740720923246e-13</v>
       </c>
       <c r="H183" t="n">
-        <v>2.529600635169441</v>
+        <v>2.529600629471945</v>
       </c>
       <c r="I183" t="n">
-        <v>0.6393433004029218</v>
+        <v>0.6393433014200606</v>
       </c>
       <c r="J183" t="n">
-        <v>0.6324001587923602</v>
+        <v>0.6324001573679862</v>
       </c>
     </row>
     <row r="184">
@@ -6242,31 +6246,31 @@
         <v>5.2977</v>
       </c>
       <c r="B184" t="n">
-        <v>4.928277735818688e-12</v>
+        <v>3.751277849987955e-13</v>
       </c>
       <c r="C184" t="n">
-        <v>-4.805169235840195e-12</v>
+        <v>-3.629866740954177e-13</v>
       </c>
       <c r="D184" t="n">
-        <v>1.061803844416492e-12</v>
+        <v>3.175242147127634e-13</v>
       </c>
       <c r="E184" t="n">
-        <v>2.412157379636969e-12</v>
+        <v>1.960821058557944e-13</v>
       </c>
       <c r="F184" t="n">
-        <v>3.959570884221931e-12</v>
+        <v>3.183650100951009e-13</v>
       </c>
       <c r="G184" t="n">
-        <v>2.57918207143553e-12</v>
+        <v>5.842235921814495e-13</v>
       </c>
       <c r="H184" t="n">
-        <v>2.143295648546325</v>
+        <v>1.961798998553444</v>
       </c>
       <c r="I184" t="n">
-        <v>0.7094228808885227</v>
+        <v>0.580373202040559</v>
       </c>
       <c r="J184" t="n">
-        <v>0.5358239121365812</v>
+        <v>0.6539329995178147</v>
       </c>
     </row>
     <row r="185">
@@ -6274,31 +6278,31 @@
         <v>5.2997</v>
       </c>
       <c r="B185" t="n">
-        <v>1.2800086070417e-11</v>
+        <v>1.018598484737269e-12</v>
       </c>
       <c r="C185" t="n">
-        <v>1.215719259177825e-11</v>
+        <v>9.674386478985759e-13</v>
       </c>
       <c r="D185" t="n">
-        <v>-3.797138679425015e-12</v>
+        <v>-3.021666956115676e-13</v>
       </c>
       <c r="E185" t="n">
-        <v>6.259777512753969e-12</v>
+        <v>4.981372658049773e-13</v>
       </c>
       <c r="F185" t="n">
-        <v>1.26281781587972e-11</v>
+        <v>1.004918485531563e-12</v>
       </c>
       <c r="G185" t="n">
-        <v>1.896941722733847e-11</v>
+        <v>1.509538258030631e-12</v>
       </c>
       <c r="H185" t="n">
-        <v>0.588000883938561</v>
+        <v>0.5880008828832246</v>
       </c>
       <c r="I185" t="n">
-        <v>0.7452761620540469</v>
+        <v>0.7452761624473054</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2940004419692805</v>
+        <v>0.2940004414416123</v>
       </c>
     </row>
     <row r="186">
@@ -6306,31 +6310,31 @@
         <v>5.3024</v>
       </c>
       <c r="B186" t="n">
-        <v>8.239412040846678e-12</v>
+        <v>6.55671576335489e-13</v>
       </c>
       <c r="C186" t="n">
-        <v>9.851931971271638e-12</v>
+        <v>7.839918339808566e-13</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.22348675452835e-12</v>
+        <v>-9.736198173499121e-14</v>
       </c>
       <c r="E186" t="n">
-        <v>4.301463234728135e-12</v>
+        <v>3.422995673854767e-13</v>
       </c>
       <c r="F186" t="n">
-        <v>6.117039095299662e-12</v>
+        <v>4.867785038110918e-13</v>
       </c>
       <c r="G186" t="n">
-        <v>1.110072735565049e-11</v>
+        <v>8.83367813135737e-13</v>
       </c>
       <c r="H186" t="n">
-        <v>0.2796489007826531</v>
+        <v>0.2796489045682261</v>
       </c>
       <c r="I186" t="n">
-        <v>0.9638094003962288</v>
+        <v>0.963809399701807</v>
       </c>
       <c r="J186" t="n">
-        <v>0.09321630026088436</v>
+        <v>0.09321630152274203</v>
       </c>
     </row>
     <row r="187">
@@ -6338,31 +6342,31 @@
         <v>5.3082</v>
       </c>
       <c r="B187" t="n">
-        <v>1.032057295449123e-11</v>
+        <v>8.212851002988511e-13</v>
       </c>
       <c r="C187" t="n">
-        <v>4.958042225272709e-12</v>
+        <v>3.945484637123533e-13</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.51180446900407e-12</v>
+        <v>-1.203055742276797e-13</v>
       </c>
       <c r="E187" t="n">
-        <v>4.153159906742368e-12</v>
+        <v>3.304979640293912e-13</v>
       </c>
       <c r="F187" t="n">
-        <v>8.357914925807054e-12</v>
+        <v>6.651017364792139e-13</v>
       </c>
       <c r="G187" t="n">
-        <v>1.110370523085469e-11</v>
+        <v>8.836047875192496e-13</v>
       </c>
       <c r="H187" t="n">
-        <v>0.5421714903520222</v>
+        <v>0.5421714846866795</v>
       </c>
       <c r="I187" t="n">
-        <v>0.9095335030743797</v>
+        <v>0.9095335043434146</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1807238301173407</v>
+        <v>0.1807238282288932</v>
       </c>
     </row>
     <row r="188">
@@ -6370,31 +6374,31 @@
         <v>5.3129</v>
       </c>
       <c r="B188" t="n">
-        <v>9.361969419515221e-12</v>
+        <v>7.450018563119522e-13</v>
       </c>
       <c r="C188" t="n">
-        <v>8.321620872993544e-12</v>
+        <v>6.62213550155687e-13</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.898893864348541e-12</v>
+        <v>-1.511091730566808e-13</v>
       </c>
       <c r="E188" t="n">
-        <v>3.687027505955082e-12</v>
+        <v>2.934043269130137e-13</v>
       </c>
       <c r="F188" t="n">
-        <v>6.144506618574027e-12</v>
+        <v>4.889643011668759e-13</v>
       </c>
       <c r="G188" t="n">
-        <v>9.172598231933795e-12</v>
+        <v>7.299321755811788e-13</v>
       </c>
       <c r="H188" t="n">
-        <v>0.182090769342669</v>
+        <v>0.1820907695238194</v>
       </c>
       <c r="I188" t="n">
-        <v>0.9960985509685966</v>
+        <v>0.9960985509610678</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04552269233566725</v>
+        <v>0.04552269238095485</v>
       </c>
     </row>
     <row r="189">
@@ -6402,31 +6406,31 @@
         <v>5.3175</v>
       </c>
       <c r="B189" t="n">
-        <v>9.62378507217584e-12</v>
+        <v>7.658364812511672e-13</v>
       </c>
       <c r="C189" t="n">
-        <v>-3.264787460627969e-12</v>
+        <v>-2.598035293703375e-13</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.038895450184094e-12</v>
+        <v>-8.267267283081338e-14</v>
       </c>
       <c r="E189" t="n">
-        <v>4.034568479294655e-12</v>
+        <v>3.210607583657967e-13</v>
       </c>
       <c r="F189" t="n">
-        <v>6.135224820349882e-12</v>
+        <v>4.882256785758069e-13</v>
       </c>
       <c r="G189" t="n">
-        <v>9.267398599186712e-12</v>
+        <v>7.374761479747592e-13</v>
       </c>
       <c r="H189" t="n">
-        <v>1.565865666848759</v>
+        <v>1.56586564798253</v>
       </c>
       <c r="I189" t="n">
-        <v>0.8149136145351343</v>
+        <v>0.814913617910775</v>
       </c>
       <c r="J189" t="n">
-        <v>0.3914664167121898</v>
+        <v>0.3914664119956325</v>
       </c>
     </row>
     <row r="190">
@@ -6434,31 +6438,31 @@
         <v>5.3228</v>
       </c>
       <c r="B190" t="n">
-        <v>1.414842200118378e-11</v>
+        <v>1.125895648251838e-12</v>
       </c>
       <c r="C190" t="n">
-        <v>9.568236910570088e-12</v>
+        <v>7.614161036231508e-13</v>
       </c>
       <c r="D190" t="n">
-        <v>-3.153030330627019e-12</v>
+        <v>-2.509101768529085e-13</v>
       </c>
       <c r="E190" t="n">
-        <v>5.499891595261927e-12</v>
+        <v>4.376674670976452e-13</v>
       </c>
       <c r="F190" t="n">
-        <v>9.32129518500252e-12</v>
+        <v>7.417651020457086e-13</v>
       </c>
       <c r="G190" t="n">
-        <v>1.212885338420146e-11</v>
+        <v>9.651834852649149e-13</v>
       </c>
       <c r="H190" t="n">
-        <v>0.7347217565297308</v>
+        <v>0.7347217566608648</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9469789989088447</v>
+        <v>0.9469789988921632</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1836804391324327</v>
+        <v>0.1836804391652162</v>
       </c>
     </row>
     <row r="191">
@@ -6466,31 +6470,31 @@
         <v>5.3277</v>
       </c>
       <c r="B191" t="n">
-        <v>1.461418900993928e-11</v>
+        <v>1.162960206918799e-12</v>
       </c>
       <c r="C191" t="n">
-        <v>2.93984251071115e-12</v>
+        <v>2.339452334314713e-13</v>
       </c>
       <c r="D191" t="n">
-        <v>-8.917296453042617e-12</v>
+        <v>-7.096159008033216e-13</v>
       </c>
       <c r="E191" t="n">
-        <v>5.776109742778998e-12</v>
+        <v>4.596482084313511e-13</v>
       </c>
       <c r="F191" t="n">
-        <v>8.878107503024268e-12</v>
+        <v>7.064973474884057e-13</v>
       </c>
       <c r="G191" t="n">
-        <v>1.173935613095546e-11</v>
+        <v>9.341882785628265e-13</v>
       </c>
       <c r="H191" t="n">
-        <v>0.3091349556935106</v>
+        <v>0.3091349534348927</v>
       </c>
       <c r="I191" t="n">
-        <v>0.9892168771549309</v>
+        <v>0.9892168773044867</v>
       </c>
       <c r="J191" t="n">
-        <v>0.07728373892337764</v>
+        <v>0.07728373835872318</v>
       </c>
     </row>
     <row r="192">
@@ -6498,31 +6502,31 @@
         <v>5.3329</v>
       </c>
       <c r="B192" t="n">
-        <v>9.700768321267244e-12</v>
+        <v>9.068029613090318e-13</v>
       </c>
       <c r="C192" t="n">
-        <v>1.224154025498187e-11</v>
+        <v>5.076276592224316e-13</v>
       </c>
       <c r="D192" t="n">
-        <v>-8.239983727046663e-12</v>
+        <v>-1.527952745487918e-13</v>
       </c>
       <c r="E192" t="n">
-        <v>3.129141437991734e-12</v>
+        <v>2.81429117376852e-13</v>
       </c>
       <c r="F192" t="n">
-        <v>4.111195119614812e-12</v>
+        <v>5.593604885602558e-13</v>
       </c>
       <c r="G192" t="n">
-        <v>7.297628273029468e-12</v>
+        <v>7.592559947543022e-13</v>
       </c>
       <c r="H192" t="n">
-        <v>2.039032302397192</v>
+        <v>0.8511747699263762</v>
       </c>
       <c r="I192" t="n">
-        <v>0.9983539645356647</v>
+        <v>0.9997107389667278</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1853665729451993</v>
+        <v>0.09457497443626402</v>
       </c>
     </row>
     <row r="193">
@@ -6530,31 +6534,31 @@
         <v>5.3375</v>
       </c>
       <c r="B193" t="n">
-        <v>7.577129018198792e-12</v>
+        <v>8.029941292287838e-13</v>
       </c>
       <c r="C193" t="n">
-        <v>6.91369216075873e-12</v>
+        <v>-6.691085902238029e-14</v>
       </c>
       <c r="D193" t="n">
-        <v>-9.110231673741115e-12</v>
+        <v>-2.022965005919726e-13</v>
       </c>
       <c r="E193" t="n">
-        <v>3.549074362933235e-12</v>
+        <v>3.778722324271083e-13</v>
       </c>
       <c r="F193" t="n">
-        <v>3.138818917766727e-12</v>
+        <v>8.137596351962806e-13</v>
       </c>
       <c r="G193" t="n">
-        <v>7.428068950412221e-12</v>
+        <v>8.830192237123231e-13</v>
       </c>
       <c r="H193" t="n">
-        <v>0.9535890889613853</v>
+        <v>0.3187369100702577</v>
       </c>
       <c r="I193" t="n">
-        <v>0.9167498332987387</v>
+        <v>0.9564669038809114</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2383972722403463</v>
+        <v>0.1062456366900859</v>
       </c>
     </row>
     <row r="194">
@@ -6562,31 +6566,31 @@
         <v>5.3427</v>
       </c>
       <c r="B194" t="n">
-        <v>1.370334410816193e-11</v>
+        <v>1.090477477230466e-12</v>
       </c>
       <c r="C194" t="n">
-        <v>1.315874751705667e-12</v>
+        <v>1.04713985795963e-13</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.293914263656809e-12</v>
+        <v>-1.029664333211436e-13</v>
       </c>
       <c r="E194" t="n">
-        <v>5.648227111853101e-12</v>
+        <v>4.494716337850283e-13</v>
       </c>
       <c r="F194" t="n">
-        <v>8.535539839718343e-12</v>
+        <v>6.79236681103907e-13</v>
       </c>
       <c r="G194" t="n">
-        <v>1.270665790773254e-11</v>
+        <v>1.011163712211506e-12</v>
       </c>
       <c r="H194" t="n">
-        <v>1.76913089437992</v>
+        <v>1.769130875407073</v>
       </c>
       <c r="I194" t="n">
-        <v>0.7781249334452423</v>
+        <v>0.7781249369099819</v>
       </c>
       <c r="J194" t="n">
-        <v>0.4422827235949801</v>
+        <v>0.4422827188517682</v>
       </c>
     </row>
     <row r="195">
@@ -6594,31 +6598,31 @@
         <v>5.3429</v>
       </c>
       <c r="B195" t="n">
-        <v>1.033108547801867e-11</v>
+        <v>8.22121659771377e-13</v>
       </c>
       <c r="C195" t="n">
-        <v>-2.747264893543479e-13</v>
+        <v>-2.186204277669462e-14</v>
       </c>
       <c r="D195" t="n">
-        <v>9.801504395008776e-12</v>
+        <v>7.799789382127684e-13</v>
       </c>
       <c r="E195" t="n">
-        <v>3.839940418553257e-12</v>
+        <v>3.0557274978288e-13</v>
       </c>
       <c r="F195" t="n">
-        <v>9.004655753817174e-12</v>
+        <v>7.165677382332548e-13</v>
       </c>
       <c r="G195" t="n">
-        <v>1.030092079701791e-11</v>
+        <v>8.197212333027254e-13</v>
       </c>
       <c r="H195" t="n">
-        <v>2.033162846215133</v>
+        <v>2.033162830708346</v>
       </c>
       <c r="I195" t="n">
-        <v>0.729659194894642</v>
+        <v>0.7296591977465683</v>
       </c>
       <c r="J195" t="n">
-        <v>0.5082907115537831</v>
+        <v>0.5082907076770865</v>
       </c>
     </row>
     <row r="196">
@@ -6626,31 +6630,31 @@
         <v>5.3469</v>
       </c>
       <c r="B196" t="n">
-        <v>1.325920123536789e-11</v>
+        <v>1.055133709270904e-12</v>
       </c>
       <c r="C196" t="n">
-        <v>9.290135307944619e-12</v>
+        <v>7.392854789403324e-13</v>
       </c>
       <c r="D196" t="n">
-        <v>4.635698757597146e-13</v>
+        <v>3.688971430655649e-14</v>
       </c>
       <c r="E196" t="n">
-        <v>4.177727994694543e-12</v>
+        <v>3.324530303184981e-13</v>
       </c>
       <c r="F196" t="n">
-        <v>8.497243106725359e-12</v>
+        <v>6.76189121014432e-13</v>
       </c>
       <c r="G196" t="n">
-        <v>1.056910780998631e-11</v>
+        <v>8.410628749941408e-13</v>
       </c>
       <c r="H196" t="n">
-        <v>1.616706893833219</v>
+        <v>1.616706891251457</v>
       </c>
       <c r="I196" t="n">
-        <v>0.8057862956532944</v>
+        <v>0.8057862961182634</v>
       </c>
       <c r="J196" t="n">
-        <v>0.4041767234583046</v>
+        <v>0.4041767228128643</v>
       </c>
     </row>
     <row r="197">
@@ -6658,31 +6662,31 @@
         <v>5.3483</v>
       </c>
       <c r="B197" t="n">
-        <v>1.517550094289538e-11</v>
+        <v>1.20762799423781e-12</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.944059310355745e-13</v>
+        <v>-1.547032727632624e-14</v>
       </c>
       <c r="D197" t="n">
-        <v>6.900127486809621e-12</v>
+        <v>5.49094693936206e-13</v>
       </c>
       <c r="E197" t="n">
-        <v>4.991300867119981e-12</v>
+        <v>3.971951028112853e-13</v>
       </c>
       <c r="F197" t="n">
-        <v>1.000012449796502e-11</v>
+        <v>7.957846224909708e-13</v>
       </c>
       <c r="G197" t="n">
-        <v>1.045824948904466e-11</v>
+        <v>8.322410502229007e-13</v>
       </c>
       <c r="H197" t="n">
-        <v>2.320871955302817</v>
+        <v>2.320871985863576</v>
       </c>
       <c r="I197" t="n">
-        <v>0.5085341912546999</v>
+        <v>0.5085341854346215</v>
       </c>
       <c r="J197" t="n">
-        <v>0.7736239851009391</v>
+        <v>0.7736239952878585</v>
       </c>
     </row>
     <row r="198">
@@ -6690,31 +6694,31 @@
         <v>5.3486</v>
       </c>
       <c r="B198" t="n">
-        <v>1.728494799892918e-11</v>
+        <v>1.375492459060608e-12</v>
       </c>
       <c r="C198" t="n">
-        <v>5.406727557202249e-12</v>
+        <v>4.302537091089681e-13</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.289092885164588e-11</v>
+        <v>-1.025827526606842e-12</v>
       </c>
       <c r="E198" t="n">
-        <v>4.060237528817656e-12</v>
+        <v>3.231034360718991e-13</v>
       </c>
       <c r="F198" t="n">
-        <v>6.143134822218073e-12</v>
+        <v>4.888551362322298e-13</v>
       </c>
       <c r="G198" t="n">
-        <v>8.564316636145413e-12</v>
+        <v>6.815266624035841e-13</v>
       </c>
       <c r="H198" t="n">
-        <v>0.3150328058876023</v>
+        <v>0.3150328057473748</v>
       </c>
       <c r="I198" t="n">
-        <v>0.9888232046618984</v>
+        <v>0.988823204671333</v>
       </c>
       <c r="J198" t="n">
-        <v>0.07875820147190057</v>
+        <v>0.0787582014368437</v>
       </c>
     </row>
     <row r="199">
@@ -6722,31 +6726,31 @@
         <v>5.3521</v>
       </c>
       <c r="B199" t="n">
-        <v>9.540681141311706e-12</v>
+        <v>7.592232828632092e-13</v>
       </c>
       <c r="C199" t="n">
-        <v>1.143029799578561e-12</v>
+        <v>9.095942221831522e-14</v>
       </c>
       <c r="D199" t="n">
-        <v>9.187545273708046e-12</v>
+        <v>7.31121624686597e-13</v>
       </c>
       <c r="E199" t="n">
-        <v>3.950230685768975e-12</v>
+        <v>3.143493699989271e-13</v>
       </c>
       <c r="F199" t="n">
-        <v>9.473822075610305e-12</v>
+        <v>7.539028064313079e-13</v>
       </c>
       <c r="G199" t="n">
-        <v>9.672363327329719e-12</v>
+        <v>7.697022170145731e-13</v>
       </c>
       <c r="H199" t="n">
-        <v>0.9954712011489096</v>
+        <v>0.9954712052039465</v>
       </c>
       <c r="I199" t="n">
-        <v>0.8023477917631814</v>
+        <v>0.8023477907819863</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3318237337163032</v>
+        <v>0.3318237350679822</v>
       </c>
     </row>
     <row r="200">
@@ -6754,31 +6758,31 @@
         <v>5.3536</v>
       </c>
       <c r="B200" t="n">
-        <v>1.689492147816615e-11</v>
+        <v>1.344455133607031e-12</v>
       </c>
       <c r="C200" t="n">
-        <v>4.972957585608274e-12</v>
+        <v>3.957353871058626e-13</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.381370672742679e-12</v>
+        <v>-1.099259835066081e-13</v>
       </c>
       <c r="E200" t="n">
-        <v>3.938151778969283e-12</v>
+        <v>3.13388161251796e-13</v>
       </c>
       <c r="F200" t="n">
-        <v>6.916875258389937e-12</v>
+        <v>5.50427444085919e-13</v>
       </c>
       <c r="G200" t="n">
-        <v>8.665090854938403e-12</v>
+        <v>6.895460215235192e-13</v>
       </c>
       <c r="H200" t="n">
-        <v>1.894842109945154</v>
+        <v>1.894842080800208</v>
       </c>
       <c r="I200" t="n">
-        <v>0.7550924449163617</v>
+        <v>0.7550924502695997</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4737105274862884</v>
+        <v>0.4737105202000519</v>
       </c>
     </row>
     <row r="201">
@@ -6786,31 +6790,31 @@
         <v>5.3579</v>
       </c>
       <c r="B201" t="n">
-        <v>1.117964643858077e-11</v>
+        <v>8.896479960329714e-13</v>
       </c>
       <c r="C201" t="n">
-        <v>-5.025604617921841e-12</v>
+        <v>-3.999249075747528e-13</v>
       </c>
       <c r="D201" t="n">
-        <v>7.640934529695673e-13</v>
+        <v>6.080462355730548e-14</v>
       </c>
       <c r="E201" t="n">
-        <v>4.506727032297459e-12</v>
+        <v>3.586339427732164e-13</v>
       </c>
       <c r="F201" t="n">
-        <v>8.474724238382015e-12</v>
+        <v>6.74397128217162e-13</v>
       </c>
       <c r="G201" t="n">
-        <v>9.491458242933156e-12</v>
+        <v>7.553062493605628e-13</v>
       </c>
       <c r="H201" t="n">
-        <v>0.5300896701531062</v>
+        <v>0.5300896709884978</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9705064107522724</v>
+        <v>0.9705064106673403</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1325224175382765</v>
+        <v>0.1325224177471244</v>
       </c>
     </row>
     <row r="202">
@@ -6818,31 +6822,31 @@
         <v>5.3598</v>
       </c>
       <c r="B202" t="n">
-        <v>6.265611403388447e-12</v>
+        <v>4.986015126476072e-13</v>
       </c>
       <c r="C202" t="n">
-        <v>3.263804507931971e-12</v>
+        <v>2.597253101087781e-13</v>
       </c>
       <c r="D202" t="n">
-        <v>-3.698752024794617e-12</v>
+        <v>-2.943373321496803e-13</v>
       </c>
       <c r="E202" t="n">
-        <v>2.87581106616773e-12</v>
+        <v>2.288497732961449e-13</v>
       </c>
       <c r="F202" t="n">
-        <v>3.94704785864758e-12</v>
+        <v>3.14096088556679e-13</v>
       </c>
       <c r="G202" t="n">
-        <v>7.572399241806101e-12</v>
+        <v>6.025923853088085e-13</v>
       </c>
       <c r="H202" t="n">
-        <v>0.9631255019849481</v>
+        <v>0.9631255019537607</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9153348654697072</v>
+        <v>0.9153348654743465</v>
       </c>
       <c r="J202" t="n">
-        <v>0.240781375496237</v>
+        <v>0.2407813754884402</v>
       </c>
     </row>
     <row r="203">
@@ -6850,31 +6854,31 @@
         <v>5.3619</v>
       </c>
       <c r="B203" t="n">
-        <v>5.439811856952294e-12</v>
+        <v>4.328864739994227e-13</v>
       </c>
       <c r="C203" t="n">
-        <v>9.099346514957193e-13</v>
+        <v>7.241029846100744e-14</v>
       </c>
       <c r="D203" t="n">
-        <v>5.056458672999869e-13</v>
+        <v>4.023801515099522e-14</v>
       </c>
       <c r="E203" t="n">
-        <v>2.829150885309787e-12</v>
+        <v>2.251366743584448e-13</v>
       </c>
       <c r="F203" t="n">
-        <v>4.592255991923118e-12</v>
+        <v>3.654401209789977e-13</v>
       </c>
       <c r="G203" t="n">
-        <v>1.208469517946541e-11</v>
+        <v>9.616694869679613e-13</v>
       </c>
       <c r="H203" t="n">
-        <v>1.943245963620535</v>
+        <v>1.943245960809533</v>
       </c>
       <c r="I203" t="n">
-        <v>0.5842693705656619</v>
+        <v>0.5842693711573115</v>
       </c>
       <c r="J203" t="n">
-        <v>0.6477486545401783</v>
+        <v>0.6477486536031776</v>
       </c>
     </row>
     <row r="204">
@@ -6882,31 +6886,31 @@
         <v>5.3639</v>
       </c>
       <c r="B204" t="n">
-        <v>1.053641867500168e-11</v>
+        <v>8.384615579598386e-13</v>
       </c>
       <c r="C204" t="n">
-        <v>-5.777286859644688e-12</v>
+        <v>-4.597418795438579e-13</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.994160666357852e-12</v>
+        <v>-1.586902670423639e-13</v>
       </c>
       <c r="E204" t="n">
-        <v>4.496036387190995e-12</v>
+        <v>3.577832081654522e-13</v>
       </c>
       <c r="F204" t="n">
-        <v>8.219512542805346e-12</v>
+        <v>6.540880257315582e-13</v>
       </c>
       <c r="G204" t="n">
-        <v>1.012602614276604e-11</v>
+        <v>8.058035584397105e-13</v>
       </c>
       <c r="H204" t="n">
-        <v>2.471994564631608</v>
+        <v>2.471994551311918</v>
       </c>
       <c r="I204" t="n">
-        <v>0.6496575231253177</v>
+        <v>0.6496575255169522</v>
       </c>
       <c r="J204" t="n">
-        <v>0.6179986411579019</v>
+        <v>0.6179986378279795</v>
       </c>
     </row>
     <row r="205">
@@ -6914,31 +6918,31 @@
         <v>5.366</v>
       </c>
       <c r="B205" t="n">
-        <v>5.187788514991344e-12</v>
+        <v>4.128310926260336e-13</v>
       </c>
       <c r="C205" t="n">
-        <v>3.295115491253376e-12</v>
+        <v>2.622169585197573e-13</v>
       </c>
       <c r="D205" t="n">
-        <v>-3.401458255905925e-12</v>
+        <v>-2.706794458391388e-13</v>
       </c>
       <c r="E205" t="n">
-        <v>2.375507437290544e-12</v>
+        <v>1.890368756353122e-13</v>
       </c>
       <c r="F205" t="n">
-        <v>2.759202671152424e-12</v>
+        <v>2.195703723180167e-13</v>
       </c>
       <c r="G205" t="n">
-        <v>5.395272604741814e-12</v>
+        <v>4.293421524482018e-13</v>
       </c>
       <c r="H205" t="n">
-        <v>1.177403393803282</v>
+        <v>1.17740339497738</v>
       </c>
       <c r="I205" t="n">
-        <v>0.8818048049474291</v>
+        <v>0.8818048047556064</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2943508484508204</v>
+        <v>0.294350848744345</v>
       </c>
     </row>
     <row r="206">
@@ -6946,31 +6950,31 @@
         <v>5.368</v>
       </c>
       <c r="B206" t="n">
-        <v>9.328276156231147e-12</v>
+        <v>7.423206303858594e-13</v>
       </c>
       <c r="C206" t="n">
-        <v>4.518354021608566e-12</v>
+        <v>3.595591863584506e-13</v>
       </c>
       <c r="D206" t="n">
-        <v>-1.5778076275585e-12</v>
+        <v>-1.255579418547274e-13</v>
       </c>
       <c r="E206" t="n">
-        <v>3.404942241944421e-12</v>
+        <v>2.709566941847989e-13</v>
       </c>
       <c r="F206" t="n">
-        <v>6.765139281221559e-12</v>
+        <v>5.383526781609585e-13</v>
       </c>
       <c r="G206" t="n">
-        <v>9.388999394236068e-12</v>
+        <v>7.471528314819958e-13</v>
       </c>
       <c r="H206" t="n">
-        <v>0.9318101166088475</v>
+        <v>0.9318101174944934</v>
       </c>
       <c r="I206" t="n">
-        <v>0.9199534396012099</v>
+        <v>0.9199534394717344</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2329525291522119</v>
+        <v>0.2329525293736233</v>
       </c>
     </row>
     <row r="207">
@@ -6978,31 +6982,31 @@
         <v>5.3697</v>
       </c>
       <c r="B207" t="n">
-        <v>1.474866627351254e-11</v>
+        <v>1.173661571014936e-12</v>
       </c>
       <c r="C207" t="n">
-        <v>-2.812719392894332e-13</v>
+        <v>-2.238291128373816e-14</v>
       </c>
       <c r="D207" t="n">
-        <v>-8.82708158475181e-12</v>
+        <v>-7.024368320427653e-13</v>
       </c>
       <c r="E207" t="n">
-        <v>6.057875581515995e-12</v>
+        <v>4.820704209071321e-13</v>
       </c>
       <c r="F207" t="n">
-        <v>9.028248542745617e-12</v>
+        <v>7.184451908300989e-13</v>
       </c>
       <c r="G207" t="n">
-        <v>1.182128638630069e-11</v>
+        <v>9.407080798470979e-13</v>
       </c>
       <c r="H207" t="n">
-        <v>0.8610474073843835</v>
+        <v>0.8610474093739615</v>
       </c>
       <c r="I207" t="n">
-        <v>0.8348163063343947</v>
+        <v>0.8348163058555325</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2870158024614611</v>
+        <v>0.2870158031246539</v>
       </c>
     </row>
     <row r="208">
@@ -7010,31 +7014,31 @@
         <v>5.3748</v>
       </c>
       <c r="B208" t="n">
-        <v>2.011656078880841e-11</v>
+        <v>1.600825046933327e-12</v>
       </c>
       <c r="C208" t="n">
-        <v>8.823623406001247e-12</v>
+        <v>7.021616412194217e-13</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.231274493113716e-11</v>
+        <v>-9.798171133988781e-13</v>
       </c>
       <c r="E208" t="n">
-        <v>4.027221687818635e-12</v>
+        <v>3.20476119122717e-13</v>
       </c>
       <c r="F208" t="n">
-        <v>8.158965498954261e-12</v>
+        <v>6.492698444790677e-13</v>
       </c>
       <c r="G208" t="n">
-        <v>8.878488087934266e-12</v>
+        <v>7.065276326007086e-13</v>
       </c>
       <c r="H208" t="n">
-        <v>1.646132715654547</v>
+        <v>1.646132734770321</v>
       </c>
       <c r="I208" t="n">
-        <v>0.8004778137264918</v>
+        <v>0.8004778102723229</v>
       </c>
       <c r="J208" t="n">
-        <v>0.4115331789136367</v>
+        <v>0.4115331836925801</v>
       </c>
     </row>
     <row r="209">
@@ -7042,31 +7046,31 @@
         <v>5.3801</v>
       </c>
       <c r="B209" t="n">
-        <v>2.414606606822023e-11</v>
+        <v>1.921482886464961e-12</v>
       </c>
       <c r="C209" t="n">
-        <v>1.587698295104257e-11</v>
+        <v>1.263450164673925e-12</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.234485392506057e-12</v>
+        <v>-9.823722756662048e-14</v>
       </c>
       <c r="E209" t="n">
-        <v>3.517688789398205e-12</v>
+        <v>2.799287795354114e-13</v>
       </c>
       <c r="F209" t="n">
-        <v>6.583754451169587e-12</v>
+        <v>5.239185325267772e-13</v>
       </c>
       <c r="G209" t="n">
-        <v>7.991690223604805e-12</v>
+        <v>6.359585014136199e-13</v>
       </c>
       <c r="H209" t="n">
-        <v>2.032849498502067</v>
+        <v>2.032849509796059</v>
       </c>
       <c r="I209" t="n">
-        <v>0.7297168242224089</v>
+        <v>0.7297168221452723</v>
       </c>
       <c r="J209" t="n">
-        <v>0.5082123746255168</v>
+        <v>0.5082123774490148</v>
       </c>
     </row>
     <row r="210">
@@ -7074,31 +7078,31 @@
         <v>5.3829</v>
       </c>
       <c r="B210" t="n">
-        <v>2.695391966094553e-11</v>
+        <v>2.144924776669083e-12</v>
       </c>
       <c r="C210" t="n">
-        <v>1.080110825156171e-11</v>
+        <v>8.595248809845911e-13</v>
       </c>
       <c r="D210" t="n">
-        <v>8.529967821954572e-12</v>
+        <v>6.787932717796946e-13</v>
       </c>
       <c r="E210" t="n">
-        <v>3.446269356103438e-12</v>
+        <v>2.74245401839172e-13</v>
       </c>
       <c r="F210" t="n">
-        <v>7.135852316121724e-12</v>
+        <v>5.678530855650996e-13</v>
       </c>
       <c r="G210" t="n">
-        <v>8.023024910694201e-12</v>
+        <v>6.384520371996788e-13</v>
       </c>
       <c r="H210" t="n">
-        <v>2.199230971303552</v>
+        <v>2.199230976635321</v>
       </c>
       <c r="I210" t="n">
-        <v>0.6991700713024686</v>
+        <v>0.6991700703262991</v>
       </c>
       <c r="J210" t="n">
-        <v>0.5498077428258881</v>
+        <v>0.5498077441588303</v>
       </c>
     </row>
     <row r="211">
@@ -7106,31 +7110,31 @@
         <v>5.3833</v>
       </c>
       <c r="B211" t="n">
-        <v>2.520060656246523e-11</v>
+        <v>2.00540054715096e-12</v>
       </c>
       <c r="C211" t="n">
-        <v>1.370042347219899e-11</v>
+        <v>1.090245061747832e-12</v>
       </c>
       <c r="D211" t="n">
-        <v>-1.517744581072507e-12</v>
+        <v>-1.207782735693233e-13</v>
       </c>
       <c r="E211" t="n">
-        <v>2.678567396480448e-12</v>
+        <v>2.131536206172127e-13</v>
       </c>
       <c r="F211" t="n">
-        <v>5.256717978991168e-12</v>
+        <v>4.183163251262597e-13</v>
       </c>
       <c r="G211" t="n">
-        <v>6.428663675665173e-12</v>
+        <v>5.115768007014603e-13</v>
       </c>
       <c r="H211" t="n">
-        <v>6.32750658712307</v>
+        <v>6.32750663302174</v>
       </c>
       <c r="I211" t="n">
-        <v>0.1759885413503095</v>
+        <v>0.1759885382814846</v>
       </c>
       <c r="J211" t="n">
-        <v>1.581876646780767</v>
+        <v>1.581876658255435</v>
       </c>
     </row>
     <row r="212">
@@ -7138,31 +7142,31 @@
         <v>5.3839</v>
       </c>
       <c r="B212" t="n">
-        <v>2.904912140168686e-11</v>
+        <v>2.311655633045887e-12</v>
       </c>
       <c r="C212" t="n">
-        <v>6.394729752177748e-12</v>
+        <v>5.088764229734767e-13</v>
       </c>
       <c r="D212" t="n">
-        <v>1.040837950675504e-11</v>
+        <v>8.282725242515024e-13</v>
       </c>
       <c r="E212" t="n">
-        <v>2.867802949215283e-12</v>
+        <v>2.282125075794004e-13</v>
       </c>
       <c r="F212" t="n">
-        <v>5.972283254162088e-12</v>
+        <v>4.752592007451362e-13</v>
       </c>
       <c r="G212" t="n">
-        <v>6.575132690434985e-12</v>
+        <v>5.232324342941532e-13</v>
       </c>
       <c r="H212" t="n">
-        <v>7.910468166548754</v>
+        <v>7.910468189432804</v>
       </c>
       <c r="I212" t="n">
-        <v>0.09491346713158796</v>
+        <v>0.09491346626474838</v>
       </c>
       <c r="J212" t="n">
-        <v>1.977617041637189</v>
+        <v>1.977617047358201</v>
       </c>
     </row>
     <row r="213">
@@ -7170,31 +7174,31 @@
         <v>5.386</v>
       </c>
       <c r="B213" t="n">
-        <v>2.818520997997998e-11</v>
+        <v>2.242907747608952e-12</v>
       </c>
       <c r="C213" t="n">
-        <v>1.506269964108724e-11</v>
+        <v>1.198651553674239e-12</v>
       </c>
       <c r="D213" t="n">
-        <v>-9.772301924941398e-12</v>
+        <v>-7.776550761393982e-13</v>
       </c>
       <c r="E213" t="n">
-        <v>2.944561058947388e-12</v>
+        <v>2.343207238790851e-13</v>
       </c>
       <c r="F213" t="n">
-        <v>5.508134720445791e-12</v>
+        <v>4.383234338453288e-13</v>
       </c>
       <c r="G213" t="n">
-        <v>6.566696055541167e-12</v>
+        <v>5.22561068519851e-13</v>
       </c>
       <c r="H213" t="n">
-        <v>2.650493867237698</v>
+        <v>2.650493856458942</v>
       </c>
       <c r="I213" t="n">
-        <v>0.6179049152312193</v>
+        <v>0.6179049171291833</v>
       </c>
       <c r="J213" t="n">
-        <v>0.6626234668094244</v>
+        <v>0.6626234641147354</v>
       </c>
     </row>
     <row r="214">
@@ -7202,31 +7206,31 @@
         <v>5.3899</v>
       </c>
       <c r="B214" t="n">
-        <v>2.707712048824081e-11</v>
+        <v>2.154728786525614e-12</v>
       </c>
       <c r="C214" t="n">
-        <v>1.044034575971345e-11</v>
+        <v>8.30816320529505e-13</v>
       </c>
       <c r="D214" t="n">
-        <v>-3.897587868688223e-12</v>
+        <v>-3.101601925585815e-13</v>
       </c>
       <c r="E214" t="n">
-        <v>2.335119201780029e-12</v>
+        <v>1.858228818457067e-13</v>
       </c>
       <c r="F214" t="n">
-        <v>4.434143657910661e-12</v>
+        <v>3.528579406495419e-13</v>
       </c>
       <c r="G214" t="n">
-        <v>5.454499942358018e-12</v>
+        <v>4.340553137645207e-13</v>
       </c>
       <c r="H214" t="n">
-        <v>3.129062355533685</v>
+        <v>3.129062347226381</v>
       </c>
       <c r="I214" t="n">
-        <v>0.5364641760665727</v>
+        <v>0.5364641774259722</v>
       </c>
       <c r="J214" t="n">
-        <v>0.7822655888834213</v>
+        <v>0.7822655868065953</v>
       </c>
     </row>
     <row r="215">
@@ -7234,31 +7238,31 @@
         <v>5.3931</v>
       </c>
       <c r="B215" t="n">
-        <v>2.563064923310895e-11</v>
+        <v>2.039622258537611e-12</v>
       </c>
       <c r="C215" t="n">
-        <v>9.568021140475825e-12</v>
+        <v>7.613989337522946e-13</v>
       </c>
       <c r="D215" t="n">
-        <v>-6.01707630138579e-12</v>
+        <v>-4.788237216544481e-13</v>
       </c>
       <c r="E215" t="n">
-        <v>2.434191847374514e-12</v>
+        <v>1.937068325579373e-13</v>
       </c>
       <c r="F215" t="n">
-        <v>4.788505353670388e-12</v>
+        <v>3.810571484692371e-13</v>
       </c>
       <c r="G215" t="n">
-        <v>5.455938561991217e-12</v>
+        <v>4.341697955791768e-13</v>
       </c>
       <c r="H215" t="n">
-        <v>5.222080254057755</v>
+        <v>5.222080244584679</v>
       </c>
       <c r="I215" t="n">
-        <v>0.2652601404718805</v>
+        <v>0.2652601413803582</v>
       </c>
       <c r="J215" t="n">
-        <v>1.305520063514439</v>
+        <v>1.30552006114617</v>
       </c>
     </row>
     <row r="216">
@@ -7266,31 +7270,31 @@
         <v>5.4034</v>
       </c>
       <c r="B216" t="n">
-        <v>1.63899606050832e-11</v>
+        <v>1.304271624643303e-12</v>
       </c>
       <c r="C216" t="n">
-        <v>-1.642409751156606e-13</v>
+        <v>-1.306988349374811e-14</v>
       </c>
       <c r="D216" t="n">
-        <v>3.553488198703027e-13</v>
+        <v>2.827775797621999e-14</v>
       </c>
       <c r="E216" t="n">
-        <v>2.073005485303915e-12</v>
+        <v>1.649645350518081e-13</v>
       </c>
       <c r="F216" t="n">
-        <v>3.914076968270367e-12</v>
+        <v>3.114723487024198e-13</v>
       </c>
       <c r="G216" t="n">
-        <v>4.605787190194066e-12</v>
+        <v>3.665168991198663e-13</v>
       </c>
       <c r="H216" t="n">
-        <v>0.9081139608500506</v>
+        <v>0.9081139477842783</v>
       </c>
       <c r="I216" t="n">
-        <v>0.9233938645497266</v>
+        <v>0.9233938664334669</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2270284902125126</v>
+        <v>0.2270284869460696</v>
       </c>
     </row>
     <row r="217">
@@ -7298,31 +7302,31 @@
         <v>5.4141</v>
       </c>
       <c r="B217" t="n">
-        <v>1.679655718215352e-11</v>
+        <v>1.336627551746651e-12</v>
       </c>
       <c r="C217" t="n">
-        <v>6.359381022778038e-12</v>
+        <v>5.060634625428522e-13</v>
       </c>
       <c r="D217" t="n">
-        <v>1.78383535088692e-12</v>
+        <v>1.419531038588715e-13</v>
       </c>
       <c r="E217" t="n">
-        <v>2.244293426441832e-12</v>
+        <v>1.785951962395585e-13</v>
       </c>
       <c r="F217" t="n">
-        <v>4.485546137335651e-12</v>
+        <v>3.56948420012286e-13</v>
       </c>
       <c r="G217" t="n">
-        <v>5.254295189320943e-12</v>
+        <v>4.181235259931391e-13</v>
       </c>
       <c r="H217" t="n">
-        <v>4.594184554829784</v>
+        <v>4.594184566327555</v>
       </c>
       <c r="I217" t="n">
-        <v>0.3315252426758633</v>
+        <v>0.3315252413480178</v>
       </c>
       <c r="J217" t="n">
-        <v>1.148546138707446</v>
+        <v>1.148546141581889</v>
       </c>
     </row>
     <row r="218">
@@ -7330,31 +7334,31 @@
         <v>5.4244</v>
       </c>
       <c r="B218" t="n">
-        <v>1.149983535950022e-11</v>
+        <v>9.151278213668734e-13</v>
       </c>
       <c r="C218" t="n">
-        <v>-1.014709543788451e-12</v>
+        <v>-8.074802060286963e-14</v>
       </c>
       <c r="D218" t="n">
-        <v>4.35193705610485e-12</v>
+        <v>3.463161463078653e-13</v>
       </c>
       <c r="E218" t="n">
-        <v>1.925921675762325e-12</v>
+        <v>1.532599772845291e-13</v>
       </c>
       <c r="F218" t="n">
-        <v>3.950284862049636e-12</v>
+        <v>3.143536811971731e-13</v>
       </c>
       <c r="G218" t="n">
-        <v>4.618222164918457e-12</v>
+        <v>3.675064429346628e-13</v>
       </c>
       <c r="H218" t="n">
-        <v>0.04226625700096254</v>
+        <v>0.04226625970115587</v>
       </c>
       <c r="I218" t="n">
-        <v>0.9997798167299606</v>
+        <v>0.9997798167020255</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01056656425024064</v>
+        <v>0.01056656492528897</v>
       </c>
     </row>
     <row r="219">
@@ -7362,31 +7366,31 @@
         <v>5.4354</v>
       </c>
       <c r="B219" t="n">
-        <v>1.294570381391911e-11</v>
+        <v>1.030186376188586e-12</v>
       </c>
       <c r="C219" t="n">
-        <v>7.017620114027408e-12</v>
+        <v>5.584444631951467e-13</v>
       </c>
       <c r="D219" t="n">
-        <v>1.40595609020158e-12</v>
+        <v>1.118824280246242e-13</v>
       </c>
       <c r="E219" t="n">
-        <v>1.969777858481688e-12</v>
+        <v>1.567499415211697e-13</v>
       </c>
       <c r="F219" t="n">
-        <v>3.44268243833109e-12</v>
+        <v>2.73959963653664e-13</v>
       </c>
       <c r="G219" t="n">
-        <v>4.732247746618119e-12</v>
+        <v>3.765803106130261e-13</v>
       </c>
       <c r="H219" t="n">
-        <v>4.867000866868286</v>
+        <v>4.867000845895344</v>
       </c>
       <c r="I219" t="n">
-        <v>0.3012182607847494</v>
+        <v>0.3012182630234962</v>
       </c>
       <c r="J219" t="n">
-        <v>1.216750216717072</v>
+        <v>1.216750211473836</v>
       </c>
     </row>
     <row r="220">
@@ -7394,31 +7398,31 @@
         <v>5.4393</v>
       </c>
       <c r="B220" t="n">
-        <v>1.823354847443982e-11</v>
+        <v>1.450979683233028e-12</v>
       </c>
       <c r="C220" t="n">
-        <v>6.849603449721948e-12</v>
+        <v>5.450741273748284e-13</v>
       </c>
       <c r="D220" t="n">
-        <v>-8.857207893431177e-12</v>
+        <v>-7.048342072595313e-13</v>
       </c>
       <c r="E220" t="n">
-        <v>2.463147670797438e-12</v>
+        <v>1.960110635865021e-13</v>
       </c>
       <c r="F220" t="n">
-        <v>4.536222633551479e-12</v>
+        <v>3.60981127424884e-13</v>
       </c>
       <c r="G220" t="n">
-        <v>5.405706956931214e-12</v>
+        <v>4.301724912889174e-13</v>
       </c>
       <c r="H220" t="n">
-        <v>2.048737807133759</v>
+        <v>2.048737804570873</v>
       </c>
       <c r="I220" t="n">
-        <v>0.7267949402674448</v>
+        <v>0.7267949407387237</v>
       </c>
       <c r="J220" t="n">
-        <v>0.5121844517834397</v>
+        <v>0.5121844511427182</v>
       </c>
     </row>
   </sheetData>
